--- a/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
+++ b/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
@@ -746,7 +746,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1047"/>
+  <dimension ref="A1:AP1049"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
@@ -1096,11 +1096,11 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="72">
       <c r="A5" s="83" t="n">
-        <v>45957</v>
+        <v>45972</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1112,18 +1112,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>526.855</v>
+        <v>500.02</v>
       </c>
       <c r="F5" t="n">
-        <v>5294.85</v>
+        <v>5025.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>26.3</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1131,78 +1131,80 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="72">
-      <c r="A6" s="70" t="n">
-        <v>46007</v>
+      <c r="A6" s="83" t="n">
+        <v>45967</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>508.4125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6131.43</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CN#252607785263</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="J6">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="72">
+      <c r="A7" s="83" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>433.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>872.95</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="72">
-      <c r="A7" s="70" t="n">
-        <v>46007</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>433.35</v>
+        <v>526.855</v>
       </c>
       <c r="F7" t="n">
-        <v>3491.38</v>
+        <v>5294.85</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3.45</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>21.13</v>
+        <v>26.3</v>
+      </c>
+      <c r="J7">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="72">
       <c r="A8" s="70" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1215,13 +1217,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>433.95</v>
+        <v>433.4</v>
       </c>
       <c r="F8" t="n">
-        <v>13110.82</v>
+        <v>872.95</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1229,15 +1231,15 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13.07</v>
+        <v>0.87</v>
       </c>
       <c r="I8" t="n">
-        <v>79.25</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="72">
       <c r="A9" s="70" t="n">
-        <v>45999</v>
+        <v>46007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1253,10 +1255,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>426.5</v>
+        <v>433.35</v>
       </c>
       <c r="F9" t="n">
-        <v>3436.31</v>
+        <v>3491.38</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1264,15 +1266,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>20.79</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="72">
       <c r="A10" s="70" t="n">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1285,13 +1287,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>426.4</v>
+        <v>433.95</v>
       </c>
       <c r="F10" t="n">
-        <v>3435.51</v>
+        <v>13110.82</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1299,10 +1301,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.52</v>
+        <v>13.07</v>
       </c>
       <c r="I10" t="n">
-        <v>20.79</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="72">
@@ -1320,13 +1322,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>426.4</v>
+        <v>426.5</v>
       </c>
       <c r="F11" t="n">
-        <v>429.43</v>
+        <v>3436.31</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1334,10 +1336,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.44</v>
+        <v>3.52</v>
       </c>
       <c r="I11" t="n">
-        <v>2.59</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="72">
@@ -1355,13 +1357,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>426.55</v>
+        <v>426.4</v>
       </c>
       <c r="F12" t="n">
-        <v>1288.77</v>
+        <v>3435.51</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1369,19 +1371,19 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.32</v>
+        <v>3.52</v>
       </c>
       <c r="I12" t="n">
-        <v>7.8</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="72">
       <c r="A13" s="70" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1390,13 +1392,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>434.45</v>
+        <v>426.4</v>
       </c>
       <c r="F13" t="n">
-        <v>7875.57</v>
+        <v>429.43</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1404,19 +1406,19 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.79</v>
+        <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>47.68</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="72">
       <c r="A14" s="70" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1425,13 +1427,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>434.4</v>
+        <v>426.55</v>
       </c>
       <c r="F14" t="n">
-        <v>874.95</v>
+        <v>1288.77</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1439,15 +1441,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.87</v>
+        <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>5.28</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="72">
       <c r="A15" s="70" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1460,13 +1462,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>457.5</v>
+        <v>434.45</v>
       </c>
       <c r="F15" t="n">
-        <v>4607.51</v>
+        <v>7875.57</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1474,19 +1476,19 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4.61</v>
+        <v>7.79</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="72">
       <c r="A16" s="70" t="n">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1495,13 +1497,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>461</v>
+        <v>434.4</v>
       </c>
       <c r="F16" t="n">
-        <v>1857.11</v>
+        <v>874.95</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1509,19 +1511,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.84</v>
+        <v>0.87</v>
       </c>
       <c r="I16" t="n">
-        <v>11.27</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="72">
       <c r="A17" s="70" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1530,13 +1532,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>460.95</v>
+        <v>457.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2785.28</v>
+        <v>4607.51</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1544,15 +1546,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.77</v>
+        <v>4.61</v>
       </c>
       <c r="I17" t="n">
-        <v>16.81</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="72">
       <c r="A18" s="70" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1565,13 +1567,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>466.05</v>
+        <v>461</v>
       </c>
       <c r="F18" t="n">
-        <v>938.7</v>
+        <v>1857.11</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1579,15 +1581,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.93</v>
+        <v>1.84</v>
       </c>
       <c r="I18" t="n">
-        <v>5.67</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="72">
       <c r="A19" s="70" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1600,13 +1602,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>466</v>
+        <v>460.95</v>
       </c>
       <c r="F19" t="n">
-        <v>3754.42</v>
+        <v>2785.28</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1614,19 +1616,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.72</v>
+        <v>2.77</v>
       </c>
       <c r="I19" t="n">
-        <v>22.7</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="72">
       <c r="A20" s="70" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1635,13 +1637,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>463.6</v>
+        <v>466.05</v>
       </c>
       <c r="F20" t="n">
-        <v>9337.82</v>
+        <v>938.7</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1649,15 +1651,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="I20" t="n">
-        <v>56.56</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="72">
       <c r="A21" s="70" t="n">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1670,13 +1672,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F21" t="n">
-        <v>9486.889999999999</v>
+        <v>3754.42</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1684,15 +1686,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9.359999999999999</v>
+        <v>3.72</v>
       </c>
       <c r="I21" t="n">
-        <v>57.53</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="72">
       <c r="A22" s="70" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1705,13 +1707,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>494.2</v>
+        <v>463.6</v>
       </c>
       <c r="F22" t="n">
-        <v>3981.64</v>
+        <v>9337.82</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1719,15 +1721,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.96</v>
+        <v>9.26</v>
       </c>
       <c r="I22" t="n">
-        <v>24.08</v>
+        <v>56.56</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="72">
       <c r="A23" s="70" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1740,13 +1742,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>493.85</v>
+        <v>471</v>
       </c>
       <c r="F23" t="n">
-        <v>4476.17</v>
+        <v>9486.889999999999</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1754,19 +1756,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.47</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>27.05</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="72">
       <c r="A24" s="70" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1775,13 +1777,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>493.95</v>
+        <v>494.2</v>
       </c>
       <c r="F24" t="n">
-        <v>2984.69</v>
+        <v>3981.64</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1789,19 +1791,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.97</v>
+        <v>3.96</v>
       </c>
       <c r="I24" t="n">
-        <v>18.02</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="72">
       <c r="A25" s="70" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1810,13 +1812,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>495.25</v>
+        <v>493.85</v>
       </c>
       <c r="F25" t="n">
-        <v>4987.69</v>
+        <v>4476.17</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1824,15 +1826,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4.96</v>
+        <v>4.47</v>
       </c>
       <c r="I25" t="n">
-        <v>30.23</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="72">
       <c r="A26" s="70" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1845,13 +1847,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>506.2</v>
+        <v>493.95</v>
       </c>
       <c r="F26" t="n">
-        <v>5097.88</v>
+        <v>2984.69</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1859,15 +1861,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.04</v>
+        <v>2.97</v>
       </c>
       <c r="I26" t="n">
-        <v>30.84</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="72">
       <c r="A27" s="70" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1880,13 +1882,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>500</v>
+        <v>495.25</v>
       </c>
       <c r="F27" t="n">
-        <v>3021.28</v>
+        <v>4987.69</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1894,19 +1896,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>4.96</v>
       </c>
       <c r="I27" t="n">
-        <v>18.3</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="72">
       <c r="A28" s="70" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1915,13 +1917,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>500.05</v>
+        <v>506.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2014.4</v>
+        <v>5097.88</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1929,19 +1931,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.99</v>
+        <v>5.04</v>
       </c>
       <c r="I28" t="n">
-        <v>12.21</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="72">
       <c r="A29" s="70" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1950,13 +1952,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>504.4</v>
+        <v>500</v>
       </c>
       <c r="F29" t="n">
-        <v>5079.67</v>
+        <v>3021.28</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1964,15 +1966,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.01</v>
+        <v>2.98</v>
       </c>
       <c r="I29" t="n">
-        <v>30.66</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="72">
       <c r="A30" s="70" t="n">
-        <v>45968</v>
+        <v>45972</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1985,13 +1987,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>503.05</v>
+        <v>500.05</v>
       </c>
       <c r="F30" t="n">
-        <v>5066.27</v>
+        <v>2014.4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.02</v>
+        <v>1.99</v>
       </c>
       <c r="I30" t="n">
-        <v>30.75</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="72">
       <c r="A31" s="70" t="n">
-        <v>45967</v>
+        <v>45971</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2020,13 +2022,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>508.4</v>
+        <v>504.4</v>
       </c>
       <c r="F31" t="n">
-        <v>4608.11</v>
+        <v>5079.67</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2034,15 +2036,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4.61</v>
+        <v>5.01</v>
       </c>
       <c r="I31" t="n">
-        <v>27.9</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="72">
       <c r="A32" s="70" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2055,13 +2057,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>508.45</v>
+        <v>503.05</v>
       </c>
       <c r="F32" t="n">
-        <v>1536.21</v>
+        <v>5066.27</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2069,15 +2071,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.54</v>
+        <v>5.02</v>
       </c>
       <c r="I32" t="n">
-        <v>9.32</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="72">
       <c r="A33" s="70" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2090,13 +2092,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>549.9</v>
+        <v>508.4</v>
       </c>
       <c r="F33" t="n">
-        <v>2769</v>
+        <v>4608.11</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2104,19 +2106,19 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.74</v>
+        <v>4.61</v>
       </c>
       <c r="I33" t="n">
-        <v>16.76</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="72">
       <c r="A34" s="70" t="n">
-        <v>45959</v>
+        <v>45967</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2125,13 +2127,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>528.3</v>
+        <v>508.45</v>
       </c>
       <c r="F34" t="n">
-        <v>5320.41</v>
+        <v>1536.21</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2139,19 +2141,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5.27</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
-        <v>32.14</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="72">
       <c r="A35" s="70" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2160,13 +2162,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>526.85</v>
+        <v>549.9</v>
       </c>
       <c r="F35" t="n">
-        <v>4775.2</v>
+        <v>2769</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2174,15 +2176,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>2.74</v>
       </c>
       <c r="I35" t="n">
-        <v>28.8</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="72">
       <c r="A36" s="70" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2195,13 +2197,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>526.9</v>
+        <v>528.3</v>
       </c>
       <c r="F36" t="n">
-        <v>530.64</v>
+        <v>5320.41</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2209,15 +2211,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="I36" t="n">
-        <v>3.21</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="72">
       <c r="A37" s="70" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2230,13 +2232,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>523.05</v>
+        <v>526.85</v>
       </c>
       <c r="F37" t="n">
-        <v>526.77</v>
+        <v>4775.2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2244,15 +2246,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.52</v>
+        <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="72">
       <c r="A38" s="70" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2265,13 +2267,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>523</v>
+        <v>526.9</v>
       </c>
       <c r="F38" t="n">
-        <v>4740.39</v>
+        <v>530.64</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2279,15 +2281,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4.71</v>
+        <v>0.53</v>
       </c>
       <c r="I38" t="n">
-        <v>28.68</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="72">
       <c r="A39" s="70" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2300,13 +2302,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>518.55</v>
+        <v>523.05</v>
       </c>
       <c r="F39" t="n">
-        <v>5222.22</v>
+        <v>526.77</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2314,19 +2316,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="I39" t="n">
-        <v>31.54</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="72">
       <c r="A40" s="70" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2335,13 +2337,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>516.7</v>
+        <v>523</v>
       </c>
       <c r="F40" t="n">
-        <v>520.36</v>
+        <v>4740.39</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2349,19 +2351,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.52</v>
+        <v>4.71</v>
       </c>
       <c r="I40" t="n">
-        <v>3.14</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="72">
       <c r="A41" s="70" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2370,13 +2372,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>516.9</v>
+        <v>518.55</v>
       </c>
       <c r="F41" t="n">
-        <v>520.5599999999999</v>
+        <v>5222.22</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2384,10 +2386,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="I41" t="n">
-        <v>3.14</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="72">
@@ -2405,13 +2407,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>516.75</v>
+        <v>516.7</v>
       </c>
       <c r="F42" t="n">
-        <v>4163.3</v>
+        <v>520.36</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2419,15 +2421,15 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.15</v>
+        <v>0.52</v>
       </c>
       <c r="I42" t="n">
-        <v>25.15</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="72">
       <c r="A43" s="70" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2443,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>549.45</v>
+        <v>516.9</v>
       </c>
       <c r="F43" t="n">
-        <v>553.36</v>
+        <v>520.5599999999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2454,15 +2456,15 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="I43" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="72">
       <c r="A44" s="70" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2475,13 +2477,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>549.6</v>
+        <v>516.75</v>
       </c>
       <c r="F44" t="n">
-        <v>4981.63</v>
+        <v>4163.3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2489,19 +2491,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.11</v>
+        <v>4.15</v>
       </c>
       <c r="I44" t="n">
-        <v>30.12</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="72">
       <c r="A45" s="70" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2510,13 +2512,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>581.65</v>
+        <v>549.45</v>
       </c>
       <c r="F45" t="n">
-        <v>5857.74</v>
+        <v>553.36</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2524,252 +2526,120 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.79</v>
+        <v>0.57</v>
       </c>
       <c r="I45" t="n">
-        <v>35.45</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="72">
       <c r="A46" s="70" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>549.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4981.63</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" s="72">
+      <c r="A47" s="70" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>581.65</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5857.74</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35.45</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" s="72">
+      <c r="A48" s="70" t="n">
         <v>45903</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E48" t="n">
         <v>578.5</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F48" t="n">
         <v>5826.04</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>5.8</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" s="72">
-      <c r="A47" s="25" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B47" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C47" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D47" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" s="28" t="n">
-        <v>643.6799999999999</v>
-      </c>
-      <c r="F47" s="28" t="n">
-        <v>3218.42</v>
-      </c>
-      <c r="G47" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H47" s="27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I47" s="27" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J47" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K47" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T47" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="33" t="n"/>
-      <c r="X47" s="33" t="n"/>
-      <c r="Y47" s="32">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="33" t="n"/>
-      <c r="AA47" s="33" t="n"/>
-      <c r="AB47" s="34" t="n"/>
-      <c r="AC47" s="29">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD47" s="35" t="n"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" s="72">
-      <c r="A48" s="25" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B48" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C48" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D48" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" s="28" t="n">
-        <v>643.63</v>
-      </c>
-      <c r="F48" s="28" t="n">
-        <v>3218.17</v>
-      </c>
-      <c r="G48" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H48" s="27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I48" s="27" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J48" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="33" t="n"/>
-      <c r="X48" s="33" t="n"/>
-      <c r="Y48" s="32">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="33" t="n"/>
-      <c r="AA48" s="33" t="n"/>
-      <c r="AB48" s="34" t="n"/>
-      <c r="AC48" s="29">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD48" s="35" t="n"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="72">
       <c r="A49" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B49" s="26" t="inlineStr">
         <is>
@@ -2782,13 +2652,13 @@
         </is>
       </c>
       <c r="D49" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="28" t="n">
-        <v>616.63</v>
+        <v>643.6799999999999</v>
       </c>
       <c r="F49" s="28" t="n">
-        <v>1233.26</v>
+        <v>3218.42</v>
       </c>
       <c r="G49" s="26" t="inlineStr">
         <is>
@@ -2796,81 +2666,81 @@
         </is>
       </c>
       <c r="H49" s="27" t="n">
-        <v>1.22</v>
+        <v>3.2</v>
       </c>
       <c r="I49" s="27" t="n">
-        <v>7.44</v>
+        <v>19.47</v>
       </c>
       <c r="J49" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L49" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M49" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N49" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O49" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P49" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R49" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S49" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T49" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U49" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V49" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W49" s="33" t="n"/>
       <c r="X49" s="33" t="n"/>
       <c r="Y49" s="32">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z49" s="33" t="n"/>
       <c r="AA49" s="33" t="n"/>
       <c r="AB49" s="34" t="n"/>
       <c r="AC49" s="29">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD49" s="35" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="72">
       <c r="A50" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B50" s="26" t="inlineStr">
         <is>
@@ -2883,13 +2753,13 @@
         </is>
       </c>
       <c r="D50" s="27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>616.54</v>
+        <v>643.63</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>616.54</v>
+        <v>3218.17</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -2897,74 +2767,74 @@
         </is>
       </c>
       <c r="H50" s="27" t="n">
-        <v>0.61</v>
+        <v>3.2</v>
       </c>
       <c r="I50" s="27" t="n">
-        <v>3.73</v>
+        <v>19.47</v>
       </c>
       <c r="J50" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L50" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M50" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P50" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R50" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n"/>
       <c r="X50" s="33" t="n"/>
       <c r="Y50" s="32">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z50" s="33" t="n"/>
       <c r="AA50" s="33" t="n"/>
       <c r="AB50" s="34" t="n"/>
       <c r="AC50" s="29">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
@@ -2987,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>616.53</v>
+        <v>616.63</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>1233.06</v>
+        <v>1233.26</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -3008,64 +2878,64 @@
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L51" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M51" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P51" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R51" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n"/>
       <c r="X51" s="33" t="n"/>
       <c r="Y51" s="32">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z51" s="33" t="n"/>
       <c r="AA51" s="33" t="n"/>
       <c r="AB51" s="34" t="n"/>
       <c r="AC51" s="29">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -3109,64 +2979,64 @@
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L52" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M52" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P52" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R52" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W52" s="33" t="n"/>
       <c r="X52" s="33" t="n"/>
       <c r="Y52" s="32">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z52" s="33" t="n"/>
       <c r="AA52" s="33" t="n"/>
       <c r="AB52" s="34" t="n"/>
       <c r="AC52" s="29">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
@@ -3186,13 +3056,13 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>616.54</v>
+        <v>616.53</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>2466.17</v>
+        <v>1233.06</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
@@ -3200,81 +3070,81 @@
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>2.45</v>
+        <v>1.22</v>
       </c>
       <c r="I53" s="27" t="n">
-        <v>14.92</v>
+        <v>7.44</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L53" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M53" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N53" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O53" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P53" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R53" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S53" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T53" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U53" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V53" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W53" s="33" t="n"/>
       <c r="X53" s="33" t="n"/>
       <c r="Y53" s="32">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z53" s="33" t="n"/>
       <c r="AA53" s="33" t="n"/>
       <c r="AB53" s="34" t="n"/>
       <c r="AC53" s="29">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1" s="72">
       <c r="A54" s="25" t="n">
-        <v>45784</v>
+        <v>45811</v>
       </c>
       <c r="B54" s="26" t="inlineStr">
         <is>
@@ -3287,13 +3157,13 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>502.46</v>
+        <v>616.54</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>10049.14</v>
+        <v>616.54</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
@@ -3301,282 +3171,283 @@
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>10</v>
+        <v>0.61</v>
       </c>
       <c r="I54" s="27" t="n">
-        <v>61.14</v>
+        <v>3.73</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L54" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M54" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N54" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O54" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P54" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R54" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S54" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T54" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U54" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V54" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W54" s="33" t="n"/>
       <c r="X54" s="33" t="n"/>
       <c r="Y54" s="32">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z54" s="33" t="n"/>
       <c r="AA54" s="33" t="n"/>
       <c r="AB54" s="34" t="n"/>
       <c r="AC54" s="29">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1" s="72">
-      <c r="A55" s="36" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B55" s="37" t="inlineStr">
+      <c r="A55" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B55" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C55" s="37" t="inlineStr">
+      <c r="C55" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D55" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E55" s="39" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="F55" s="39">
-        <f>D24*E24</f>
-        <v/>
-      </c>
-      <c r="G55" s="37" t="inlineStr">
+      <c r="D55" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="F55" s="28" t="n">
+        <v>2466.17</v>
+      </c>
+      <c r="G55" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H55" s="38" t="n"/>
-      <c r="I55" s="38" t="n">
-        <v>17.75</v>
+      <c r="H55" s="27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I55" s="27" t="n">
+        <v>14.92</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L55" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M55" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N55" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O55" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P55" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R55" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S55" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T55" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U55" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V55" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W55" s="33" t="n"/>
       <c r="X55" s="33" t="n"/>
       <c r="Y55" s="32">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z55" s="33" t="n"/>
       <c r="AA55" s="33" t="n"/>
       <c r="AB55" s="34" t="n"/>
       <c r="AC55" s="29">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1" s="72">
-      <c r="A56" s="36" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B56" s="37" t="inlineStr">
+      <c r="A56" s="25" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B56" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C56" s="37" t="inlineStr">
+      <c r="C56" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D56" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E56" s="39" t="n">
-        <v>536.5700000000001</v>
-      </c>
-      <c r="F56" s="39" t="n">
-        <v>2682.86</v>
-      </c>
-      <c r="G56" s="37" t="inlineStr">
+      <c r="D56" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" s="28" t="n">
+        <v>502.46</v>
+      </c>
+      <c r="F56" s="28" t="n">
+        <v>10049.14</v>
+      </c>
+      <c r="G56" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H56" s="38" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="I56" s="38" t="n">
-        <v>16.19</v>
+      <c r="H56" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I56" s="27" t="n">
+        <v>61.14</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L56" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M56" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N56" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O56" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P56" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R56" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S56" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T56" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U56" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V56" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W56" s="33" t="n"/>
       <c r="X56" s="33" t="n"/>
       <c r="Y56" s="32">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z56" s="33" t="n"/>
       <c r="AA56" s="33" t="n"/>
       <c r="AB56" s="34" t="n"/>
       <c r="AC56" s="29">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD56" s="35" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1" s="72">
       <c r="A57" s="36" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B57" s="37" t="inlineStr">
         <is>
@@ -3589,95 +3460,94 @@
         </is>
       </c>
       <c r="D57" s="38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="39" t="n">
-        <v>532.86</v>
-      </c>
-      <c r="F57" s="39" t="n">
-        <v>1598.57</v>
+        <v>502.55</v>
+      </c>
+      <c r="F57" s="39">
+        <f>D24*E24</f>
+        <v/>
       </c>
       <c r="G57" s="37" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H57" s="38" t="n">
-        <v>1.59</v>
-      </c>
+      <c r="H57" s="38" t="n"/>
       <c r="I57" s="38" t="n">
-        <v>9.68</v>
+        <v>17.75</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L57" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M57" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N57" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O57" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P57" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R57" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S57" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T57" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U57" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V57" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W57" s="33" t="n"/>
       <c r="X57" s="33" t="n"/>
       <c r="Y57" s="32">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z57" s="33" t="n"/>
       <c r="AA57" s="33" t="n"/>
       <c r="AB57" s="34" t="n"/>
       <c r="AC57" s="29">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD57" s="35" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1" s="72">
       <c r="A58" s="36" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B58" s="37" t="inlineStr">
         <is>
@@ -3690,13 +3560,13 @@
         </is>
       </c>
       <c r="D58" s="38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>532.96</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F58" s="39" t="n">
-        <v>1065.91</v>
+        <v>2682.86</v>
       </c>
       <c r="G58" s="37" t="inlineStr">
         <is>
@@ -3704,81 +3574,81 @@
         </is>
       </c>
       <c r="H58" s="38" t="n">
-        <v>1.06</v>
+        <v>2.67</v>
       </c>
       <c r="I58" s="38" t="n">
-        <v>6.45</v>
+        <v>16.19</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L58" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M58" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N58" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O58" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P58" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R58" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S58" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T58" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U58" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V58" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W58" s="33" t="n"/>
       <c r="X58" s="33" t="n"/>
       <c r="Y58" s="32">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z58" s="33" t="n"/>
       <c r="AA58" s="33" t="n"/>
       <c r="AB58" s="34" t="n"/>
       <c r="AC58" s="29">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD58" s="35" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1" s="72">
       <c r="A59" s="36" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B59" s="37" t="inlineStr">
         <is>
@@ -3791,13 +3661,13 @@
         </is>
       </c>
       <c r="D59" s="38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>554.8</v>
+        <v>532.86</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>4438.38</v>
+        <v>1598.57</v>
       </c>
       <c r="G59" s="37" t="inlineStr">
         <is>
@@ -3805,81 +3675,81 @@
         </is>
       </c>
       <c r="H59" s="38" t="n">
-        <v>4.4</v>
+        <v>1.59</v>
       </c>
       <c r="I59" s="38" t="n">
-        <v>26.78</v>
+        <v>9.68</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L59" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M59" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N59" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O59" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P59" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R59" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S59" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T59" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U59" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V59" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W59" s="33" t="n"/>
       <c r="X59" s="33" t="n"/>
       <c r="Y59" s="32">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z59" s="33" t="n"/>
       <c r="AA59" s="33" t="n"/>
       <c r="AB59" s="34" t="n"/>
       <c r="AC59" s="29">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD59" s="35" t="n"/>
     </row>
     <row r="60" ht="13" customHeight="1" s="72">
       <c r="A60" s="36" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B60" s="37" t="inlineStr">
         <is>
@@ -3895,10 +3765,10 @@
         <v>2</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>554.91</v>
+        <v>532.96</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>1109.82</v>
+        <v>1065.91</v>
       </c>
       <c r="G60" s="37" t="inlineStr">
         <is>
@@ -3906,81 +3776,81 @@
         </is>
       </c>
       <c r="H60" s="38" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="I60" s="38" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L60" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M60" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N60" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O60" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P60" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R60" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S60" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T60" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U60" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V60" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W60" s="33" t="n"/>
       <c r="X60" s="33" t="n"/>
       <c r="Y60" s="32">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z60" s="33" t="n"/>
       <c r="AA60" s="33" t="n"/>
       <c r="AB60" s="34" t="n"/>
       <c r="AC60" s="29">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD60" s="35" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1" s="72">
       <c r="A61" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B61" s="37" t="inlineStr">
         <is>
@@ -3993,13 +3863,13 @@
         </is>
       </c>
       <c r="D61" s="38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>554.8</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>1679.81</v>
+        <v>4438.38</v>
       </c>
       <c r="G61" s="37" t="inlineStr">
         <is>
@@ -4007,81 +3877,81 @@
         </is>
       </c>
       <c r="H61" s="38" t="n">
-        <v>1.67</v>
+        <v>4.4</v>
       </c>
       <c r="I61" s="38" t="n">
-        <v>10.14</v>
+        <v>26.78</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L61" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M61" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N61" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P61" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R61" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S61" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T61" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U61" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V61" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W61" s="33" t="n"/>
       <c r="X61" s="33" t="n"/>
       <c r="Y61" s="32">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z61" s="33" t="n"/>
       <c r="AA61" s="33" t="n"/>
       <c r="AB61" s="34" t="n"/>
       <c r="AC61" s="29">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD61" s="35" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="72">
       <c r="A62" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B62" s="37" t="inlineStr">
         <is>
@@ -4094,13 +3964,13 @@
         </is>
       </c>
       <c r="D62" s="38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>554.91</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>2239.76</v>
+        <v>1109.82</v>
       </c>
       <c r="G62" s="37" t="inlineStr">
         <is>
@@ -4108,74 +3978,74 @@
         </is>
       </c>
       <c r="H62" s="38" t="n">
-        <v>2.22</v>
+        <v>1.1</v>
       </c>
       <c r="I62" s="38" t="n">
-        <v>13.54</v>
+        <v>6.72</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L62" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M62" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N62" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P62" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R62" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S62" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T62" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U62" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V62" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W62" s="33" t="n"/>
       <c r="X62" s="33" t="n"/>
       <c r="Y62" s="32">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z62" s="33" t="n"/>
       <c r="AA62" s="33" t="n"/>
       <c r="AB62" s="34" t="n"/>
       <c r="AC62" s="29">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD62" s="35" t="n"/>
@@ -4219,71 +4089,71 @@
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L63" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M63" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N63" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P63" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R63" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S63" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T63" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U63" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V63" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W63" s="33" t="n"/>
       <c r="X63" s="33" t="n"/>
       <c r="Y63" s="32">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z63" s="33" t="n"/>
       <c r="AA63" s="33" t="n"/>
       <c r="AB63" s="34" t="n"/>
       <c r="AC63" s="29">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD63" s="35" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="72">
       <c r="A64" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B64" s="37" t="inlineStr">
         <is>
@@ -4296,13 +4166,13 @@
         </is>
       </c>
       <c r="D64" s="38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>631.89</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>631.89</v>
+        <v>2239.76</v>
       </c>
       <c r="G64" s="37" t="inlineStr">
         <is>
@@ -4310,81 +4180,81 @@
         </is>
       </c>
       <c r="H64" s="38" t="n">
-        <v>0.63</v>
+        <v>2.22</v>
       </c>
       <c r="I64" s="38" t="n">
-        <v>3.81</v>
+        <v>13.54</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L64" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M64" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N64" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P64" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R64" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S64" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T64" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U64" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V64" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W64" s="33" t="n"/>
       <c r="X64" s="33" t="n"/>
       <c r="Y64" s="32">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z64" s="33" t="n"/>
       <c r="AA64" s="33" t="n"/>
       <c r="AB64" s="34" t="n"/>
       <c r="AC64" s="29">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD64" s="35" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="72">
       <c r="A65" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B65" s="37" t="inlineStr">
         <is>
@@ -4397,13 +4267,13 @@
         </is>
       </c>
       <c r="D65" s="38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>631.34</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>3156.69</v>
+        <v>1679.81</v>
       </c>
       <c r="G65" s="37" t="inlineStr">
         <is>
@@ -4411,74 +4281,74 @@
         </is>
       </c>
       <c r="H65" s="38" t="n">
-        <v>3.13</v>
+        <v>1.67</v>
       </c>
       <c r="I65" s="38" t="n">
-        <v>19.06</v>
+        <v>10.14</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L65" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M65" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N65" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P65" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R65" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S65" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T65" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U65" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V65" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W65" s="33" t="n"/>
       <c r="X65" s="33" t="n"/>
       <c r="Y65" s="32">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z65" s="33" t="n"/>
       <c r="AA65" s="33" t="n"/>
       <c r="AB65" s="34" t="n"/>
       <c r="AC65" s="29">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD65" s="35" t="n"/>
@@ -4498,13 +4368,13 @@
         </is>
       </c>
       <c r="D66" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>631.85</v>
+        <v>631.89</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>4422.94</v>
+        <v>631.89</v>
       </c>
       <c r="G66" s="37" t="inlineStr">
         <is>
@@ -4512,74 +4382,74 @@
         </is>
       </c>
       <c r="H66" s="38" t="n">
-        <v>4.38</v>
+        <v>0.63</v>
       </c>
       <c r="I66" s="38" t="n">
-        <v>26.76</v>
+        <v>3.81</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L66" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M66" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N66" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P66" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R66" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S66" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T66" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U66" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V66" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W66" s="33" t="n"/>
       <c r="X66" s="33" t="n"/>
       <c r="Y66" s="32">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z66" s="33" t="n"/>
       <c r="AA66" s="33" t="n"/>
       <c r="AB66" s="34" t="n"/>
       <c r="AC66" s="29">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD66" s="35" t="n"/>
@@ -4599,13 +4469,13 @@
         </is>
       </c>
       <c r="D67" s="38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>631.89</v>
+        <v>631.34</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>631.89</v>
+        <v>3156.69</v>
       </c>
       <c r="G67" s="37" t="inlineStr">
         <is>
@@ -4613,74 +4483,74 @@
         </is>
       </c>
       <c r="H67" s="38" t="n">
-        <v>0.63</v>
+        <v>3.13</v>
       </c>
       <c r="I67" s="38" t="n">
-        <v>3.81</v>
+        <v>19.06</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L67" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M67" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N67" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P67" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R67" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S67" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T67" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U67" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V67" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W67" s="33" t="n"/>
       <c r="X67" s="33" t="n"/>
       <c r="Y67" s="32">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z67" s="33" t="n"/>
       <c r="AA67" s="33" t="n"/>
       <c r="AB67" s="34" t="n"/>
       <c r="AC67" s="29">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD67" s="35" t="n"/>
@@ -4700,13 +4570,13 @@
         </is>
       </c>
       <c r="D68" s="38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>631.79</v>
+        <v>631.85</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>631.79</v>
+        <v>4422.94</v>
       </c>
       <c r="G68" s="37" t="inlineStr">
         <is>
@@ -4714,81 +4584,81 @@
         </is>
       </c>
       <c r="H68" s="38" t="n">
-        <v>0.63</v>
+        <v>4.38</v>
       </c>
       <c r="I68" s="38" t="n">
-        <v>3.81</v>
+        <v>26.76</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L68" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M68" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N68" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P68" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R68" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S68" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T68" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U68" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V68" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W68" s="33" t="n"/>
       <c r="X68" s="33" t="n"/>
       <c r="Y68" s="32">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z68" s="33" t="n"/>
       <c r="AA68" s="33" t="n"/>
       <c r="AB68" s="34" t="n"/>
       <c r="AC68" s="29">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD68" s="35" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="72">
       <c r="A69" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B69" s="37" t="inlineStr">
         <is>
@@ -4797,17 +4667,17 @@
       </c>
       <c r="C69" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D69" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>477.57</v>
+        <v>631.89</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>3342.98</v>
+        <v>631.89</v>
       </c>
       <c r="G69" s="37" t="inlineStr">
         <is>
@@ -4815,75 +4685,81 @@
         </is>
       </c>
       <c r="H69" s="38" t="n">
-        <v>3.37</v>
+        <v>0.63</v>
       </c>
       <c r="I69" s="38" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="J69" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J69" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K69" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L69" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M69" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N69" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P69" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R69" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S69" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T69" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U69" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V69" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W69" s="33" t="n"/>
       <c r="X69" s="33" t="n"/>
       <c r="Y69" s="32">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z69" s="33" t="n"/>
       <c r="AA69" s="33" t="n"/>
       <c r="AB69" s="34" t="n"/>
-      <c r="AC69" s="29" t="n"/>
+      <c r="AC69" s="29">
+        <f>IF(B36="DIV", F36,"")</f>
+        <v/>
+      </c>
       <c r="AD69" s="35" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="72">
       <c r="A70" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B70" s="37" t="inlineStr">
         <is>
@@ -4892,17 +4768,17 @@
       </c>
       <c r="C70" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D70" s="38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>477.62</v>
+        <v>631.79</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>1910.48</v>
+        <v>631.79</v>
       </c>
       <c r="G70" s="37" t="inlineStr">
         <is>
@@ -4910,70 +4786,76 @@
         </is>
       </c>
       <c r="H70" s="38" t="n">
-        <v>1.92</v>
+        <v>0.63</v>
       </c>
       <c r="I70" s="38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J70" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J70" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K70" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L70" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M70" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N70" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P70" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R70" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S70" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T70" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U70" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V70" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W70" s="33" t="n"/>
       <c r="X70" s="33" t="n"/>
       <c r="Y70" s="32">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z70" s="33" t="n"/>
       <c r="AA70" s="33" t="n"/>
       <c r="AB70" s="34" t="n"/>
-      <c r="AC70" s="29" t="n"/>
+      <c r="AC70" s="29">
+        <f>IF(B37="DIV", F37,"")</f>
+        <v/>
+      </c>
       <c r="AD70" s="35" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="72">
@@ -4991,13 +4873,13 @@
         </is>
       </c>
       <c r="D71" s="38" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>477.62</v>
+        <v>477.57</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>7641.86</v>
+        <v>3342.98</v>
       </c>
       <c r="G71" s="37" t="inlineStr">
         <is>
@@ -5005,64 +4887,64 @@
         </is>
       </c>
       <c r="H71" s="38" t="n">
-        <v>7.7</v>
+        <v>3.37</v>
       </c>
       <c r="I71" s="38" t="n">
-        <v>45.64</v>
+        <v>19.95</v>
       </c>
       <c r="J71" s="40" t="n"/>
       <c r="K71" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L71" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M71" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N71" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P71" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R71" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S71" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T71" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U71" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V71" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W71" s="33" t="n"/>
       <c r="X71" s="33" t="n"/>
       <c r="Y71" s="32">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z71" s="33" t="n"/>
@@ -5086,13 +4968,13 @@
         </is>
       </c>
       <c r="D72" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>477.57</v>
+        <v>477.62</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>1432.71</v>
+        <v>1910.48</v>
       </c>
       <c r="G72" s="37" t="inlineStr">
         <is>
@@ -5100,64 +4982,64 @@
         </is>
       </c>
       <c r="H72" s="38" t="n">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
       <c r="I72" s="38" t="n">
-        <v>8.550000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="J72" s="40" t="n"/>
       <c r="K72" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L72" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M72" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N72" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P72" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R72" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S72" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T72" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U72" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V72" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W72" s="33" t="n"/>
       <c r="X72" s="33" t="n"/>
       <c r="Y72" s="32">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z72" s="33" t="n"/>
@@ -5168,7 +5050,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="72">
       <c r="A73" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B73" s="37" t="inlineStr">
         <is>
@@ -5181,13 +5063,13 @@
         </is>
       </c>
       <c r="D73" s="38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>375.64</v>
+        <v>477.62</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>1126.91</v>
+        <v>7641.86</v>
       </c>
       <c r="G73" s="37" t="inlineStr">
         <is>
@@ -5195,64 +5077,64 @@
         </is>
       </c>
       <c r="H73" s="38" t="n">
-        <v>1.11</v>
+        <v>7.7</v>
       </c>
       <c r="I73" s="38" t="n">
-        <v>6.73</v>
+        <v>45.64</v>
       </c>
       <c r="J73" s="40" t="n"/>
       <c r="K73" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L73" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M73" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N73" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P73" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R73" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S73" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T73" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U73" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V73" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W73" s="33" t="n"/>
       <c r="X73" s="33" t="n"/>
       <c r="Y73" s="32">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z73" s="33" t="n"/>
@@ -5263,7 +5145,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="72">
       <c r="A74" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B74" s="37" t="inlineStr">
         <is>
@@ -5276,13 +5158,13 @@
         </is>
       </c>
       <c r="D74" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>375.64</v>
+        <v>477.57</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>375.64</v>
+        <v>1432.71</v>
       </c>
       <c r="G74" s="37" t="inlineStr">
         <is>
@@ -5290,64 +5172,64 @@
         </is>
       </c>
       <c r="H74" s="38" t="n">
-        <v>0.37</v>
+        <v>1.44</v>
       </c>
       <c r="I74" s="38" t="n">
-        <v>2.24</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J74" s="40" t="n"/>
       <c r="K74" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L74" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M74" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N74" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P74" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R74" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S74" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T74" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U74" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V74" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W74" s="33" t="n"/>
       <c r="X74" s="33" t="n"/>
       <c r="Y74" s="32">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z74" s="33" t="n"/>
@@ -5371,13 +5253,13 @@
         </is>
       </c>
       <c r="D75" s="38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>375.58</v>
+        <v>375.64</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>3004.66</v>
+        <v>1126.91</v>
       </c>
       <c r="G75" s="37" t="inlineStr">
         <is>
@@ -5385,64 +5267,64 @@
         </is>
       </c>
       <c r="H75" s="38" t="n">
-        <v>2.98</v>
+        <v>1.11</v>
       </c>
       <c r="I75" s="38" t="n">
-        <v>17.96</v>
+        <v>6.73</v>
       </c>
       <c r="J75" s="40" t="n"/>
       <c r="K75" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L75" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M75" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N75" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P75" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R75" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S75" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T75" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U75" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V75" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W75" s="33" t="n"/>
       <c r="X75" s="33" t="n"/>
       <c r="Y75" s="32">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z75" s="33" t="n"/>
@@ -5466,13 +5348,13 @@
         </is>
       </c>
       <c r="D76" s="38" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>375.63</v>
+        <v>375.64</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>9766.42</v>
+        <v>375.64</v>
       </c>
       <c r="G76" s="37" t="inlineStr">
         <is>
@@ -5480,64 +5362,64 @@
         </is>
       </c>
       <c r="H76" s="38" t="n">
-        <v>9.68</v>
+        <v>0.37</v>
       </c>
       <c r="I76" s="38" t="n">
-        <v>58.4</v>
+        <v>2.24</v>
       </c>
       <c r="J76" s="40" t="n"/>
       <c r="K76" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L76" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M76" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N76" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P76" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R76" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S76" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T76" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U76" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V76" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W76" s="33" t="n"/>
       <c r="X76" s="33" t="n"/>
       <c r="Y76" s="32">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z76" s="33" t="n"/>
@@ -5561,13 +5443,13 @@
         </is>
       </c>
       <c r="D77" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E77" s="39" t="n">
         <v>375.58</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>751.16</v>
+        <v>3004.66</v>
       </c>
       <c r="G77" s="37" t="inlineStr">
         <is>
@@ -5575,64 +5457,65 @@
         </is>
       </c>
       <c r="H77" s="38" t="n">
-        <v>0.75</v>
+        <v>2.98</v>
       </c>
       <c r="I77" s="38" t="n">
-        <v>4.49</v>
+        <v>17.96</v>
       </c>
       <c r="J77" s="40" t="n"/>
       <c r="K77" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L77" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M77" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N77" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P77" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R77" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S77" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T77" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U77" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V77" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W77" s="33" t="n"/>
       <c r="X77" s="33" t="n"/>
-      <c r="Y77" s="32" t="e">
-        <v>#REF!</v>
+      <c r="Y77" s="32">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
       </c>
       <c r="Z77" s="33" t="n"/>
       <c r="AA77" s="33" t="n"/>
@@ -5642,7 +5525,7 @@
     </row>
     <row r="78" ht="13" customHeight="1" s="72">
       <c r="A78" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B78" s="37" t="inlineStr">
         <is>
@@ -5651,17 +5534,17 @@
       </c>
       <c r="C78" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D78" s="38" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>326.2</v>
+        <v>375.63</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>2609.58</v>
+        <v>9766.42</v>
       </c>
       <c r="G78" s="37" t="inlineStr">
         <is>
@@ -5669,66 +5552,75 @@
         </is>
       </c>
       <c r="H78" s="38" t="n">
-        <v>2.59</v>
+        <v>9.68</v>
       </c>
       <c r="I78" s="38" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="J78" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K78" s="33" t="n"/>
-      <c r="L78" s="33" t="n"/>
-      <c r="M78" s="41" t="n"/>
-      <c r="N78" s="42" t="n"/>
-      <c r="O78" s="41" t="n"/>
-      <c r="P78" s="33" t="n"/>
-      <c r="Q78" s="41" t="n"/>
-      <c r="R78" s="41" t="n"/>
-      <c r="S78" s="41" t="n"/>
-      <c r="T78" s="41" t="n"/>
-      <c r="U78" s="41" t="n"/>
-      <c r="V78" s="41" t="n"/>
-      <c r="W78" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X78" s="44" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y78" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z78" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA78" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB78" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC78" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+        <v>58.4</v>
+      </c>
+      <c r="J78" s="40" t="n"/>
+      <c r="K78" s="30">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="L78" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="M78" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <v/>
+      </c>
+      <c r="N78" s="31">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <v/>
+      </c>
+      <c r="O78" s="30">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="P78" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="Q78" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <v/>
+      </c>
+      <c r="R78" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="S78" s="32">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="T78" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="U78" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <v/>
+      </c>
+      <c r="V78" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W78" s="33" t="n"/>
+      <c r="X78" s="33" t="n"/>
+      <c r="Y78" s="32">
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="Z78" s="33" t="n"/>
+      <c r="AA78" s="33" t="n"/>
+      <c r="AB78" s="34" t="n"/>
+      <c r="AC78" s="29" t="n"/>
       <c r="AD78" s="35" t="n"/>
-      <c r="AE78" s="48" t="n"/>
-      <c r="AF78" s="48" t="n"/>
-      <c r="AG78" s="48" t="n"/>
-      <c r="AH78" s="48" t="n"/>
-      <c r="AI78" s="48" t="n"/>
-      <c r="AJ78" s="48" t="n"/>
-      <c r="AK78" s="48" t="n"/>
-      <c r="AL78" s="48" t="n"/>
-      <c r="AM78" s="48" t="n"/>
-      <c r="AN78" s="48" t="n"/>
-      <c r="AO78" s="48" t="n"/>
-      <c r="AP78" s="48" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1" s="72">
       <c r="A79" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B79" s="37" t="inlineStr">
         <is>
@@ -5737,17 +5629,17 @@
       </c>
       <c r="C79" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D79" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>326.2</v>
+        <v>375.58</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>326.2</v>
+        <v>751.16</v>
       </c>
       <c r="G79" s="37" t="inlineStr">
         <is>
@@ -5755,62 +5647,70 @@
         </is>
       </c>
       <c r="H79" s="38" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="I79" s="38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J79" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K79" s="33" t="n"/>
-      <c r="L79" s="33" t="n"/>
-      <c r="M79" s="41" t="n"/>
-      <c r="N79" s="42" t="n"/>
-      <c r="O79" s="41" t="n"/>
-      <c r="P79" s="33" t="n"/>
-      <c r="Q79" s="41" t="n"/>
-      <c r="R79" s="41" t="n"/>
-      <c r="S79" s="41" t="n"/>
-      <c r="T79" s="41" t="n"/>
-      <c r="U79" s="41" t="n"/>
-      <c r="V79" s="41" t="n"/>
-      <c r="W79" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X79" s="44" t="n">
-        <v>45282</v>
-      </c>
+        <v>4.49</v>
+      </c>
+      <c r="J79" s="40" t="n"/>
+      <c r="K79" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="L79" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="M79" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="N79" s="31">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="O79" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="P79" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="Q79" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="R79" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="S79" s="32">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="T79" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="U79" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="V79" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W79" s="33" t="n"/>
+      <c r="X79" s="33" t="n"/>
       <c r="Y79" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z79" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA79" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB79" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC79" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+      <c r="Z79" s="33" t="n"/>
+      <c r="AA79" s="33" t="n"/>
+      <c r="AB79" s="34" t="n"/>
+      <c r="AC79" s="29" t="n"/>
       <c r="AD79" s="35" t="n"/>
-      <c r="AE79" s="48" t="n"/>
-      <c r="AF79" s="48" t="n"/>
-      <c r="AG79" s="48" t="n"/>
-      <c r="AH79" s="48" t="n"/>
-      <c r="AI79" s="48" t="n"/>
-      <c r="AJ79" s="48" t="n"/>
-      <c r="AK79" s="48" t="n"/>
-      <c r="AL79" s="48" t="n"/>
-      <c r="AM79" s="48" t="n"/>
-      <c r="AN79" s="48" t="n"/>
-      <c r="AO79" s="48" t="n"/>
-      <c r="AP79" s="48" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="72">
       <c r="A80" s="36" t="n">
@@ -5827,13 +5727,13 @@
         </is>
       </c>
       <c r="D80" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>326.25</v>
+        <v>326.2</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>326.25</v>
+        <v>2609.58</v>
       </c>
       <c r="G80" s="37" t="inlineStr">
         <is>
@@ -5841,10 +5741,10 @@
         </is>
       </c>
       <c r="H80" s="38" t="n">
-        <v>0.32</v>
+        <v>2.59</v>
       </c>
       <c r="I80" s="38" t="n">
-        <v>1.98</v>
+        <v>15.79</v>
       </c>
       <c r="J80" s="40">
         <f>Index!$C$2</f>
@@ -5900,7 +5800,7 @@
     </row>
     <row r="81" ht="13" customHeight="1" s="72">
       <c r="A81" s="36" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B81" s="37" t="inlineStr">
         <is>
@@ -5913,13 +5813,13 @@
         </is>
       </c>
       <c r="D81" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>318.94</v>
+        <v>326.2</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>2551.53</v>
+        <v>326.2</v>
       </c>
       <c r="G81" s="37" t="inlineStr">
         <is>
@@ -5927,10 +5827,10 @@
         </is>
       </c>
       <c r="H81" s="38" t="n">
-        <v>2.54</v>
+        <v>0.32</v>
       </c>
       <c r="I81" s="38" t="n">
-        <v>15.39</v>
+        <v>1.98</v>
       </c>
       <c r="J81" s="40">
         <f>Index!$C$2</f>
@@ -5986,7 +5886,7 @@
     </row>
     <row r="82" ht="13" customHeight="1" s="72">
       <c r="A82" s="36" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B82" s="37" t="inlineStr">
         <is>
@@ -6002,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>318.94</v>
+        <v>326.25</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>318.94</v>
+        <v>326.25</v>
       </c>
       <c r="G82" s="37" t="inlineStr">
         <is>
@@ -6016,7 +5916,7 @@
         <v>0.32</v>
       </c>
       <c r="I82" s="38" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="J82" s="40">
         <f>Index!$C$2</f>
@@ -6085,13 +5985,13 @@
         </is>
       </c>
       <c r="D83" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" s="39" t="n">
         <v>318.94</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>318.94</v>
+        <v>2551.53</v>
       </c>
       <c r="G83" s="37" t="inlineStr">
         <is>
@@ -6099,10 +5999,10 @@
         </is>
       </c>
       <c r="H83" s="38" t="n">
-        <v>0.32</v>
+        <v>2.54</v>
       </c>
       <c r="I83" s="38" t="n">
-        <v>1.92</v>
+        <v>15.39</v>
       </c>
       <c r="J83" s="40">
         <f>Index!$C$2</f>
@@ -6158,7 +6058,7 @@
     </row>
     <row r="84" ht="13" customHeight="1" s="72">
       <c r="A84" s="36" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B84" s="37" t="inlineStr">
         <is>
@@ -6174,10 +6074,10 @@
         <v>1</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>335.81</v>
+        <v>318.94</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>335.81</v>
+        <v>318.94</v>
       </c>
       <c r="G84" s="37" t="inlineStr">
         <is>
@@ -6185,10 +6085,10 @@
         </is>
       </c>
       <c r="H84" s="38" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I84" s="38" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="J84" s="40">
         <f>Index!$C$2</f>
@@ -6244,7 +6144,7 @@
     </row>
     <row r="85" ht="13" customHeight="1" s="72">
       <c r="A85" s="36" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B85" s="37" t="inlineStr">
         <is>
@@ -6257,13 +6157,13 @@
         </is>
       </c>
       <c r="D85" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>335.82</v>
+        <v>318.94</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>2686.55</v>
+        <v>318.94</v>
       </c>
       <c r="G85" s="37" t="inlineStr">
         <is>
@@ -6271,10 +6171,10 @@
         </is>
       </c>
       <c r="H85" s="38" t="n">
-        <v>2.65</v>
+        <v>0.32</v>
       </c>
       <c r="I85" s="38" t="n">
-        <v>16.3</v>
+        <v>1.92</v>
       </c>
       <c r="J85" s="40">
         <f>Index!$C$2</f>
@@ -6346,10 +6246,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>335.76</v>
+        <v>335.81</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>335.76</v>
+        <v>335.81</v>
       </c>
       <c r="G86" s="37" t="inlineStr">
         <is>
@@ -6366,12 +6266,12 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K86" s="41" t="n"/>
-      <c r="L86" s="41" t="n"/>
+      <c r="K86" s="33" t="n"/>
+      <c r="L86" s="33" t="n"/>
       <c r="M86" s="41" t="n"/>
       <c r="N86" s="42" t="n"/>
       <c r="O86" s="41" t="n"/>
-      <c r="P86" s="41" t="n"/>
+      <c r="P86" s="33" t="n"/>
       <c r="Q86" s="41" t="n"/>
       <c r="R86" s="41" t="n"/>
       <c r="S86" s="41" t="n"/>
@@ -6416,7 +6316,7 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="72">
       <c r="A87" s="36" t="n">
-        <v>45034</v>
+        <v>45180</v>
       </c>
       <c r="B87" s="37" t="inlineStr">
         <is>
@@ -6429,13 +6329,13 @@
         </is>
       </c>
       <c r="D87" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>261.64</v>
+        <v>335.82</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>523.29</v>
+        <v>2686.55</v>
       </c>
       <c r="G87" s="37" t="inlineStr">
         <is>
@@ -6443,21 +6343,21 @@
         </is>
       </c>
       <c r="H87" s="38" t="n">
-        <v>0.52</v>
+        <v>2.65</v>
       </c>
       <c r="I87" s="38" t="n">
-        <v>3.17</v>
+        <v>16.3</v>
       </c>
       <c r="J87" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K87" s="41" t="n"/>
-      <c r="L87" s="41" t="n"/>
+      <c r="K87" s="33" t="n"/>
+      <c r="L87" s="33" t="n"/>
       <c r="M87" s="41" t="n"/>
       <c r="N87" s="42" t="n"/>
       <c r="O87" s="41" t="n"/>
-      <c r="P87" s="41" t="n"/>
+      <c r="P87" s="33" t="n"/>
       <c r="Q87" s="41" t="n"/>
       <c r="R87" s="41" t="n"/>
       <c r="S87" s="41" t="n"/>
@@ -6465,10 +6365,10 @@
       <c r="U87" s="41" t="n"/>
       <c r="V87" s="41" t="n"/>
       <c r="W87" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X87" s="49" t="n">
-        <v>45204</v>
+        <v>478.55</v>
+      </c>
+      <c r="X87" s="44" t="n">
+        <v>45282</v>
       </c>
       <c r="Y87" s="32" t="e">
         <v>#REF!</v>
@@ -6502,7 +6402,7 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="72">
       <c r="A88" s="36" t="n">
-        <v>45034</v>
+        <v>45180</v>
       </c>
       <c r="B88" s="37" t="inlineStr">
         <is>
@@ -6518,10 +6418,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>261.7</v>
+        <v>335.76</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>261.7</v>
+        <v>335.76</v>
       </c>
       <c r="G88" s="37" t="inlineStr">
         <is>
@@ -6529,21 +6429,21 @@
         </is>
       </c>
       <c r="H88" s="38" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I88" s="38" t="n">
-        <v>1.59</v>
+        <v>2.03</v>
       </c>
       <c r="J88" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K88" s="33" t="n"/>
-      <c r="L88" s="33" t="n"/>
+      <c r="K88" s="41" t="n"/>
+      <c r="L88" s="41" t="n"/>
       <c r="M88" s="41" t="n"/>
       <c r="N88" s="42" t="n"/>
       <c r="O88" s="41" t="n"/>
-      <c r="P88" s="33" t="n"/>
+      <c r="P88" s="41" t="n"/>
       <c r="Q88" s="41" t="n"/>
       <c r="R88" s="41" t="n"/>
       <c r="S88" s="41" t="n"/>
@@ -6551,33 +6451,28 @@
       <c r="U88" s="41" t="n"/>
       <c r="V88" s="41" t="n"/>
       <c r="W88" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X88" s="49" t="n">
-        <v>45204</v>
-      </c>
-      <c r="Y88" s="32">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
-        <v/>
-      </c>
-      <c r="Z88" s="45" t="n">
-        <v>-3173.3424</v>
-      </c>
-      <c r="AA88" s="45" t="n">
-        <v>3218.4</v>
-      </c>
-      <c r="AB88" s="46" t="n">
-        <v>5</v>
+        <v>478.55</v>
+      </c>
+      <c r="X88" s="44" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y88" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z88" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA88" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB88" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC88" s="47">
-        <f>IF(B46="DIV", F46,"")</f>
-        <v/>
-      </c>
-      <c r="AD88" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD88" s="35" t="n"/>
       <c r="AE88" s="48" t="n"/>
       <c r="AF88" s="48" t="n"/>
       <c r="AG88" s="48" t="n"/>
@@ -6606,13 +6501,13 @@
         </is>
       </c>
       <c r="D89" s="38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>261.7</v>
+        <v>261.64</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>1831.87</v>
+        <v>523.29</v>
       </c>
       <c r="G89" s="37" t="inlineStr">
         <is>
@@ -6620,21 +6515,21 @@
         </is>
       </c>
       <c r="H89" s="38" t="n">
-        <v>1.82</v>
+        <v>0.52</v>
       </c>
       <c r="I89" s="38" t="n">
-        <v>11.1</v>
+        <v>3.17</v>
       </c>
       <c r="J89" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K89" s="33" t="n"/>
-      <c r="L89" s="33" t="n"/>
+      <c r="K89" s="41" t="n"/>
+      <c r="L89" s="41" t="n"/>
       <c r="M89" s="41" t="n"/>
       <c r="N89" s="42" t="n"/>
       <c r="O89" s="41" t="n"/>
-      <c r="P89" s="33" t="n"/>
+      <c r="P89" s="41" t="n"/>
       <c r="Q89" s="41" t="n"/>
       <c r="R89" s="41" t="n"/>
       <c r="S89" s="41" t="n"/>
@@ -6647,28 +6542,23 @@
       <c r="X89" s="49" t="n">
         <v>45204</v>
       </c>
-      <c r="Y89" s="32">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
-        <v/>
-      </c>
-      <c r="Z89" s="45" t="n">
-        <v>-3173.0959</v>
-      </c>
-      <c r="AA89" s="45" t="n">
-        <v>3218.15</v>
-      </c>
-      <c r="AB89" s="46" t="n">
-        <v>5</v>
+      <c r="Y89" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z89" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA89" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB89" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC89" s="47">
-        <f>IF(B47="DIV", F47,"")</f>
-        <v/>
-      </c>
-      <c r="AD89" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD89" s="35" t="n"/>
       <c r="AE89" s="48" t="n"/>
       <c r="AF89" s="48" t="n"/>
       <c r="AG89" s="48" t="n"/>
@@ -6684,7 +6574,7 @@
     </row>
     <row r="90" ht="13" customHeight="1" s="72">
       <c r="A90" s="36" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B90" s="37" t="inlineStr">
         <is>
@@ -6700,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>260.34</v>
+        <v>261.7</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>260.34</v>
+        <v>261.7</v>
       </c>
       <c r="G90" s="37" t="inlineStr">
         <is>
@@ -6714,7 +6604,7 @@
         <v>0.26</v>
       </c>
       <c r="I90" s="38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J90" s="40">
         <f>Index!$C$2</f>
@@ -6739,20 +6629,20 @@
         <v>45204</v>
       </c>
       <c r="Y90" s="32">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z90" s="45" t="n">
-        <v>-1215.99436</v>
+        <v>-3173.3424</v>
       </c>
       <c r="AA90" s="45" t="n">
-        <v>1233.26</v>
+        <v>3218.4</v>
       </c>
       <c r="AB90" s="46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC90" s="47">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD90" s="50" t="inlineStr">
@@ -6775,7 +6665,7 @@
     </row>
     <row r="91" ht="13" customHeight="1" s="72">
       <c r="A91" s="36" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B91" s="37" t="inlineStr">
         <is>
@@ -6788,13 +6678,13 @@
         </is>
       </c>
       <c r="D91" s="38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>260.23</v>
+        <v>261.7</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>2342.08</v>
+        <v>1831.87</v>
       </c>
       <c r="G91" s="37" t="inlineStr">
         <is>
@@ -6802,10 +6692,10 @@
         </is>
       </c>
       <c r="H91" s="38" t="n">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="I91" s="38" t="n">
-        <v>14.15</v>
+        <v>11.1</v>
       </c>
       <c r="J91" s="40">
         <f>Index!$C$2</f>
@@ -6830,20 +6720,20 @@
         <v>45204</v>
       </c>
       <c r="Y91" s="32">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z91" s="45" t="n">
-        <v>-607.9084399999999</v>
+        <v>-3173.0959</v>
       </c>
       <c r="AA91" s="45" t="n">
-        <v>616.54</v>
+        <v>3218.15</v>
       </c>
       <c r="AB91" s="46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC91" s="47">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD91" s="50" t="inlineStr">
@@ -6879,13 +6769,13 @@
         </is>
       </c>
       <c r="D92" s="38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>260.33</v>
+        <v>260.34</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>2342.98</v>
+        <v>260.34</v>
       </c>
       <c r="G92" s="37" t="inlineStr">
         <is>
@@ -6893,10 +6783,10 @@
         </is>
       </c>
       <c r="H92" s="38" t="n">
-        <v>2.33</v>
+        <v>0.26</v>
       </c>
       <c r="I92" s="38" t="n">
-        <v>14.15</v>
+        <v>1.58</v>
       </c>
       <c r="J92" s="40">
         <f>Index!$C$2</f>
@@ -6921,20 +6811,20 @@
         <v>45204</v>
       </c>
       <c r="Y92" s="32">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z92" s="45" t="n">
-        <v>-1215.79716</v>
+        <v>-1215.99436</v>
       </c>
       <c r="AA92" s="45" t="n">
-        <v>1233.06</v>
+        <v>1233.26</v>
       </c>
       <c r="AB92" s="46" t="n">
         <v>2</v>
       </c>
       <c r="AC92" s="47">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD92" s="50" t="inlineStr">
@@ -6970,13 +6860,13 @@
         </is>
       </c>
       <c r="D93" s="38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>260.29</v>
+        <v>260.23</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>260.29</v>
+        <v>2342.08</v>
       </c>
       <c r="G93" s="37" t="inlineStr">
         <is>
@@ -6984,10 +6874,10 @@
         </is>
       </c>
       <c r="H93" s="38" t="n">
-        <v>0.26</v>
+        <v>2.33</v>
       </c>
       <c r="I93" s="38" t="n">
-        <v>1.58</v>
+        <v>14.15</v>
       </c>
       <c r="J93" s="40">
         <f>Index!$C$2</f>
@@ -7012,7 +6902,7 @@
         <v>45204</v>
       </c>
       <c r="Y93" s="32">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z93" s="45" t="n">
@@ -7025,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="AC93" s="47">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD93" s="50" t="inlineStr">
@@ -7048,7 +6938,7 @@
     </row>
     <row r="94" ht="13" customHeight="1" s="72">
       <c r="A94" s="36" t="n">
-        <v>44950</v>
+        <v>44981</v>
       </c>
       <c r="B94" s="37" t="inlineStr">
         <is>
@@ -7061,13 +6951,13 @@
         </is>
       </c>
       <c r="D94" s="38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>292.3</v>
+        <v>260.33</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>2923.03</v>
+        <v>2342.98</v>
       </c>
       <c r="G94" s="37" t="inlineStr">
         <is>
@@ -7075,10 +6965,10 @@
         </is>
       </c>
       <c r="H94" s="38" t="n">
-        <v>2.89</v>
+        <v>2.33</v>
       </c>
       <c r="I94" s="38" t="n">
-        <v>17.64</v>
+        <v>14.15</v>
       </c>
       <c r="J94" s="40">
         <f>Index!$C$2</f>
@@ -7103,20 +6993,20 @@
         <v>45204</v>
       </c>
       <c r="Y94" s="32">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z94" s="45" t="n">
-        <v>-2431.63376</v>
+        <v>-1215.79716</v>
       </c>
       <c r="AA94" s="45" t="n">
-        <v>2466.16</v>
+        <v>1233.06</v>
       </c>
       <c r="AB94" s="46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC94" s="47">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD94" s="50" t="inlineStr">
@@ -7138,36 +7028,186 @@
       <c r="AP94" s="48" t="n"/>
     </row>
     <row r="95" ht="13" customHeight="1" s="72">
-      <c r="E95" s="51" t="n"/>
-      <c r="F95" s="51" t="n"/>
-      <c r="G95" s="52" t="n"/>
-      <c r="J95" s="51" t="n"/>
-      <c r="K95" s="51" t="n"/>
-      <c r="L95" s="51" t="n"/>
-      <c r="M95" s="1" t="n"/>
-      <c r="W95" s="51" t="n"/>
-      <c r="X95" s="51" t="n"/>
-      <c r="Y95" s="51" t="n"/>
-      <c r="Z95" s="51" t="n"/>
-      <c r="AA95" s="51" t="n"/>
-      <c r="AB95" s="51" t="n"/>
-      <c r="AC95" s="51" t="n"/>
+      <c r="A95" s="36" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B95" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C95" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D95" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="39" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="F95" s="39" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="G95" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H95" s="38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I95" s="38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J95" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K95" s="33" t="n"/>
+      <c r="L95" s="33" t="n"/>
+      <c r="M95" s="41" t="n"/>
+      <c r="N95" s="42" t="n"/>
+      <c r="O95" s="41" t="n"/>
+      <c r="P95" s="33" t="n"/>
+      <c r="Q95" s="41" t="n"/>
+      <c r="R95" s="41" t="n"/>
+      <c r="S95" s="41" t="n"/>
+      <c r="T95" s="41" t="n"/>
+      <c r="U95" s="41" t="n"/>
+      <c r="V95" s="41" t="n"/>
+      <c r="W95" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X95" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y95" s="32">
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <v/>
+      </c>
+      <c r="Z95" s="45" t="n">
+        <v>-607.9084399999999</v>
+      </c>
+      <c r="AA95" s="45" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="AB95" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="47">
+        <f>IF(B51="DIV", F51,"")</f>
+        <v/>
+      </c>
+      <c r="AD95" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE95" s="48" t="n"/>
+      <c r="AF95" s="48" t="n"/>
+      <c r="AG95" s="48" t="n"/>
+      <c r="AH95" s="48" t="n"/>
+      <c r="AI95" s="48" t="n"/>
+      <c r="AJ95" s="48" t="n"/>
+      <c r="AK95" s="48" t="n"/>
+      <c r="AL95" s="48" t="n"/>
+      <c r="AM95" s="48" t="n"/>
+      <c r="AN95" s="48" t="n"/>
+      <c r="AO95" s="48" t="n"/>
+      <c r="AP95" s="48" t="n"/>
     </row>
     <row r="96" ht="13" customHeight="1" s="72">
-      <c r="E96" s="51" t="n"/>
-      <c r="F96" s="51" t="n"/>
-      <c r="G96" s="52" t="n"/>
-      <c r="J96" s="51" t="n"/>
-      <c r="K96" s="51" t="n"/>
-      <c r="L96" s="51" t="n"/>
-      <c r="M96" s="1" t="n"/>
-      <c r="W96" s="51" t="n"/>
-      <c r="X96" s="51" t="n"/>
-      <c r="Y96" s="51" t="n"/>
-      <c r="Z96" s="51" t="n"/>
-      <c r="AA96" s="51" t="n"/>
-      <c r="AB96" s="51" t="n"/>
-      <c r="AC96" s="51" t="n"/>
+      <c r="A96" s="36" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B96" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C96" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D96" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" s="39" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="F96" s="39" t="n">
+        <v>2923.03</v>
+      </c>
+      <c r="G96" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H96" s="38" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I96" s="38" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="J96" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K96" s="33" t="n"/>
+      <c r="L96" s="33" t="n"/>
+      <c r="M96" s="41" t="n"/>
+      <c r="N96" s="42" t="n"/>
+      <c r="O96" s="41" t="n"/>
+      <c r="P96" s="33" t="n"/>
+      <c r="Q96" s="41" t="n"/>
+      <c r="R96" s="41" t="n"/>
+      <c r="S96" s="41" t="n"/>
+      <c r="T96" s="41" t="n"/>
+      <c r="U96" s="41" t="n"/>
+      <c r="V96" s="41" t="n"/>
+      <c r="W96" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X96" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y96" s="32">
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <v/>
+      </c>
+      <c r="Z96" s="45" t="n">
+        <v>-2431.63376</v>
+      </c>
+      <c r="AA96" s="45" t="n">
+        <v>2466.16</v>
+      </c>
+      <c r="AB96" s="46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC96" s="47">
+        <f>IF(B52="DIV", F52,"")</f>
+        <v/>
+      </c>
+      <c r="AD96" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE96" s="48" t="n"/>
+      <c r="AF96" s="48" t="n"/>
+      <c r="AG96" s="48" t="n"/>
+      <c r="AH96" s="48" t="n"/>
+      <c r="AI96" s="48" t="n"/>
+      <c r="AJ96" s="48" t="n"/>
+      <c r="AK96" s="48" t="n"/>
+      <c r="AL96" s="48" t="n"/>
+      <c r="AM96" s="48" t="n"/>
+      <c r="AN96" s="48" t="n"/>
+      <c r="AO96" s="48" t="n"/>
+      <c r="AP96" s="48" t="n"/>
     </row>
     <row r="97" ht="13" customHeight="1" s="72">
       <c r="E97" s="51" t="n"/>
@@ -22120,6 +22160,7 @@
       <c r="J1031" s="51" t="n"/>
       <c r="K1031" s="51" t="n"/>
       <c r="L1031" s="51" t="n"/>
+      <c r="M1031" s="1" t="n"/>
       <c r="W1031" s="51" t="n"/>
       <c r="X1031" s="51" t="n"/>
       <c r="Y1031" s="51" t="n"/>
@@ -22135,6 +22176,7 @@
       <c r="J1032" s="51" t="n"/>
       <c r="K1032" s="51" t="n"/>
       <c r="L1032" s="51" t="n"/>
+      <c r="M1032" s="1" t="n"/>
       <c r="W1032" s="51" t="n"/>
       <c r="X1032" s="51" t="n"/>
       <c r="Y1032" s="51" t="n"/>
@@ -22367,6 +22409,36 @@
       <c r="AA1047" s="51" t="n"/>
       <c r="AB1047" s="51" t="n"/>
       <c r="AC1047" s="51" t="n"/>
+    </row>
+    <row r="1048">
+      <c r="E1048" s="51" t="n"/>
+      <c r="F1048" s="51" t="n"/>
+      <c r="G1048" s="52" t="n"/>
+      <c r="J1048" s="51" t="n"/>
+      <c r="K1048" s="51" t="n"/>
+      <c r="L1048" s="51" t="n"/>
+      <c r="W1048" s="51" t="n"/>
+      <c r="X1048" s="51" t="n"/>
+      <c r="Y1048" s="51" t="n"/>
+      <c r="Z1048" s="51" t="n"/>
+      <c r="AA1048" s="51" t="n"/>
+      <c r="AB1048" s="51" t="n"/>
+      <c r="AC1048" s="51" t="n"/>
+    </row>
+    <row r="1049">
+      <c r="E1049" s="51" t="n"/>
+      <c r="F1049" s="51" t="n"/>
+      <c r="G1049" s="52" t="n"/>
+      <c r="J1049" s="51" t="n"/>
+      <c r="K1049" s="51" t="n"/>
+      <c r="L1049" s="51" t="n"/>
+      <c r="W1049" s="51" t="n"/>
+      <c r="X1049" s="51" t="n"/>
+      <c r="Y1049" s="51" t="n"/>
+      <c r="Z1049" s="51" t="n"/>
+      <c r="AA1049" s="51" t="n"/>
+      <c r="AB1049" s="51" t="n"/>
+      <c r="AC1049" s="51" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO82"/>

--- a/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
+++ b/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
@@ -746,7 +746,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1049"/>
+  <dimension ref="A1:AP1050"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
@@ -1096,11 +1096,11 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="72">
       <c r="A5" s="83" t="n">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1109,21 +1109,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>500.02</v>
+        <v>493.89</v>
       </c>
       <c r="F5" t="n">
-        <v>5025.2</v>
+        <v>7445.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>37.05</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="72">
       <c r="A6" s="83" t="n">
-        <v>45967</v>
+        <v>45972</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1145,21 +1145,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>508.4125</v>
+        <v>500.02</v>
       </c>
       <c r="F6" t="n">
-        <v>6131.43</v>
+        <v>5025.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30.48</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1168,11 +1168,11 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="72">
       <c r="A7" s="83" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1181,21 +1181,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>526.855</v>
+        <v>508.4125</v>
       </c>
       <c r="F7" t="n">
-        <v>5294.85</v>
+        <v>6131.43</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607785263</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>26.3</v>
+        <v>30.48</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1203,8 +1203,8 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="72">
-      <c r="A8" s="70" t="n">
-        <v>46007</v>
+      <c r="A8" s="83" t="n">
+        <v>45957</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1217,24 +1217,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>433.4</v>
+        <v>526.855</v>
       </c>
       <c r="F8" t="n">
-        <v>872.95</v>
+        <v>5294.85</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.87</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>5.28</v>
+        <v>26.3</v>
+      </c>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="72">
@@ -1252,13 +1253,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>433.35</v>
+        <v>433.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3491.38</v>
+        <v>872.95</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1266,15 +1267,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>0.87</v>
       </c>
       <c r="I9" t="n">
-        <v>21.13</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="72">
       <c r="A10" s="70" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1287,13 +1288,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>433.95</v>
+        <v>433.35</v>
       </c>
       <c r="F10" t="n">
-        <v>13110.82</v>
+        <v>3491.38</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1301,15 +1302,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13.07</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>79.25</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="72">
       <c r="A11" s="70" t="n">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1322,13 +1323,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>426.5</v>
+        <v>433.95</v>
       </c>
       <c r="F11" t="n">
-        <v>3436.31</v>
+        <v>13110.82</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1336,10 +1337,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.52</v>
+        <v>13.07</v>
       </c>
       <c r="I11" t="n">
-        <v>20.79</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="72">
@@ -1360,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>426.4</v>
+        <v>426.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3435.51</v>
+        <v>3436.31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1392,13 +1393,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>426.4</v>
       </c>
       <c r="F13" t="n">
-        <v>429.43</v>
+        <v>3435.51</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1406,10 +1407,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.44</v>
+        <v>3.52</v>
       </c>
       <c r="I13" t="n">
-        <v>2.59</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="72">
@@ -1427,13 +1428,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>426.55</v>
+        <v>426.4</v>
       </c>
       <c r="F14" t="n">
-        <v>1288.77</v>
+        <v>429.43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1441,19 +1442,19 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.32</v>
+        <v>0.44</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="72">
       <c r="A15" s="70" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1462,13 +1463,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>434.45</v>
+        <v>426.55</v>
       </c>
       <c r="F15" t="n">
-        <v>7875.57</v>
+        <v>1288.77</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1476,10 +1477,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7.79</v>
+        <v>1.32</v>
       </c>
       <c r="I15" t="n">
-        <v>47.68</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="72">
@@ -1497,13 +1498,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>434.4</v>
+        <v>434.45</v>
       </c>
       <c r="F16" t="n">
-        <v>874.95</v>
+        <v>7875.57</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1511,15 +1512,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.87</v>
+        <v>7.79</v>
       </c>
       <c r="I16" t="n">
-        <v>5.28</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="72">
       <c r="A17" s="70" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1532,13 +1533,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>457.5</v>
+        <v>434.4</v>
       </c>
       <c r="F17" t="n">
-        <v>4607.51</v>
+        <v>874.95</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1546,19 +1547,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4.61</v>
+        <v>0.87</v>
       </c>
       <c r="I17" t="n">
-        <v>27.9</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="72">
       <c r="A18" s="70" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1567,13 +1568,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>461</v>
+        <v>457.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1857.11</v>
+        <v>4607.51</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1581,10 +1582,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.84</v>
+        <v>4.61</v>
       </c>
       <c r="I18" t="n">
-        <v>11.27</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="72">
@@ -1602,13 +1603,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>460.95</v>
+        <v>461</v>
       </c>
       <c r="F19" t="n">
-        <v>2785.28</v>
+        <v>1857.11</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1616,15 +1617,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.77</v>
+        <v>1.84</v>
       </c>
       <c r="I19" t="n">
-        <v>16.81</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="72">
       <c r="A20" s="70" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1637,13 +1638,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>466.05</v>
+        <v>460.95</v>
       </c>
       <c r="F20" t="n">
-        <v>938.7</v>
+        <v>2785.28</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1651,10 +1652,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.93</v>
+        <v>2.77</v>
       </c>
       <c r="I20" t="n">
-        <v>5.67</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="72">
@@ -1672,13 +1673,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>466</v>
+        <v>466.05</v>
       </c>
       <c r="F21" t="n">
-        <v>3754.42</v>
+        <v>938.7</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1686,19 +1687,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.72</v>
+        <v>0.93</v>
       </c>
       <c r="I21" t="n">
-        <v>22.7</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="72">
       <c r="A22" s="70" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1707,13 +1708,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>463.6</v>
+        <v>466</v>
       </c>
       <c r="F22" t="n">
-        <v>9337.82</v>
+        <v>3754.42</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1721,19 +1722,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9.26</v>
+        <v>3.72</v>
       </c>
       <c r="I22" t="n">
-        <v>56.56</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="72">
       <c r="A23" s="70" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1745,10 +1746,10 @@
         <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>471</v>
+        <v>463.6</v>
       </c>
       <c r="F23" t="n">
-        <v>9486.889999999999</v>
+        <v>9337.82</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1756,19 +1757,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9.359999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="I23" t="n">
-        <v>57.53</v>
+        <v>56.56</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="72">
       <c r="A24" s="70" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1777,13 +1778,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>494.2</v>
+        <v>471</v>
       </c>
       <c r="F24" t="n">
-        <v>3981.64</v>
+        <v>9486.889999999999</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1791,19 +1792,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.96</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>24.08</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="72">
       <c r="A25" s="70" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1812,13 +1813,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>493.85</v>
+        <v>494.2</v>
       </c>
       <c r="F25" t="n">
-        <v>4476.17</v>
+        <v>3981.64</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1826,10 +1827,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4.47</v>
+        <v>3.96</v>
       </c>
       <c r="I25" t="n">
-        <v>27.05</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="72">
@@ -1847,13 +1848,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>493.95</v>
+        <v>493.85</v>
       </c>
       <c r="F26" t="n">
-        <v>2984.69</v>
+        <v>4476.17</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1861,19 +1862,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2.97</v>
+        <v>4.47</v>
       </c>
       <c r="I26" t="n">
-        <v>18.02</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="72">
       <c r="A27" s="70" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1882,13 +1883,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>495.25</v>
+        <v>493.95</v>
       </c>
       <c r="F27" t="n">
-        <v>4987.69</v>
+        <v>2984.69</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1896,19 +1897,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4.96</v>
+        <v>2.97</v>
       </c>
       <c r="I27" t="n">
-        <v>30.23</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="72">
       <c r="A28" s="70" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1920,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>506.2</v>
+        <v>495.25</v>
       </c>
       <c r="F28" t="n">
-        <v>5097.88</v>
+        <v>4987.69</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1931,19 +1932,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.04</v>
+        <v>4.96</v>
       </c>
       <c r="I28" t="n">
-        <v>30.84</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="72">
       <c r="A29" s="70" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1952,13 +1953,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>500</v>
+        <v>506.2</v>
       </c>
       <c r="F29" t="n">
-        <v>3021.28</v>
+        <v>5097.88</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1966,10 +1967,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2.98</v>
+        <v>5.04</v>
       </c>
       <c r="I29" t="n">
-        <v>18.3</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="72">
@@ -1987,13 +1988,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>500.05</v>
+        <v>500</v>
       </c>
       <c r="F30" t="n">
-        <v>2014.4</v>
+        <v>3021.28</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2001,19 +2002,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
-        <v>12.21</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="72">
       <c r="A31" s="70" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2022,13 +2023,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>504.4</v>
+        <v>500.05</v>
       </c>
       <c r="F31" t="n">
-        <v>5079.67</v>
+        <v>2014.4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2036,19 +2037,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5.01</v>
+        <v>1.99</v>
       </c>
       <c r="I31" t="n">
-        <v>30.66</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="72">
       <c r="A32" s="70" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2060,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>503.05</v>
+        <v>504.4</v>
       </c>
       <c r="F32" t="n">
-        <v>5066.27</v>
+        <v>5079.67</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2071,15 +2072,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5.02</v>
+        <v>5.01</v>
       </c>
       <c r="I32" t="n">
-        <v>30.75</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="72">
       <c r="A33" s="70" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2092,13 +2093,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>508.4</v>
+        <v>503.05</v>
       </c>
       <c r="F33" t="n">
-        <v>4608.11</v>
+        <v>5066.27</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2106,10 +2107,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4.61</v>
+        <v>5.02</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="72">
@@ -2127,13 +2128,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>508.45</v>
+        <v>508.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1536.21</v>
+        <v>4608.11</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2141,15 +2142,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>4.61</v>
       </c>
       <c r="I34" t="n">
-        <v>9.32</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="72">
       <c r="A35" s="70" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2162,13 +2163,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>549.9</v>
+        <v>508.45</v>
       </c>
       <c r="F35" t="n">
-        <v>2769</v>
+        <v>1536.21</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2176,19 +2177,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2.74</v>
+        <v>1.54</v>
       </c>
       <c r="I35" t="n">
-        <v>16.76</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="72">
       <c r="A36" s="70" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2197,13 +2198,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>528.3</v>
+        <v>549.9</v>
       </c>
       <c r="F36" t="n">
-        <v>5320.41</v>
+        <v>2769</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2211,15 +2212,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.27</v>
+        <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>32.14</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="72">
       <c r="A37" s="70" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2232,13 +2233,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>526.85</v>
+        <v>528.3</v>
       </c>
       <c r="F37" t="n">
-        <v>4775.2</v>
+        <v>5320.41</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2246,10 +2247,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>5.27</v>
       </c>
       <c r="I37" t="n">
-        <v>28.8</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="72">
@@ -2267,13 +2268,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>526.9</v>
+        <v>526.85</v>
       </c>
       <c r="F38" t="n">
-        <v>530.64</v>
+        <v>4775.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2281,15 +2282,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.53</v>
+        <v>4.75</v>
       </c>
       <c r="I38" t="n">
-        <v>3.21</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="72">
       <c r="A39" s="70" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2305,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>523.05</v>
+        <v>526.9</v>
       </c>
       <c r="F39" t="n">
-        <v>526.77</v>
+        <v>530.64</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2316,10 +2317,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="72">
@@ -2337,13 +2338,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>523</v>
+        <v>523.05</v>
       </c>
       <c r="F40" t="n">
-        <v>4740.39</v>
+        <v>526.77</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2351,15 +2352,15 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4.71</v>
+        <v>0.52</v>
       </c>
       <c r="I40" t="n">
-        <v>28.68</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="72">
       <c r="A41" s="70" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2372,13 +2373,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>518.55</v>
+        <v>523</v>
       </c>
       <c r="F41" t="n">
-        <v>5222.22</v>
+        <v>4740.39</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2386,19 +2387,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5.18</v>
+        <v>4.71</v>
       </c>
       <c r="I41" t="n">
-        <v>31.54</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="72">
       <c r="A42" s="70" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2407,13 +2408,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>516.7</v>
+        <v>518.55</v>
       </c>
       <c r="F42" t="n">
-        <v>520.36</v>
+        <v>5222.22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2421,10 +2422,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="I42" t="n">
-        <v>3.14</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="72">
@@ -2445,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>516.9</v>
+        <v>516.7</v>
       </c>
       <c r="F43" t="n">
-        <v>520.5599999999999</v>
+        <v>520.36</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2477,13 +2478,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>516.75</v>
+        <v>516.9</v>
       </c>
       <c r="F44" t="n">
-        <v>4163.3</v>
+        <v>520.5599999999999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2491,15 +2492,15 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.15</v>
+        <v>0.52</v>
       </c>
       <c r="I44" t="n">
-        <v>25.15</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="72">
       <c r="A45" s="70" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2512,13 +2513,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>549.45</v>
+        <v>516.75</v>
       </c>
       <c r="F45" t="n">
-        <v>553.36</v>
+        <v>4163.3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2526,10 +2527,10 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.57</v>
+        <v>4.15</v>
       </c>
       <c r="I45" t="n">
-        <v>3.34</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="72">
@@ -2547,13 +2548,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6</v>
+        <v>549.45</v>
       </c>
       <c r="F46" t="n">
-        <v>4981.63</v>
+        <v>553.36</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2561,19 +2562,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.11</v>
+        <v>0.57</v>
       </c>
       <c r="I46" t="n">
-        <v>30.12</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="72">
       <c r="A47" s="70" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2582,13 +2583,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>581.65</v>
+        <v>549.6</v>
       </c>
       <c r="F47" t="n">
-        <v>5857.74</v>
+        <v>4981.63</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2596,19 +2597,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5.79</v>
+        <v>5.11</v>
       </c>
       <c r="I47" t="n">
-        <v>35.45</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="72">
       <c r="A48" s="70" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2620,123 +2621,57 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
+        <v>581.65</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5857.74</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I48" t="n">
+        <v>35.45</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" s="72">
+      <c r="A49" s="70" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
         <v>578.5</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>5826.04</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>5.8</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" s="72">
-      <c r="A49" s="25" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B49" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C49" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D49" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" s="28" t="n">
-        <v>643.6799999999999</v>
-      </c>
-      <c r="F49" s="28" t="n">
-        <v>3218.42</v>
-      </c>
-      <c r="G49" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H49" s="27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I49" s="27" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J49" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="33" t="n"/>
-      <c r="X49" s="33" t="n"/>
-      <c r="Y49" s="32">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="33" t="n"/>
-      <c r="AA49" s="33" t="n"/>
-      <c r="AB49" s="34" t="n"/>
-      <c r="AC49" s="29">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="35" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="72">
       <c r="A50" s="25" t="n">
@@ -2756,10 +2691,10 @@
         <v>5</v>
       </c>
       <c r="E50" s="28" t="n">
-        <v>643.63</v>
+        <v>643.6799999999999</v>
       </c>
       <c r="F50" s="28" t="n">
-        <v>3218.17</v>
+        <v>3218.42</v>
       </c>
       <c r="G50" s="26" t="inlineStr">
         <is>
@@ -2777,71 +2712,71 @@
         <v/>
       </c>
       <c r="K50" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L50" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M50" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N50" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O50" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P50" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R50" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S50" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T50" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U50" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V50" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W50" s="33" t="n"/>
       <c r="X50" s="33" t="n"/>
       <c r="Y50" s="32">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z50" s="33" t="n"/>
       <c r="AA50" s="33" t="n"/>
       <c r="AB50" s="34" t="n"/>
       <c r="AC50" s="29">
-        <f>IF(B17="DIV", F17,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD50" s="35" t="n"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="72">
       <c r="A51" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B51" s="26" t="inlineStr">
         <is>
@@ -2854,13 +2789,13 @@
         </is>
       </c>
       <c r="D51" s="27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" s="28" t="n">
-        <v>616.63</v>
+        <v>643.63</v>
       </c>
       <c r="F51" s="28" t="n">
-        <v>1233.26</v>
+        <v>3218.17</v>
       </c>
       <c r="G51" s="26" t="inlineStr">
         <is>
@@ -2868,74 +2803,74 @@
         </is>
       </c>
       <c r="H51" s="27" t="n">
-        <v>1.22</v>
+        <v>3.2</v>
       </c>
       <c r="I51" s="27" t="n">
-        <v>7.44</v>
+        <v>19.47</v>
       </c>
       <c r="J51" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L51" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M51" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N51" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O51" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P51" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R51" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S51" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T51" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U51" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V51" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W51" s="33" t="n"/>
       <c r="X51" s="33" t="n"/>
       <c r="Y51" s="32">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z51" s="33" t="n"/>
       <c r="AA51" s="33" t="n"/>
       <c r="AB51" s="34" t="n"/>
       <c r="AC51" s="29">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD51" s="35" t="n"/>
@@ -2955,13 +2890,13 @@
         </is>
       </c>
       <c r="D52" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="28" t="n">
-        <v>616.54</v>
+        <v>616.63</v>
       </c>
       <c r="F52" s="28" t="n">
-        <v>616.54</v>
+        <v>1233.26</v>
       </c>
       <c r="G52" s="26" t="inlineStr">
         <is>
@@ -2969,74 +2904,74 @@
         </is>
       </c>
       <c r="H52" s="27" t="n">
-        <v>0.61</v>
+        <v>1.22</v>
       </c>
       <c r="I52" s="27" t="n">
-        <v>3.73</v>
+        <v>7.44</v>
       </c>
       <c r="J52" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L52" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M52" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N52" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O52" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P52" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R52" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S52" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T52" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U52" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V52" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W52" s="33" t="n"/>
       <c r="X52" s="33" t="n"/>
       <c r="Y52" s="32">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z52" s="33" t="n"/>
       <c r="AA52" s="33" t="n"/>
       <c r="AB52" s="34" t="n"/>
       <c r="AC52" s="29">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD52" s="35" t="n"/>
@@ -3056,13 +2991,13 @@
         </is>
       </c>
       <c r="D53" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="28" t="n">
-        <v>616.53</v>
+        <v>616.54</v>
       </c>
       <c r="F53" s="28" t="n">
-        <v>1233.06</v>
+        <v>616.54</v>
       </c>
       <c r="G53" s="26" t="inlineStr">
         <is>
@@ -3070,74 +3005,74 @@
         </is>
       </c>
       <c r="H53" s="27" t="n">
-        <v>1.22</v>
+        <v>0.61</v>
       </c>
       <c r="I53" s="27" t="n">
-        <v>7.44</v>
+        <v>3.73</v>
       </c>
       <c r="J53" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L53" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M53" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N53" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O53" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P53" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R53" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S53" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T53" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U53" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V53" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W53" s="33" t="n"/>
       <c r="X53" s="33" t="n"/>
       <c r="Y53" s="32">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z53" s="33" t="n"/>
       <c r="AA53" s="33" t="n"/>
       <c r="AB53" s="34" t="n"/>
       <c r="AC53" s="29">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD53" s="35" t="n"/>
@@ -3157,13 +3092,13 @@
         </is>
       </c>
       <c r="D54" s="27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="28" t="n">
-        <v>616.54</v>
+        <v>616.53</v>
       </c>
       <c r="F54" s="28" t="n">
-        <v>616.54</v>
+        <v>1233.06</v>
       </c>
       <c r="G54" s="26" t="inlineStr">
         <is>
@@ -3171,74 +3106,74 @@
         </is>
       </c>
       <c r="H54" s="27" t="n">
-        <v>0.61</v>
+        <v>1.22</v>
       </c>
       <c r="I54" s="27" t="n">
-        <v>3.73</v>
+        <v>7.44</v>
       </c>
       <c r="J54" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L54" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M54" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N54" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O54" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P54" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R54" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S54" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T54" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U54" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V54" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W54" s="33" t="n"/>
       <c r="X54" s="33" t="n"/>
       <c r="Y54" s="32">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z54" s="33" t="n"/>
       <c r="AA54" s="33" t="n"/>
       <c r="AB54" s="34" t="n"/>
       <c r="AC54" s="29">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD54" s="35" t="n"/>
@@ -3258,13 +3193,13 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" s="28" t="n">
         <v>616.54</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>2466.17</v>
+        <v>616.54</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -3272,81 +3207,81 @@
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>2.45</v>
+        <v>0.61</v>
       </c>
       <c r="I55" s="27" t="n">
-        <v>14.92</v>
+        <v>3.73</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L55" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M55" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N55" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O55" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P55" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R55" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S55" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T55" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U55" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V55" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W55" s="33" t="n"/>
       <c r="X55" s="33" t="n"/>
       <c r="Y55" s="32">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z55" s="33" t="n"/>
       <c r="AA55" s="33" t="n"/>
       <c r="AB55" s="34" t="n"/>
       <c r="AC55" s="29">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1" s="72">
       <c r="A56" s="25" t="n">
-        <v>45784</v>
+        <v>45811</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
@@ -3359,13 +3294,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>502.46</v>
+        <v>616.54</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>10049.14</v>
+        <v>2466.17</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -3373,181 +3308,182 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>61.14</v>
+        <v>14.92</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L56" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M56" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N56" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O56" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P56" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R56" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S56" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T56" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U56" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V56" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W56" s="33" t="n"/>
       <c r="X56" s="33" t="n"/>
       <c r="Y56" s="32">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z56" s="33" t="n"/>
       <c r="AA56" s="33" t="n"/>
       <c r="AB56" s="34" t="n"/>
       <c r="AC56" s="29">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD56" s="35" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1" s="72">
-      <c r="A57" s="36" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B57" s="37" t="inlineStr">
+      <c r="A57" s="25" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B57" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C57" s="37" t="inlineStr">
+      <c r="C57" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D57" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E57" s="39" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="F57" s="39">
-        <f>D24*E24</f>
-        <v/>
-      </c>
-      <c r="G57" s="37" t="inlineStr">
+      <c r="D57" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E57" s="28" t="n">
+        <v>502.46</v>
+      </c>
+      <c r="F57" s="28" t="n">
+        <v>10049.14</v>
+      </c>
+      <c r="G57" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H57" s="38" t="n"/>
-      <c r="I57" s="38" t="n">
-        <v>17.75</v>
+      <c r="H57" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I57" s="27" t="n">
+        <v>61.14</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L57" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M57" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N57" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O57" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P57" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R57" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S57" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T57" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U57" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V57" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W57" s="33" t="n"/>
       <c r="X57" s="33" t="n"/>
       <c r="Y57" s="32">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z57" s="33" t="n"/>
       <c r="AA57" s="33" t="n"/>
       <c r="AB57" s="34" t="n"/>
       <c r="AC57" s="29">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD57" s="35" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1" s="72">
       <c r="A58" s="36" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B58" s="37" t="inlineStr">
         <is>
@@ -3563,92 +3499,91 @@
         <v>5</v>
       </c>
       <c r="E58" s="39" t="n">
-        <v>536.5700000000001</v>
-      </c>
-      <c r="F58" s="39" t="n">
-        <v>2682.86</v>
+        <v>502.55</v>
+      </c>
+      <c r="F58" s="39">
+        <f>D24*E24</f>
+        <v/>
       </c>
       <c r="G58" s="37" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H58" s="38" t="n">
-        <v>2.67</v>
-      </c>
+      <c r="H58" s="38" t="n"/>
       <c r="I58" s="38" t="n">
-        <v>16.19</v>
+        <v>17.75</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L58" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M58" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N58" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O58" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P58" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R58" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S58" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T58" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U58" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V58" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W58" s="33" t="n"/>
       <c r="X58" s="33" t="n"/>
       <c r="Y58" s="32">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z58" s="33" t="n"/>
       <c r="AA58" s="33" t="n"/>
       <c r="AB58" s="34" t="n"/>
       <c r="AC58" s="29">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD58" s="35" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1" s="72">
       <c r="A59" s="36" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B59" s="37" t="inlineStr">
         <is>
@@ -3661,13 +3596,13 @@
         </is>
       </c>
       <c r="D59" s="38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" s="39" t="n">
-        <v>532.86</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F59" s="39" t="n">
-        <v>1598.57</v>
+        <v>2682.86</v>
       </c>
       <c r="G59" s="37" t="inlineStr">
         <is>
@@ -3675,74 +3610,74 @@
         </is>
       </c>
       <c r="H59" s="38" t="n">
-        <v>1.59</v>
+        <v>2.67</v>
       </c>
       <c r="I59" s="38" t="n">
-        <v>9.68</v>
+        <v>16.19</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L59" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M59" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N59" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O59" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P59" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R59" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S59" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T59" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U59" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V59" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W59" s="33" t="n"/>
       <c r="X59" s="33" t="n"/>
       <c r="Y59" s="32">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z59" s="33" t="n"/>
       <c r="AA59" s="33" t="n"/>
       <c r="AB59" s="34" t="n"/>
       <c r="AC59" s="29">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD59" s="35" t="n"/>
@@ -3762,13 +3697,13 @@
         </is>
       </c>
       <c r="D60" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="39" t="n">
-        <v>532.96</v>
+        <v>532.86</v>
       </c>
       <c r="F60" s="39" t="n">
-        <v>1065.91</v>
+        <v>1598.57</v>
       </c>
       <c r="G60" s="37" t="inlineStr">
         <is>
@@ -3776,81 +3711,81 @@
         </is>
       </c>
       <c r="H60" s="38" t="n">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="I60" s="38" t="n">
-        <v>6.45</v>
+        <v>9.68</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L60" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M60" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N60" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O60" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P60" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R60" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S60" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T60" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U60" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V60" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W60" s="33" t="n"/>
       <c r="X60" s="33" t="n"/>
       <c r="Y60" s="32">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z60" s="33" t="n"/>
       <c r="AA60" s="33" t="n"/>
       <c r="AB60" s="34" t="n"/>
       <c r="AC60" s="29">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD60" s="35" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1" s="72">
       <c r="A61" s="36" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B61" s="37" t="inlineStr">
         <is>
@@ -3863,13 +3798,13 @@
         </is>
       </c>
       <c r="D61" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61" s="39" t="n">
-        <v>554.8</v>
+        <v>532.96</v>
       </c>
       <c r="F61" s="39" t="n">
-        <v>4438.38</v>
+        <v>1065.91</v>
       </c>
       <c r="G61" s="37" t="inlineStr">
         <is>
@@ -3877,74 +3812,74 @@
         </is>
       </c>
       <c r="H61" s="38" t="n">
-        <v>4.4</v>
+        <v>1.06</v>
       </c>
       <c r="I61" s="38" t="n">
-        <v>26.78</v>
+        <v>6.45</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L61" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M61" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N61" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P61" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R61" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S61" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T61" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U61" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V61" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W61" s="33" t="n"/>
       <c r="X61" s="33" t="n"/>
       <c r="Y61" s="32">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z61" s="33" t="n"/>
       <c r="AA61" s="33" t="n"/>
       <c r="AB61" s="34" t="n"/>
       <c r="AC61" s="29">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD61" s="35" t="n"/>
@@ -3964,13 +3899,13 @@
         </is>
       </c>
       <c r="D62" s="38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E62" s="39" t="n">
-        <v>554.91</v>
+        <v>554.8</v>
       </c>
       <c r="F62" s="39" t="n">
-        <v>1109.82</v>
+        <v>4438.38</v>
       </c>
       <c r="G62" s="37" t="inlineStr">
         <is>
@@ -3978,81 +3913,81 @@
         </is>
       </c>
       <c r="H62" s="38" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="I62" s="38" t="n">
-        <v>6.72</v>
+        <v>26.78</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L62" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M62" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N62" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P62" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R62" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S62" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T62" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U62" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V62" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W62" s="33" t="n"/>
       <c r="X62" s="33" t="n"/>
       <c r="Y62" s="32">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z62" s="33" t="n"/>
       <c r="AA62" s="33" t="n"/>
       <c r="AB62" s="34" t="n"/>
       <c r="AC62" s="29">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD62" s="35" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="72">
       <c r="A63" s="36" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B63" s="37" t="inlineStr">
         <is>
@@ -4065,13 +4000,13 @@
         </is>
       </c>
       <c r="D63" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>554.91</v>
       </c>
       <c r="F63" s="39" t="n">
-        <v>1679.81</v>
+        <v>1109.82</v>
       </c>
       <c r="G63" s="37" t="inlineStr">
         <is>
@@ -4079,74 +4014,74 @@
         </is>
       </c>
       <c r="H63" s="38" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="I63" s="38" t="n">
-        <v>10.14</v>
+        <v>6.72</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L63" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M63" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N63" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P63" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R63" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S63" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T63" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U63" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V63" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W63" s="33" t="n"/>
       <c r="X63" s="33" t="n"/>
       <c r="Y63" s="32">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z63" s="33" t="n"/>
       <c r="AA63" s="33" t="n"/>
       <c r="AB63" s="34" t="n"/>
       <c r="AC63" s="29">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD63" s="35" t="n"/>
@@ -4166,13 +4101,13 @@
         </is>
       </c>
       <c r="D64" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="39" t="n">
         <v>559.9400000000001</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>2239.76</v>
+        <v>1679.81</v>
       </c>
       <c r="G64" s="37" t="inlineStr">
         <is>
@@ -4180,74 +4115,74 @@
         </is>
       </c>
       <c r="H64" s="38" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="I64" s="38" t="n">
-        <v>13.54</v>
+        <v>10.14</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L64" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M64" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N64" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P64" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R64" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S64" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T64" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U64" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V64" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W64" s="33" t="n"/>
       <c r="X64" s="33" t="n"/>
       <c r="Y64" s="32">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z64" s="33" t="n"/>
       <c r="AA64" s="33" t="n"/>
       <c r="AB64" s="34" t="n"/>
       <c r="AC64" s="29">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD64" s="35" t="n"/>
@@ -4267,13 +4202,13 @@
         </is>
       </c>
       <c r="D65" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="39" t="n">
         <v>559.9400000000001</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>1679.81</v>
+        <v>2239.76</v>
       </c>
       <c r="G65" s="37" t="inlineStr">
         <is>
@@ -4281,81 +4216,81 @@
         </is>
       </c>
       <c r="H65" s="38" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="I65" s="38" t="n">
-        <v>10.14</v>
+        <v>13.54</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L65" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M65" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N65" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P65" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R65" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S65" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T65" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U65" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V65" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W65" s="33" t="n"/>
       <c r="X65" s="33" t="n"/>
       <c r="Y65" s="32">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z65" s="33" t="n"/>
       <c r="AA65" s="33" t="n"/>
       <c r="AB65" s="34" t="n"/>
       <c r="AC65" s="29">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD65" s="35" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="72">
       <c r="A66" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B66" s="37" t="inlineStr">
         <is>
@@ -4368,13 +4303,13 @@
         </is>
       </c>
       <c r="D66" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>631.89</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>631.89</v>
+        <v>1679.81</v>
       </c>
       <c r="G66" s="37" t="inlineStr">
         <is>
@@ -4382,74 +4317,74 @@
         </is>
       </c>
       <c r="H66" s="38" t="n">
-        <v>0.63</v>
+        <v>1.67</v>
       </c>
       <c r="I66" s="38" t="n">
-        <v>3.81</v>
+        <v>10.14</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L66" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M66" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N66" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P66" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R66" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S66" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T66" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U66" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V66" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W66" s="33" t="n"/>
       <c r="X66" s="33" t="n"/>
       <c r="Y66" s="32">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z66" s="33" t="n"/>
       <c r="AA66" s="33" t="n"/>
       <c r="AB66" s="34" t="n"/>
       <c r="AC66" s="29">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD66" s="35" t="n"/>
@@ -4469,13 +4404,13 @@
         </is>
       </c>
       <c r="D67" s="38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>631.34</v>
+        <v>631.89</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>3156.69</v>
+        <v>631.89</v>
       </c>
       <c r="G67" s="37" t="inlineStr">
         <is>
@@ -4483,74 +4418,74 @@
         </is>
       </c>
       <c r="H67" s="38" t="n">
-        <v>3.13</v>
+        <v>0.63</v>
       </c>
       <c r="I67" s="38" t="n">
-        <v>19.06</v>
+        <v>3.81</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L67" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M67" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N67" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P67" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R67" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S67" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T67" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U67" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V67" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W67" s="33" t="n"/>
       <c r="X67" s="33" t="n"/>
       <c r="Y67" s="32">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z67" s="33" t="n"/>
       <c r="AA67" s="33" t="n"/>
       <c r="AB67" s="34" t="n"/>
       <c r="AC67" s="29">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD67" s="35" t="n"/>
@@ -4570,13 +4505,13 @@
         </is>
       </c>
       <c r="D68" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>631.85</v>
+        <v>631.34</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>4422.94</v>
+        <v>3156.69</v>
       </c>
       <c r="G68" s="37" t="inlineStr">
         <is>
@@ -4584,74 +4519,74 @@
         </is>
       </c>
       <c r="H68" s="38" t="n">
-        <v>4.38</v>
+        <v>3.13</v>
       </c>
       <c r="I68" s="38" t="n">
-        <v>26.76</v>
+        <v>19.06</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L68" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M68" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N68" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P68" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R68" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S68" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T68" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U68" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V68" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W68" s="33" t="n"/>
       <c r="X68" s="33" t="n"/>
       <c r="Y68" s="32">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z68" s="33" t="n"/>
       <c r="AA68" s="33" t="n"/>
       <c r="AB68" s="34" t="n"/>
       <c r="AC68" s="29">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD68" s="35" t="n"/>
@@ -4671,13 +4606,13 @@
         </is>
       </c>
       <c r="D69" s="38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>631.89</v>
+        <v>631.85</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>631.89</v>
+        <v>4422.94</v>
       </c>
       <c r="G69" s="37" t="inlineStr">
         <is>
@@ -4685,74 +4620,74 @@
         </is>
       </c>
       <c r="H69" s="38" t="n">
-        <v>0.63</v>
+        <v>4.38</v>
       </c>
       <c r="I69" s="38" t="n">
-        <v>3.81</v>
+        <v>26.76</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L69" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M69" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N69" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P69" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R69" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S69" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T69" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U69" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V69" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W69" s="33" t="n"/>
       <c r="X69" s="33" t="n"/>
       <c r="Y69" s="32">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z69" s="33" t="n"/>
       <c r="AA69" s="33" t="n"/>
       <c r="AB69" s="34" t="n"/>
       <c r="AC69" s="29">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD69" s="35" t="n"/>
@@ -4775,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>631.79</v>
+        <v>631.89</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>631.79</v>
+        <v>631.89</v>
       </c>
       <c r="G70" s="37" t="inlineStr">
         <is>
@@ -4796,71 +4731,71 @@
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L70" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M70" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N70" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P70" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R70" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S70" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T70" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U70" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V70" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W70" s="33" t="n"/>
       <c r="X70" s="33" t="n"/>
       <c r="Y70" s="32">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z70" s="33" t="n"/>
       <c r="AA70" s="33" t="n"/>
       <c r="AB70" s="34" t="n"/>
       <c r="AC70" s="29">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD70" s="35" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="72">
       <c r="A71" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B71" s="37" t="inlineStr">
         <is>
@@ -4869,17 +4804,17 @@
       </c>
       <c r="C71" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D71" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>477.57</v>
+        <v>631.79</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>3342.98</v>
+        <v>631.79</v>
       </c>
       <c r="G71" s="37" t="inlineStr">
         <is>
@@ -4887,70 +4822,76 @@
         </is>
       </c>
       <c r="H71" s="38" t="n">
-        <v>3.37</v>
+        <v>0.63</v>
       </c>
       <c r="I71" s="38" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="J71" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J71" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K71" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L71" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M71" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N71" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P71" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R71" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S71" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T71" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U71" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V71" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W71" s="33" t="n"/>
       <c r="X71" s="33" t="n"/>
       <c r="Y71" s="32">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z71" s="33" t="n"/>
       <c r="AA71" s="33" t="n"/>
       <c r="AB71" s="34" t="n"/>
-      <c r="AC71" s="29" t="n"/>
+      <c r="AC71" s="29">
+        <f>IF(B37="DIV", F37,"")</f>
+        <v/>
+      </c>
       <c r="AD71" s="35" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1" s="72">
@@ -4968,13 +4909,13 @@
         </is>
       </c>
       <c r="D72" s="38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>477.62</v>
+        <v>477.57</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>1910.48</v>
+        <v>3342.98</v>
       </c>
       <c r="G72" s="37" t="inlineStr">
         <is>
@@ -4982,64 +4923,64 @@
         </is>
       </c>
       <c r="H72" s="38" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
       <c r="I72" s="38" t="n">
-        <v>11.4</v>
+        <v>19.95</v>
       </c>
       <c r="J72" s="40" t="n"/>
       <c r="K72" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L72" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M72" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N72" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P72" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R72" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S72" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T72" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U72" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V72" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W72" s="33" t="n"/>
       <c r="X72" s="33" t="n"/>
       <c r="Y72" s="32">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z72" s="33" t="n"/>
@@ -5063,13 +5004,13 @@
         </is>
       </c>
       <c r="D73" s="38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E73" s="39" t="n">
         <v>477.62</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>7641.86</v>
+        <v>1910.48</v>
       </c>
       <c r="G73" s="37" t="inlineStr">
         <is>
@@ -5077,64 +5018,64 @@
         </is>
       </c>
       <c r="H73" s="38" t="n">
-        <v>7.7</v>
+        <v>1.92</v>
       </c>
       <c r="I73" s="38" t="n">
-        <v>45.64</v>
+        <v>11.4</v>
       </c>
       <c r="J73" s="40" t="n"/>
       <c r="K73" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L73" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M73" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N73" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P73" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R73" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S73" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T73" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U73" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V73" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W73" s="33" t="n"/>
       <c r="X73" s="33" t="n"/>
       <c r="Y73" s="32">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z73" s="33" t="n"/>
@@ -5158,13 +5099,13 @@
         </is>
       </c>
       <c r="D74" s="38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>477.57</v>
+        <v>477.62</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>1432.71</v>
+        <v>7641.86</v>
       </c>
       <c r="G74" s="37" t="inlineStr">
         <is>
@@ -5172,64 +5113,64 @@
         </is>
       </c>
       <c r="H74" s="38" t="n">
-        <v>1.44</v>
+        <v>7.7</v>
       </c>
       <c r="I74" s="38" t="n">
-        <v>8.550000000000001</v>
+        <v>45.64</v>
       </c>
       <c r="J74" s="40" t="n"/>
       <c r="K74" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L74" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M74" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N74" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P74" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R74" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S74" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T74" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U74" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V74" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W74" s="33" t="n"/>
       <c r="X74" s="33" t="n"/>
       <c r="Y74" s="32">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z74" s="33" t="n"/>
@@ -5240,7 +5181,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="72">
       <c r="A75" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B75" s="37" t="inlineStr">
         <is>
@@ -5256,10 +5197,10 @@
         <v>3</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>375.64</v>
+        <v>477.57</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>1126.91</v>
+        <v>1432.71</v>
       </c>
       <c r="G75" s="37" t="inlineStr">
         <is>
@@ -5267,64 +5208,64 @@
         </is>
       </c>
       <c r="H75" s="38" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="I75" s="38" t="n">
-        <v>6.73</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J75" s="40" t="n"/>
       <c r="K75" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L75" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M75" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N75" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P75" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R75" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S75" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T75" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U75" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V75" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W75" s="33" t="n"/>
       <c r="X75" s="33" t="n"/>
       <c r="Y75" s="32">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z75" s="33" t="n"/>
@@ -5348,13 +5289,13 @@
         </is>
       </c>
       <c r="D76" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" s="39" t="n">
         <v>375.64</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>375.64</v>
+        <v>1126.91</v>
       </c>
       <c r="G76" s="37" t="inlineStr">
         <is>
@@ -5362,64 +5303,64 @@
         </is>
       </c>
       <c r="H76" s="38" t="n">
-        <v>0.37</v>
+        <v>1.11</v>
       </c>
       <c r="I76" s="38" t="n">
-        <v>2.24</v>
+        <v>6.73</v>
       </c>
       <c r="J76" s="40" t="n"/>
       <c r="K76" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L76" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M76" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N76" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P76" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R76" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S76" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T76" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U76" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V76" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W76" s="33" t="n"/>
       <c r="X76" s="33" t="n"/>
       <c r="Y76" s="32">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z76" s="33" t="n"/>
@@ -5443,13 +5384,13 @@
         </is>
       </c>
       <c r="D77" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>375.58</v>
+        <v>375.64</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>3004.66</v>
+        <v>375.64</v>
       </c>
       <c r="G77" s="37" t="inlineStr">
         <is>
@@ -5457,64 +5398,64 @@
         </is>
       </c>
       <c r="H77" s="38" t="n">
-        <v>2.98</v>
+        <v>0.37</v>
       </c>
       <c r="I77" s="38" t="n">
-        <v>17.96</v>
+        <v>2.24</v>
       </c>
       <c r="J77" s="40" t="n"/>
       <c r="K77" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L77" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M77" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N77" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P77" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R77" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S77" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T77" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U77" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V77" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W77" s="33" t="n"/>
       <c r="X77" s="33" t="n"/>
       <c r="Y77" s="32">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z77" s="33" t="n"/>
@@ -5538,13 +5479,13 @@
         </is>
       </c>
       <c r="D78" s="38" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>375.63</v>
+        <v>375.58</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>9766.42</v>
+        <v>3004.66</v>
       </c>
       <c r="G78" s="37" t="inlineStr">
         <is>
@@ -5552,64 +5493,64 @@
         </is>
       </c>
       <c r="H78" s="38" t="n">
-        <v>9.68</v>
+        <v>2.98</v>
       </c>
       <c r="I78" s="38" t="n">
-        <v>58.4</v>
+        <v>17.96</v>
       </c>
       <c r="J78" s="40" t="n"/>
       <c r="K78" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L78" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M78" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N78" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P78" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R78" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S78" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T78" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U78" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V78" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W78" s="33" t="n"/>
       <c r="X78" s="33" t="n"/>
       <c r="Y78" s="32">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z78" s="33" t="n"/>
@@ -5633,13 +5574,13 @@
         </is>
       </c>
       <c r="D79" s="38" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>375.58</v>
+        <v>375.63</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>751.16</v>
+        <v>9766.42</v>
       </c>
       <c r="G79" s="37" t="inlineStr">
         <is>
@@ -5647,64 +5588,65 @@
         </is>
       </c>
       <c r="H79" s="38" t="n">
-        <v>0.75</v>
+        <v>9.68</v>
       </c>
       <c r="I79" s="38" t="n">
-        <v>4.49</v>
+        <v>58.4</v>
       </c>
       <c r="J79" s="40" t="n"/>
       <c r="K79" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L79" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M79" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N79" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P79" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R79" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S79" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T79" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U79" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V79" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W79" s="33" t="n"/>
       <c r="X79" s="33" t="n"/>
-      <c r="Y79" s="32" t="e">
-        <v>#REF!</v>
+      <c r="Y79" s="32">
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <v/>
       </c>
       <c r="Z79" s="33" t="n"/>
       <c r="AA79" s="33" t="n"/>
@@ -5714,7 +5656,7 @@
     </row>
     <row r="80" ht="13" customHeight="1" s="72">
       <c r="A80" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B80" s="37" t="inlineStr">
         <is>
@@ -5723,17 +5665,17 @@
       </c>
       <c r="C80" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D80" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>326.2</v>
+        <v>375.58</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>2609.58</v>
+        <v>751.16</v>
       </c>
       <c r="G80" s="37" t="inlineStr">
         <is>
@@ -5741,62 +5683,70 @@
         </is>
       </c>
       <c r="H80" s="38" t="n">
-        <v>2.59</v>
+        <v>0.75</v>
       </c>
       <c r="I80" s="38" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="J80" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K80" s="33" t="n"/>
-      <c r="L80" s="33" t="n"/>
-      <c r="M80" s="41" t="n"/>
-      <c r="N80" s="42" t="n"/>
-      <c r="O80" s="41" t="n"/>
-      <c r="P80" s="33" t="n"/>
-      <c r="Q80" s="41" t="n"/>
-      <c r="R80" s="41" t="n"/>
-      <c r="S80" s="41" t="n"/>
-      <c r="T80" s="41" t="n"/>
-      <c r="U80" s="41" t="n"/>
-      <c r="V80" s="41" t="n"/>
-      <c r="W80" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X80" s="44" t="n">
-        <v>45282</v>
-      </c>
+        <v>4.49</v>
+      </c>
+      <c r="J80" s="40" t="n"/>
+      <c r="K80" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="L80" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="M80" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="N80" s="31">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="O80" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="P80" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="Q80" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="R80" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="S80" s="32">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="T80" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="U80" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="V80" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W80" s="33" t="n"/>
+      <c r="X80" s="33" t="n"/>
       <c r="Y80" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z80" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA80" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB80" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC80" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+      <c r="Z80" s="33" t="n"/>
+      <c r="AA80" s="33" t="n"/>
+      <c r="AB80" s="34" t="n"/>
+      <c r="AC80" s="29" t="n"/>
       <c r="AD80" s="35" t="n"/>
-      <c r="AE80" s="48" t="n"/>
-      <c r="AF80" s="48" t="n"/>
-      <c r="AG80" s="48" t="n"/>
-      <c r="AH80" s="48" t="n"/>
-      <c r="AI80" s="48" t="n"/>
-      <c r="AJ80" s="48" t="n"/>
-      <c r="AK80" s="48" t="n"/>
-      <c r="AL80" s="48" t="n"/>
-      <c r="AM80" s="48" t="n"/>
-      <c r="AN80" s="48" t="n"/>
-      <c r="AO80" s="48" t="n"/>
-      <c r="AP80" s="48" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="72">
       <c r="A81" s="36" t="n">
@@ -5813,13 +5763,13 @@
         </is>
       </c>
       <c r="D81" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E81" s="39" t="n">
         <v>326.2</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>326.2</v>
+        <v>2609.58</v>
       </c>
       <c r="G81" s="37" t="inlineStr">
         <is>
@@ -5827,10 +5777,10 @@
         </is>
       </c>
       <c r="H81" s="38" t="n">
-        <v>0.32</v>
+        <v>2.59</v>
       </c>
       <c r="I81" s="38" t="n">
-        <v>1.98</v>
+        <v>15.79</v>
       </c>
       <c r="J81" s="40">
         <f>Index!$C$2</f>
@@ -5902,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>326.25</v>
+        <v>326.2</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>326.25</v>
+        <v>326.2</v>
       </c>
       <c r="G82" s="37" t="inlineStr">
         <is>
@@ -5972,7 +5922,7 @@
     </row>
     <row r="83" ht="13" customHeight="1" s="72">
       <c r="A83" s="36" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B83" s="37" t="inlineStr">
         <is>
@@ -5985,13 +5935,13 @@
         </is>
       </c>
       <c r="D83" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>318.94</v>
+        <v>326.25</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>2551.53</v>
+        <v>326.25</v>
       </c>
       <c r="G83" s="37" t="inlineStr">
         <is>
@@ -5999,10 +5949,10 @@
         </is>
       </c>
       <c r="H83" s="38" t="n">
-        <v>2.54</v>
+        <v>0.32</v>
       </c>
       <c r="I83" s="38" t="n">
-        <v>15.39</v>
+        <v>1.98</v>
       </c>
       <c r="J83" s="40">
         <f>Index!$C$2</f>
@@ -6071,13 +6021,13 @@
         </is>
       </c>
       <c r="D84" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84" s="39" t="n">
         <v>318.94</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>318.94</v>
+        <v>2551.53</v>
       </c>
       <c r="G84" s="37" t="inlineStr">
         <is>
@@ -6085,10 +6035,10 @@
         </is>
       </c>
       <c r="H84" s="38" t="n">
-        <v>0.32</v>
+        <v>2.54</v>
       </c>
       <c r="I84" s="38" t="n">
-        <v>1.92</v>
+        <v>15.39</v>
       </c>
       <c r="J84" s="40">
         <f>Index!$C$2</f>
@@ -6230,7 +6180,7 @@
     </row>
     <row r="86" ht="13" customHeight="1" s="72">
       <c r="A86" s="36" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B86" s="37" t="inlineStr">
         <is>
@@ -6246,10 +6196,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>335.81</v>
+        <v>318.94</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>335.81</v>
+        <v>318.94</v>
       </c>
       <c r="G86" s="37" t="inlineStr">
         <is>
@@ -6257,10 +6207,10 @@
         </is>
       </c>
       <c r="H86" s="38" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I86" s="38" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="J86" s="40">
         <f>Index!$C$2</f>
@@ -6329,13 +6279,13 @@
         </is>
       </c>
       <c r="D87" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>335.82</v>
+        <v>335.81</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>2686.55</v>
+        <v>335.81</v>
       </c>
       <c r="G87" s="37" t="inlineStr">
         <is>
@@ -6343,10 +6293,10 @@
         </is>
       </c>
       <c r="H87" s="38" t="n">
-        <v>2.65</v>
+        <v>0.33</v>
       </c>
       <c r="I87" s="38" t="n">
-        <v>16.3</v>
+        <v>2.03</v>
       </c>
       <c r="J87" s="40">
         <f>Index!$C$2</f>
@@ -6415,13 +6365,13 @@
         </is>
       </c>
       <c r="D88" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>335.76</v>
+        <v>335.82</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>335.76</v>
+        <v>2686.55</v>
       </c>
       <c r="G88" s="37" t="inlineStr">
         <is>
@@ -6429,21 +6379,21 @@
         </is>
       </c>
       <c r="H88" s="38" t="n">
-        <v>0.33</v>
+        <v>2.65</v>
       </c>
       <c r="I88" s="38" t="n">
-        <v>2.03</v>
+        <v>16.3</v>
       </c>
       <c r="J88" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K88" s="41" t="n"/>
-      <c r="L88" s="41" t="n"/>
+      <c r="K88" s="33" t="n"/>
+      <c r="L88" s="33" t="n"/>
       <c r="M88" s="41" t="n"/>
       <c r="N88" s="42" t="n"/>
       <c r="O88" s="41" t="n"/>
-      <c r="P88" s="41" t="n"/>
+      <c r="P88" s="33" t="n"/>
       <c r="Q88" s="41" t="n"/>
       <c r="R88" s="41" t="n"/>
       <c r="S88" s="41" t="n"/>
@@ -6488,7 +6438,7 @@
     </row>
     <row r="89" ht="13" customHeight="1" s="72">
       <c r="A89" s="36" t="n">
-        <v>45034</v>
+        <v>45180</v>
       </c>
       <c r="B89" s="37" t="inlineStr">
         <is>
@@ -6501,13 +6451,13 @@
         </is>
       </c>
       <c r="D89" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>261.64</v>
+        <v>335.76</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>523.29</v>
+        <v>335.76</v>
       </c>
       <c r="G89" s="37" t="inlineStr">
         <is>
@@ -6515,10 +6465,10 @@
         </is>
       </c>
       <c r="H89" s="38" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="I89" s="38" t="n">
-        <v>3.17</v>
+        <v>2.03</v>
       </c>
       <c r="J89" s="40">
         <f>Index!$C$2</f>
@@ -6537,10 +6487,10 @@
       <c r="U89" s="41" t="n"/>
       <c r="V89" s="41" t="n"/>
       <c r="W89" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X89" s="49" t="n">
-        <v>45204</v>
+        <v>478.55</v>
+      </c>
+      <c r="X89" s="44" t="n">
+        <v>45282</v>
       </c>
       <c r="Y89" s="32" t="e">
         <v>#REF!</v>
@@ -6587,13 +6537,13 @@
         </is>
       </c>
       <c r="D90" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>261.7</v>
+        <v>261.64</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>261.7</v>
+        <v>523.29</v>
       </c>
       <c r="G90" s="37" t="inlineStr">
         <is>
@@ -6601,21 +6551,21 @@
         </is>
       </c>
       <c r="H90" s="38" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="I90" s="38" t="n">
-        <v>1.59</v>
+        <v>3.17</v>
       </c>
       <c r="J90" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K90" s="33" t="n"/>
-      <c r="L90" s="33" t="n"/>
+      <c r="K90" s="41" t="n"/>
+      <c r="L90" s="41" t="n"/>
       <c r="M90" s="41" t="n"/>
       <c r="N90" s="42" t="n"/>
       <c r="O90" s="41" t="n"/>
-      <c r="P90" s="33" t="n"/>
+      <c r="P90" s="41" t="n"/>
       <c r="Q90" s="41" t="n"/>
       <c r="R90" s="41" t="n"/>
       <c r="S90" s="41" t="n"/>
@@ -6628,28 +6578,23 @@
       <c r="X90" s="49" t="n">
         <v>45204</v>
       </c>
-      <c r="Y90" s="32">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
-        <v/>
-      </c>
-      <c r="Z90" s="45" t="n">
-        <v>-3173.3424</v>
-      </c>
-      <c r="AA90" s="45" t="n">
-        <v>3218.4</v>
-      </c>
-      <c r="AB90" s="46" t="n">
-        <v>5</v>
+      <c r="Y90" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z90" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA90" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB90" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC90" s="47">
-        <f>IF(B46="DIV", F46,"")</f>
-        <v/>
-      </c>
-      <c r="AD90" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD90" s="35" t="n"/>
       <c r="AE90" s="48" t="n"/>
       <c r="AF90" s="48" t="n"/>
       <c r="AG90" s="48" t="n"/>
@@ -6678,13 +6623,13 @@
         </is>
       </c>
       <c r="D91" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E91" s="39" t="n">
         <v>261.7</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>1831.87</v>
+        <v>261.7</v>
       </c>
       <c r="G91" s="37" t="inlineStr">
         <is>
@@ -6692,10 +6637,10 @@
         </is>
       </c>
       <c r="H91" s="38" t="n">
-        <v>1.82</v>
+        <v>0.26</v>
       </c>
       <c r="I91" s="38" t="n">
-        <v>11.1</v>
+        <v>1.59</v>
       </c>
       <c r="J91" s="40">
         <f>Index!$C$2</f>
@@ -6720,20 +6665,20 @@
         <v>45204</v>
       </c>
       <c r="Y91" s="32">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z91" s="45" t="n">
-        <v>-3173.0959</v>
+        <v>-3173.3424</v>
       </c>
       <c r="AA91" s="45" t="n">
-        <v>3218.15</v>
+        <v>3218.4</v>
       </c>
       <c r="AB91" s="46" t="n">
         <v>5</v>
       </c>
       <c r="AC91" s="47">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD91" s="50" t="inlineStr">
@@ -6756,7 +6701,7 @@
     </row>
     <row r="92" ht="13" customHeight="1" s="72">
       <c r="A92" s="36" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B92" s="37" t="inlineStr">
         <is>
@@ -6769,13 +6714,13 @@
         </is>
       </c>
       <c r="D92" s="38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>260.34</v>
+        <v>261.7</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>260.34</v>
+        <v>1831.87</v>
       </c>
       <c r="G92" s="37" t="inlineStr">
         <is>
@@ -6783,10 +6728,10 @@
         </is>
       </c>
       <c r="H92" s="38" t="n">
-        <v>0.26</v>
+        <v>1.82</v>
       </c>
       <c r="I92" s="38" t="n">
-        <v>1.58</v>
+        <v>11.1</v>
       </c>
       <c r="J92" s="40">
         <f>Index!$C$2</f>
@@ -6811,20 +6756,20 @@
         <v>45204</v>
       </c>
       <c r="Y92" s="32">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z92" s="45" t="n">
-        <v>-1215.99436</v>
+        <v>-3173.0959</v>
       </c>
       <c r="AA92" s="45" t="n">
-        <v>1233.26</v>
+        <v>3218.15</v>
       </c>
       <c r="AB92" s="46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC92" s="47">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD92" s="50" t="inlineStr">
@@ -6860,13 +6805,13 @@
         </is>
       </c>
       <c r="D93" s="38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>260.23</v>
+        <v>260.34</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>2342.08</v>
+        <v>260.34</v>
       </c>
       <c r="G93" s="37" t="inlineStr">
         <is>
@@ -6874,10 +6819,10 @@
         </is>
       </c>
       <c r="H93" s="38" t="n">
-        <v>2.33</v>
+        <v>0.26</v>
       </c>
       <c r="I93" s="38" t="n">
-        <v>14.15</v>
+        <v>1.58</v>
       </c>
       <c r="J93" s="40">
         <f>Index!$C$2</f>
@@ -6902,20 +6847,20 @@
         <v>45204</v>
       </c>
       <c r="Y93" s="32">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z93" s="45" t="n">
-        <v>-607.9084399999999</v>
+        <v>-1215.99436</v>
       </c>
       <c r="AA93" s="45" t="n">
-        <v>616.54</v>
+        <v>1233.26</v>
       </c>
       <c r="AB93" s="46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC93" s="47">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD93" s="50" t="inlineStr">
@@ -6954,10 +6899,10 @@
         <v>9</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>260.33</v>
+        <v>260.23</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>2342.98</v>
+        <v>2342.08</v>
       </c>
       <c r="G94" s="37" t="inlineStr">
         <is>
@@ -6993,20 +6938,20 @@
         <v>45204</v>
       </c>
       <c r="Y94" s="32">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z94" s="45" t="n">
-        <v>-1215.79716</v>
+        <v>-607.9084399999999</v>
       </c>
       <c r="AA94" s="45" t="n">
-        <v>1233.06</v>
+        <v>616.54</v>
       </c>
       <c r="AB94" s="46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC94" s="47">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD94" s="50" t="inlineStr">
@@ -7042,13 +6987,13 @@
         </is>
       </c>
       <c r="D95" s="38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>260.29</v>
+        <v>260.33</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>260.29</v>
+        <v>2342.98</v>
       </c>
       <c r="G95" s="37" t="inlineStr">
         <is>
@@ -7056,10 +7001,10 @@
         </is>
       </c>
       <c r="H95" s="38" t="n">
-        <v>0.26</v>
+        <v>2.33</v>
       </c>
       <c r="I95" s="38" t="n">
-        <v>1.58</v>
+        <v>14.15</v>
       </c>
       <c r="J95" s="40">
         <f>Index!$C$2</f>
@@ -7084,20 +7029,20 @@
         <v>45204</v>
       </c>
       <c r="Y95" s="32">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z95" s="45" t="n">
-        <v>-607.9084399999999</v>
+        <v>-1215.79716</v>
       </c>
       <c r="AA95" s="45" t="n">
-        <v>616.54</v>
+        <v>1233.06</v>
       </c>
       <c r="AB95" s="46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC95" s="47">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD95" s="50" t="inlineStr">
@@ -7120,7 +7065,7 @@
     </row>
     <row r="96" ht="13" customHeight="1" s="72">
       <c r="A96" s="36" t="n">
-        <v>44950</v>
+        <v>44981</v>
       </c>
       <c r="B96" s="37" t="inlineStr">
         <is>
@@ -7133,13 +7078,13 @@
         </is>
       </c>
       <c r="D96" s="38" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>292.3</v>
+        <v>260.29</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>2923.03</v>
+        <v>260.29</v>
       </c>
       <c r="G96" s="37" t="inlineStr">
         <is>
@@ -7147,10 +7092,10 @@
         </is>
       </c>
       <c r="H96" s="38" t="n">
-        <v>2.89</v>
+        <v>0.26</v>
       </c>
       <c r="I96" s="38" t="n">
-        <v>17.64</v>
+        <v>1.58</v>
       </c>
       <c r="J96" s="40">
         <f>Index!$C$2</f>
@@ -7175,20 +7120,20 @@
         <v>45204</v>
       </c>
       <c r="Y96" s="32">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z96" s="45" t="n">
-        <v>-2431.63376</v>
+        <v>-607.9084399999999</v>
       </c>
       <c r="AA96" s="45" t="n">
-        <v>2466.16</v>
+        <v>616.54</v>
       </c>
       <c r="AB96" s="46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC96" s="47">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD96" s="50" t="inlineStr">
@@ -7210,20 +7155,95 @@
       <c r="AP96" s="48" t="n"/>
     </row>
     <row r="97" ht="13" customHeight="1" s="72">
-      <c r="E97" s="51" t="n"/>
-      <c r="F97" s="51" t="n"/>
-      <c r="G97" s="52" t="n"/>
-      <c r="J97" s="51" t="n"/>
-      <c r="K97" s="51" t="n"/>
-      <c r="L97" s="51" t="n"/>
-      <c r="M97" s="1" t="n"/>
-      <c r="W97" s="51" t="n"/>
-      <c r="X97" s="51" t="n"/>
-      <c r="Y97" s="51" t="n"/>
-      <c r="Z97" s="51" t="n"/>
-      <c r="AA97" s="51" t="n"/>
-      <c r="AB97" s="51" t="n"/>
-      <c r="AC97" s="51" t="n"/>
+      <c r="A97" s="36" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B97" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C97" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D97" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" s="39" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="F97" s="39" t="n">
+        <v>2923.03</v>
+      </c>
+      <c r="G97" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H97" s="38" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I97" s="38" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="J97" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K97" s="33" t="n"/>
+      <c r="L97" s="33" t="n"/>
+      <c r="M97" s="41" t="n"/>
+      <c r="N97" s="42" t="n"/>
+      <c r="O97" s="41" t="n"/>
+      <c r="P97" s="33" t="n"/>
+      <c r="Q97" s="41" t="n"/>
+      <c r="R97" s="41" t="n"/>
+      <c r="S97" s="41" t="n"/>
+      <c r="T97" s="41" t="n"/>
+      <c r="U97" s="41" t="n"/>
+      <c r="V97" s="41" t="n"/>
+      <c r="W97" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X97" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y97" s="32">
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <v/>
+      </c>
+      <c r="Z97" s="45" t="n">
+        <v>-2431.63376</v>
+      </c>
+      <c r="AA97" s="45" t="n">
+        <v>2466.16</v>
+      </c>
+      <c r="AB97" s="46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC97" s="47">
+        <f>IF(B52="DIV", F52,"")</f>
+        <v/>
+      </c>
+      <c r="AD97" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE97" s="48" t="n"/>
+      <c r="AF97" s="48" t="n"/>
+      <c r="AG97" s="48" t="n"/>
+      <c r="AH97" s="48" t="n"/>
+      <c r="AI97" s="48" t="n"/>
+      <c r="AJ97" s="48" t="n"/>
+      <c r="AK97" s="48" t="n"/>
+      <c r="AL97" s="48" t="n"/>
+      <c r="AM97" s="48" t="n"/>
+      <c r="AN97" s="48" t="n"/>
+      <c r="AO97" s="48" t="n"/>
+      <c r="AP97" s="48" t="n"/>
     </row>
     <row r="98" ht="13" customHeight="1" s="72">
       <c r="E98" s="51" t="n"/>
@@ -22192,6 +22212,7 @@
       <c r="J1033" s="51" t="n"/>
       <c r="K1033" s="51" t="n"/>
       <c r="L1033" s="51" t="n"/>
+      <c r="M1033" s="1" t="n"/>
       <c r="W1033" s="51" t="n"/>
       <c r="X1033" s="51" t="n"/>
       <c r="Y1033" s="51" t="n"/>
@@ -22439,6 +22460,21 @@
       <c r="AA1049" s="51" t="n"/>
       <c r="AB1049" s="51" t="n"/>
       <c r="AC1049" s="51" t="n"/>
+    </row>
+    <row r="1050">
+      <c r="E1050" s="51" t="n"/>
+      <c r="F1050" s="51" t="n"/>
+      <c r="G1050" s="52" t="n"/>
+      <c r="J1050" s="51" t="n"/>
+      <c r="K1050" s="51" t="n"/>
+      <c r="L1050" s="51" t="n"/>
+      <c r="W1050" s="51" t="n"/>
+      <c r="X1050" s="51" t="n"/>
+      <c r="Y1050" s="51" t="n"/>
+      <c r="Z1050" s="51" t="n"/>
+      <c r="AA1050" s="51" t="n"/>
+      <c r="AB1050" s="51" t="n"/>
+      <c r="AC1050" s="51" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO82"/>

--- a/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
+++ b/dumps/Stocks/Antony Waste Handling Cell Ltd.xlsx
@@ -746,7 +746,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1050"/>
+  <dimension ref="A1:AP1055"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="72">
       <c r="A5" s="83" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1109,21 +1109,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>493.89</v>
+        <v>433.36</v>
       </c>
       <c r="F5" t="n">
-        <v>7445.4</v>
+        <v>4355.3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>37.05</v>
+        <v>21.7</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1132,11 +1132,11 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="72">
       <c r="A6" s="83" t="n">
-        <v>45972</v>
+        <v>45999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1145,21 +1145,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>500.02</v>
+        <v>426.4625</v>
       </c>
       <c r="F6" t="n">
-        <v>5025.2</v>
+        <v>8571.85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252609099359</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>42.6</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="72">
       <c r="A7" s="83" t="n">
-        <v>45967</v>
+        <v>45996</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1181,21 +1181,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>508.4125</v>
+        <v>434.445</v>
       </c>
       <c r="F7" t="n">
-        <v>6131.43</v>
+        <v>8732.299999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>30.48</v>
+        <v>43.4</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="72">
       <c r="A8" s="83" t="n">
-        <v>45957</v>
+        <v>45989</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1220,18 +1220,18 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>526.855</v>
+        <v>460.97</v>
       </c>
       <c r="F8" t="n">
-        <v>5294.85</v>
+        <v>4632.74</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>26.3</v>
+        <v>23.04</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1239,8 +1239,8 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="72">
-      <c r="A9" s="70" t="n">
-        <v>46007</v>
+      <c r="A9" s="83" t="n">
+        <v>45988</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1253,29 +1253,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>433.4</v>
+        <v>466.01</v>
       </c>
       <c r="F9" t="n">
-        <v>872.95</v>
+        <v>4683.4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.87</v>
+          <t>CN#252608703866</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>5.28</v>
+        <v>23.3</v>
+      </c>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="72">
-      <c r="A10" s="70" t="n">
-        <v>46007</v>
+      <c r="A10" s="83" t="n">
+        <v>45978</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1288,134 +1289,138 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>433.35</v>
+        <v>493.89</v>
       </c>
       <c r="F10" t="n">
-        <v>3491.38</v>
+        <v>7445.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3.45</v>
+          <t>CN#252608260909</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>21.13</v>
+        <v>37.05</v>
+      </c>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="72">
-      <c r="A11" s="70" t="n">
-        <v>46002</v>
+      <c r="A11" s="83" t="n">
+        <v>45972</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>500.02</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5025.2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CN#252608021091</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="72">
+      <c r="A12" s="83" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>508.4125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6131.43</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CN#252607785263</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="72">
+      <c r="A13" s="83" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>30</v>
-      </c>
-      <c r="E11" t="n">
-        <v>433.95</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13110.82</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="I11" t="n">
-        <v>79.25</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="72">
-      <c r="A12" s="70" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>426.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3436.31</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.79</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="72">
-      <c r="A13" s="70" t="n">
-        <v>45999</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>426.4</v>
+        <v>526.855</v>
       </c>
       <c r="F13" t="n">
-        <v>3435.51</v>
+        <v>5294.85</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3.52</v>
+          <t>CN#252607382790</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>20.79</v>
+        <v>26.3</v>
+      </c>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="72">
       <c r="A14" s="70" t="n">
-        <v>45999</v>
+        <v>46007</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1428,13 +1433,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>426.4</v>
+        <v>433.4</v>
       </c>
       <c r="F14" t="n">
-        <v>429.43</v>
+        <v>872.95</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1442,15 +1447,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.44</v>
+        <v>0.87</v>
       </c>
       <c r="I14" t="n">
-        <v>2.59</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="72">
       <c r="A15" s="70" t="n">
-        <v>45999</v>
+        <v>46007</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1463,13 +1468,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>426.55</v>
+        <v>433.35</v>
       </c>
       <c r="F15" t="n">
-        <v>1288.77</v>
+        <v>3491.38</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1477,19 +1482,19 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.32</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="72">
       <c r="A16" s="70" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1498,13 +1503,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>434.45</v>
+        <v>433.95</v>
       </c>
       <c r="F16" t="n">
-        <v>7875.57</v>
+        <v>13110.82</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1512,19 +1517,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.79</v>
+        <v>13.07</v>
       </c>
       <c r="I16" t="n">
-        <v>47.68</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="72">
       <c r="A17" s="70" t="n">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1533,13 +1538,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>434.4</v>
+        <v>426.5</v>
       </c>
       <c r="F17" t="n">
-        <v>874.95</v>
+        <v>3436.31</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1547,19 +1552,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.87</v>
+        <v>3.52</v>
       </c>
       <c r="I17" t="n">
-        <v>5.28</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="72">
       <c r="A18" s="70" t="n">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1568,13 +1573,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>457.5</v>
+        <v>426.4</v>
       </c>
       <c r="F18" t="n">
-        <v>4607.51</v>
+        <v>3435.51</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1582,15 +1587,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="72">
       <c r="A19" s="70" t="n">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1603,13 +1608,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>461</v>
+        <v>426.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1857.11</v>
+        <v>429.43</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1617,15 +1622,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.84</v>
+        <v>0.44</v>
       </c>
       <c r="I19" t="n">
-        <v>11.27</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="72">
       <c r="A20" s="70" t="n">
-        <v>45989</v>
+        <v>45999</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1638,13 +1643,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>460.95</v>
+        <v>426.55</v>
       </c>
       <c r="F20" t="n">
-        <v>2785.28</v>
+        <v>1288.77</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1652,19 +1657,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.77</v>
+        <v>1.32</v>
       </c>
       <c r="I20" t="n">
-        <v>16.81</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="72">
       <c r="A21" s="70" t="n">
-        <v>45988</v>
+        <v>45996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1673,13 +1678,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>466.05</v>
+        <v>434.45</v>
       </c>
       <c r="F21" t="n">
-        <v>938.7</v>
+        <v>7875.57</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1687,19 +1692,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.93</v>
+        <v>7.79</v>
       </c>
       <c r="I21" t="n">
-        <v>5.67</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="72">
       <c r="A22" s="70" t="n">
-        <v>45988</v>
+        <v>45996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1708,13 +1713,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>466</v>
+        <v>434.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3754.42</v>
+        <v>874.95</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1722,15 +1727,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.72</v>
+        <v>0.87</v>
       </c>
       <c r="I22" t="n">
-        <v>22.7</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="72">
       <c r="A23" s="70" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1743,13 +1748,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>463.6</v>
+        <v>457.5</v>
       </c>
       <c r="F23" t="n">
-        <v>9337.82</v>
+        <v>4607.51</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1757,15 +1762,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9.26</v>
+        <v>4.61</v>
       </c>
       <c r="I23" t="n">
-        <v>56.56</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="72">
       <c r="A24" s="70" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1778,13 +1783,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F24" t="n">
-        <v>9486.889999999999</v>
+        <v>1857.11</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1792,19 +1797,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9.359999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="I24" t="n">
-        <v>57.53</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="72">
       <c r="A25" s="70" t="n">
-        <v>45979</v>
+        <v>45989</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1813,13 +1818,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>494.2</v>
+        <v>460.95</v>
       </c>
       <c r="F25" t="n">
-        <v>3981.64</v>
+        <v>2785.28</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1827,15 +1832,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.96</v>
+        <v>2.77</v>
       </c>
       <c r="I25" t="n">
-        <v>24.08</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="72">
       <c r="A26" s="70" t="n">
-        <v>45978</v>
+        <v>45988</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1848,13 +1853,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>493.85</v>
+        <v>466.05</v>
       </c>
       <c r="F26" t="n">
-        <v>4476.17</v>
+        <v>938.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1862,15 +1867,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.47</v>
+        <v>0.93</v>
       </c>
       <c r="I26" t="n">
-        <v>27.05</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="72">
       <c r="A27" s="70" t="n">
-        <v>45978</v>
+        <v>45988</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1883,13 +1888,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>493.95</v>
+        <v>466</v>
       </c>
       <c r="F27" t="n">
-        <v>2984.69</v>
+        <v>3754.42</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1897,15 +1902,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.97</v>
+        <v>3.72</v>
       </c>
       <c r="I27" t="n">
-        <v>18.02</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="72">
       <c r="A28" s="70" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1918,13 +1923,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>495.25</v>
+        <v>463.6</v>
       </c>
       <c r="F28" t="n">
-        <v>4987.69</v>
+        <v>9337.82</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1932,15 +1937,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.96</v>
+        <v>9.26</v>
       </c>
       <c r="I28" t="n">
-        <v>30.23</v>
+        <v>56.56</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="72">
       <c r="A29" s="70" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1953,13 +1958,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>506.2</v>
+        <v>471</v>
       </c>
       <c r="F29" t="n">
-        <v>5097.88</v>
+        <v>9486.889999999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1967,15 +1972,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.04</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>30.84</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="72">
       <c r="A30" s="70" t="n">
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1988,13 +1993,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>500</v>
+        <v>494.2</v>
       </c>
       <c r="F30" t="n">
-        <v>3021.28</v>
+        <v>3981.64</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,19 +2007,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2.98</v>
+        <v>3.96</v>
       </c>
       <c r="I30" t="n">
-        <v>18.3</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="72">
       <c r="A31" s="70" t="n">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2023,13 +2028,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>500.05</v>
+        <v>493.85</v>
       </c>
       <c r="F31" t="n">
-        <v>2014.4</v>
+        <v>4476.17</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2037,15 +2042,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.99</v>
+        <v>4.47</v>
       </c>
       <c r="I31" t="n">
-        <v>12.21</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="72">
       <c r="A32" s="70" t="n">
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2058,13 +2063,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>504.4</v>
+        <v>493.95</v>
       </c>
       <c r="F32" t="n">
-        <v>5079.67</v>
+        <v>2984.69</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2072,15 +2077,15 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5.01</v>
+        <v>2.97</v>
       </c>
       <c r="I32" t="n">
-        <v>30.66</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="72">
       <c r="A33" s="70" t="n">
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2096,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>503.05</v>
+        <v>495.25</v>
       </c>
       <c r="F33" t="n">
-        <v>5066.27</v>
+        <v>4987.69</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2107,19 +2112,19 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5.02</v>
+        <v>4.96</v>
       </c>
       <c r="I33" t="n">
-        <v>30.75</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="72">
       <c r="A34" s="70" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2128,13 +2133,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>508.4</v>
+        <v>506.2</v>
       </c>
       <c r="F34" t="n">
-        <v>4608.11</v>
+        <v>5097.88</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2142,15 +2147,15 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4.61</v>
+        <v>5.04</v>
       </c>
       <c r="I34" t="n">
-        <v>27.9</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="72">
       <c r="A35" s="70" t="n">
-        <v>45967</v>
+        <v>45972</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2163,13 +2168,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>508.45</v>
+        <v>500</v>
       </c>
       <c r="F35" t="n">
-        <v>1536.21</v>
+        <v>3021.28</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2177,15 +2182,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.54</v>
+        <v>2.98</v>
       </c>
       <c r="I35" t="n">
-        <v>9.32</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="72">
       <c r="A36" s="70" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2198,13 +2203,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>549.9</v>
+        <v>500.05</v>
       </c>
       <c r="F36" t="n">
-        <v>2769</v>
+        <v>2014.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2212,15 +2217,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.74</v>
+        <v>1.99</v>
       </c>
       <c r="I36" t="n">
-        <v>16.76</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="72">
       <c r="A37" s="70" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2236,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>528.3</v>
+        <v>504.4</v>
       </c>
       <c r="F37" t="n">
-        <v>5320.41</v>
+        <v>5079.67</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2247,19 +2252,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.27</v>
+        <v>5.01</v>
       </c>
       <c r="I37" t="n">
-        <v>32.14</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="72">
       <c r="A38" s="70" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2268,13 +2273,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>526.85</v>
+        <v>503.05</v>
       </c>
       <c r="F38" t="n">
-        <v>4775.2</v>
+        <v>5066.27</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2282,19 +2287,19 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4.75</v>
+        <v>5.02</v>
       </c>
       <c r="I38" t="n">
-        <v>28.8</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="72">
       <c r="A39" s="70" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2303,13 +2308,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
-        <v>526.9</v>
+        <v>508.4</v>
       </c>
       <c r="F39" t="n">
-        <v>530.64</v>
+        <v>4608.11</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2317,19 +2322,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.53</v>
+        <v>4.61</v>
       </c>
       <c r="I39" t="n">
-        <v>3.21</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="72">
       <c r="A40" s="70" t="n">
-        <v>45954</v>
+        <v>45967</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2338,13 +2343,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>523.05</v>
+        <v>508.45</v>
       </c>
       <c r="F40" t="n">
-        <v>526.77</v>
+        <v>1536.21</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2352,19 +2357,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.52</v>
+        <v>1.54</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="72">
       <c r="A41" s="70" t="n">
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2373,13 +2378,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>523</v>
+        <v>549.9</v>
       </c>
       <c r="F41" t="n">
-        <v>4740.39</v>
+        <v>2769</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2387,15 +2392,15 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4.71</v>
+        <v>2.74</v>
       </c>
       <c r="I41" t="n">
-        <v>28.68</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="72">
       <c r="A42" s="70" t="n">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2411,10 +2416,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>518.55</v>
+        <v>528.3</v>
       </c>
       <c r="F42" t="n">
-        <v>5222.22</v>
+        <v>5320.41</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2422,19 +2427,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5.18</v>
+        <v>5.27</v>
       </c>
       <c r="I42" t="n">
-        <v>31.54</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="72">
       <c r="A43" s="70" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2443,13 +2448,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>516.7</v>
+        <v>526.85</v>
       </c>
       <c r="F43" t="n">
-        <v>520.36</v>
+        <v>4775.2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2457,19 +2462,19 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.52</v>
+        <v>4.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.14</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="72">
       <c r="A44" s="70" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2481,10 +2486,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>516.9</v>
+        <v>526.9</v>
       </c>
       <c r="F44" t="n">
-        <v>520.5599999999999</v>
+        <v>530.64</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2492,19 +2497,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="72">
       <c r="A45" s="70" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2513,13 +2518,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>516.75</v>
+        <v>523.05</v>
       </c>
       <c r="F45" t="n">
-        <v>4163.3</v>
+        <v>526.77</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2527,19 +2532,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.15</v>
+        <v>0.52</v>
       </c>
       <c r="I45" t="n">
-        <v>25.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="72">
       <c r="A46" s="70" t="n">
-        <v>45933</v>
+        <v>45954</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2548,13 +2553,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>549.45</v>
+        <v>523</v>
       </c>
       <c r="F46" t="n">
-        <v>553.36</v>
+        <v>4740.39</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2562,19 +2567,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.57</v>
+        <v>4.71</v>
       </c>
       <c r="I46" t="n">
-        <v>3.34</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="72">
       <c r="A47" s="70" t="n">
-        <v>45933</v>
+        <v>45950</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2583,13 +2588,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>549.6</v>
+        <v>518.55</v>
       </c>
       <c r="F47" t="n">
-        <v>4981.63</v>
+        <v>5222.22</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2597,19 +2602,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5.11</v>
+        <v>5.18</v>
       </c>
       <c r="I47" t="n">
-        <v>30.12</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="72">
       <c r="A48" s="70" t="n">
-        <v>45924</v>
+        <v>45947</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2618,13 +2623,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>581.65</v>
+        <v>516.7</v>
       </c>
       <c r="F48" t="n">
-        <v>5857.74</v>
+        <v>520.36</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2632,555 +2637,225 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5.79</v>
+        <v>0.52</v>
       </c>
       <c r="I48" t="n">
-        <v>35.45</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="72">
       <c r="A49" s="70" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>516.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>520.5599999999999</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="72">
+      <c r="A50" s="70" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4163.3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" s="72">
+      <c r="A51" s="70" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>549.45</v>
+      </c>
+      <c r="F51" t="n">
+        <v>553.36</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" s="72">
+      <c r="A52" s="70" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>549.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4981.63</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="53" ht="13" customHeight="1" s="72">
+      <c r="A53" s="70" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>581.65</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5857.74</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35.45</v>
+      </c>
+    </row>
+    <row r="54" ht="13" customHeight="1" s="72">
+      <c r="A54" s="70" t="n">
         <v>45903</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D54" t="n">
         <v>10</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E54" t="n">
         <v>578.5</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F54" t="n">
         <v>5826.04</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H54" t="n">
         <v>5.8</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I54" t="n">
         <v>35.24</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" s="72">
-      <c r="A50" s="25" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B50" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C50" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D50" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" s="28" t="n">
-        <v>643.6799999999999</v>
-      </c>
-      <c r="F50" s="28" t="n">
-        <v>3218.42</v>
-      </c>
-      <c r="G50" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H50" s="27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I50" s="27" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J50" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K50" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="31">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="30">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
-        <v/>
-      </c>
-      <c r="R50" s="29">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="S50" s="32">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="T50" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
-        <v/>
-      </c>
-      <c r="U50" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
-        <v/>
-      </c>
-      <c r="V50" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="33" t="n"/>
-      <c r="X50" s="33" t="n"/>
-      <c r="Y50" s="32">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="33" t="n"/>
-      <c r="AA50" s="33" t="n"/>
-      <c r="AB50" s="34" t="n"/>
-      <c r="AC50" s="29">
-        <f>IF(B16="DIV", F16,"")</f>
-        <v/>
-      </c>
-      <c r="AD50" s="35" t="n"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" s="72">
-      <c r="A51" s="25" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B51" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C51" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D51" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="28" t="n">
-        <v>643.63</v>
-      </c>
-      <c r="F51" s="28" t="n">
-        <v>3218.17</v>
-      </c>
-      <c r="G51" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H51" s="27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I51" s="27" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="J51" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K51" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L51" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M51" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N51" s="31">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O51" s="30">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P51" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R51" s="29">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S51" s="32">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T51" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U51" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V51" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W51" s="33" t="n"/>
-      <c r="X51" s="33" t="n"/>
-      <c r="Y51" s="32">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z51" s="33" t="n"/>
-      <c r="AA51" s="33" t="n"/>
-      <c r="AB51" s="34" t="n"/>
-      <c r="AC51" s="29">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD51" s="35" t="n"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" s="72">
-      <c r="A52" s="25" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B52" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C52" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D52" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="28" t="n">
-        <v>616.63</v>
-      </c>
-      <c r="F52" s="28" t="n">
-        <v>1233.26</v>
-      </c>
-      <c r="G52" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H52" s="27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I52" s="27" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J52" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K52" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="L52" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M52" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N52" s="31">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O52" s="30">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="P52" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R52" s="29">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S52" s="32">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="T52" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="U52" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V52" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W52" s="33" t="n"/>
-      <c r="X52" s="33" t="n"/>
-      <c r="Y52" s="32">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z52" s="33" t="n"/>
-      <c r="AA52" s="33" t="n"/>
-      <c r="AB52" s="34" t="n"/>
-      <c r="AC52" s="29">
-        <f>IF(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD52" s="35" t="n"/>
-    </row>
-    <row r="53" ht="13" customHeight="1" s="72">
-      <c r="A53" s="25" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B53" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C53" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D53" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="28" t="n">
-        <v>616.54</v>
-      </c>
-      <c r="F53" s="28" t="n">
-        <v>616.54</v>
-      </c>
-      <c r="G53" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H53" s="27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I53" s="27" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J53" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K53" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="L53" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M53" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N53" s="31">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O53" s="30">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="P53" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q53" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R53" s="29">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S53" s="32">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="T53" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="U53" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V53" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W53" s="33" t="n"/>
-      <c r="X53" s="33" t="n"/>
-      <c r="Y53" s="32">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="33" t="n"/>
-      <c r="AA53" s="33" t="n"/>
-      <c r="AB53" s="34" t="n"/>
-      <c r="AC53" s="29">
-        <f>IF(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD53" s="35" t="n"/>
-    </row>
-    <row r="54" ht="13" customHeight="1" s="72">
-      <c r="A54" s="25" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B54" s="26" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C54" s="26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D54" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="28" t="n">
-        <v>616.53</v>
-      </c>
-      <c r="F54" s="28" t="n">
-        <v>1233.06</v>
-      </c>
-      <c r="G54" s="26" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H54" s="27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I54" s="27" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J54" s="29">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K54" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="L54" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
-        <v/>
-      </c>
-      <c r="M54" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
-        <v/>
-      </c>
-      <c r="N54" s="31">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O54" s="30">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="P54" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
-        <v/>
-      </c>
-      <c r="Q54" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
-        <v/>
-      </c>
-      <c r="R54" s="29">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="S54" s="32">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="T54" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
-        <v/>
-      </c>
-      <c r="U54" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
-        <v/>
-      </c>
-      <c r="V54" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W54" s="33" t="n"/>
-      <c r="X54" s="33" t="n"/>
-      <c r="Y54" s="32">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="33" t="n"/>
-      <c r="AA54" s="33" t="n"/>
-      <c r="AB54" s="34" t="n"/>
-      <c r="AC54" s="29">
-        <f>IF(B20="DIV", F20,"")</f>
-        <v/>
-      </c>
-      <c r="AD54" s="35" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1" s="72">
       <c r="A55" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B55" s="26" t="inlineStr">
         <is>
@@ -3193,13 +2868,13 @@
         </is>
       </c>
       <c r="D55" s="27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" s="28" t="n">
-        <v>616.54</v>
+        <v>643.6799999999999</v>
       </c>
       <c r="F55" s="28" t="n">
-        <v>616.54</v>
+        <v>3218.42</v>
       </c>
       <c r="G55" s="26" t="inlineStr">
         <is>
@@ -3207,81 +2882,81 @@
         </is>
       </c>
       <c r="H55" s="27" t="n">
-        <v>0.61</v>
+        <v>3.2</v>
       </c>
       <c r="I55" s="27" t="n">
-        <v>3.73</v>
+        <v>19.47</v>
       </c>
       <c r="J55" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L55" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M55" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N55" s="31">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O55" s="30">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P55" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R55" s="29">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S55" s="32">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T55" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U55" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V55" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W55" s="33" t="n"/>
       <c r="X55" s="33" t="n"/>
       <c r="Y55" s="32">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/SUM(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z55" s="33" t="n"/>
       <c r="AA55" s="33" t="n"/>
       <c r="AB55" s="34" t="n"/>
       <c r="AC55" s="29">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD55" s="35" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1" s="72">
       <c r="A56" s="25" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B56" s="26" t="inlineStr">
         <is>
@@ -3294,13 +2969,13 @@
         </is>
       </c>
       <c r="D56" s="27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" s="28" t="n">
-        <v>616.54</v>
+        <v>643.63</v>
       </c>
       <c r="F56" s="28" t="n">
-        <v>2466.17</v>
+        <v>3218.17</v>
       </c>
       <c r="G56" s="26" t="inlineStr">
         <is>
@@ -3308,81 +2983,81 @@
         </is>
       </c>
       <c r="H56" s="27" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="I56" s="27" t="n">
-        <v>14.92</v>
+        <v>19.47</v>
       </c>
       <c r="J56" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L56" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M56" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N56" s="31">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O56" s="30">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P56" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R56" s="29">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S56" s="32">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T56" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U56" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V56" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W56" s="33" t="n"/>
       <c r="X56" s="33" t="n"/>
       <c r="Y56" s="32">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z56" s="33" t="n"/>
       <c r="AA56" s="33" t="n"/>
       <c r="AB56" s="34" t="n"/>
       <c r="AC56" s="29">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD56" s="35" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1" s="72">
       <c r="A57" s="25" t="n">
-        <v>45784</v>
+        <v>45811</v>
       </c>
       <c r="B57" s="26" t="inlineStr">
         <is>
@@ -3395,13 +3070,13 @@
         </is>
       </c>
       <c r="D57" s="27" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E57" s="28" t="n">
-        <v>502.46</v>
+        <v>616.63</v>
       </c>
       <c r="F57" s="28" t="n">
-        <v>10049.14</v>
+        <v>1233.26</v>
       </c>
       <c r="G57" s="26" t="inlineStr">
         <is>
@@ -3409,585 +3084,586 @@
         </is>
       </c>
       <c r="H57" s="27" t="n">
-        <v>10</v>
+        <v>1.22</v>
       </c>
       <c r="I57" s="27" t="n">
-        <v>61.14</v>
+        <v>7.44</v>
       </c>
       <c r="J57" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L57" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M57" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N57" s="31">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O57" s="30">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P57" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R57" s="29">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S57" s="32">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T57" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U57" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V57" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W57" s="33" t="n"/>
       <c r="X57" s="33" t="n"/>
       <c r="Y57" s="32">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z57" s="33" t="n"/>
       <c r="AA57" s="33" t="n"/>
       <c r="AB57" s="34" t="n"/>
       <c r="AC57" s="29">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD57" s="35" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1" s="72">
-      <c r="A58" s="36" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B58" s="37" t="inlineStr">
+      <c r="A58" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B58" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C58" s="37" t="inlineStr">
+      <c r="C58" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D58" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E58" s="39" t="n">
-        <v>502.55</v>
-      </c>
-      <c r="F58" s="39">
-        <f>D24*E24</f>
-        <v/>
-      </c>
-      <c r="G58" s="37" t="inlineStr">
+      <c r="D58" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="F58" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="G58" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H58" s="38" t="n"/>
-      <c r="I58" s="38" t="n">
-        <v>17.75</v>
+      <c r="H58" s="27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I58" s="27" t="n">
+        <v>3.73</v>
       </c>
       <c r="J58" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L58" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M58" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N58" s="31">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O58" s="30">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P58" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R58" s="29">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S58" s="32">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T58" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U58" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V58" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W58" s="33" t="n"/>
       <c r="X58" s="33" t="n"/>
       <c r="Y58" s="32">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z58" s="33" t="n"/>
       <c r="AA58" s="33" t="n"/>
       <c r="AB58" s="34" t="n"/>
       <c r="AC58" s="29">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD58" s="35" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1" s="72">
-      <c r="A59" s="36" t="n">
-        <v>45722</v>
-      </c>
-      <c r="B59" s="37" t="inlineStr">
+      <c r="A59" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B59" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C59" s="37" t="inlineStr">
+      <c r="C59" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D59" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E59" s="39" t="n">
-        <v>536.5700000000001</v>
-      </c>
-      <c r="F59" s="39" t="n">
-        <v>2682.86</v>
-      </c>
-      <c r="G59" s="37" t="inlineStr">
+      <c r="D59" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="28" t="n">
+        <v>616.53</v>
+      </c>
+      <c r="F59" s="28" t="n">
+        <v>1233.06</v>
+      </c>
+      <c r="G59" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H59" s="38" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="I59" s="38" t="n">
-        <v>16.19</v>
+      <c r="H59" s="27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I59" s="27" t="n">
+        <v>7.44</v>
       </c>
       <c r="J59" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L59" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M59" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N59" s="31">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O59" s="30">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P59" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R59" s="29">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S59" s="32">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T59" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U59" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V59" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W59" s="33" t="n"/>
       <c r="X59" s="33" t="n"/>
       <c r="Y59" s="32">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z59" s="33" t="n"/>
       <c r="AA59" s="33" t="n"/>
       <c r="AB59" s="34" t="n"/>
       <c r="AC59" s="29">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD59" s="35" t="n"/>
     </row>
     <row r="60" ht="13" customHeight="1" s="72">
-      <c r="A60" s="36" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B60" s="37" t="inlineStr">
+      <c r="A60" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B60" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C60" s="37" t="inlineStr">
+      <c r="C60" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D60" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="39" t="n">
-        <v>532.86</v>
-      </c>
-      <c r="F60" s="39" t="n">
-        <v>1598.57</v>
-      </c>
-      <c r="G60" s="37" t="inlineStr">
+      <c r="D60" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="F60" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="G60" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H60" s="38" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I60" s="38" t="n">
-        <v>9.68</v>
+      <c r="H60" s="27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I60" s="27" t="n">
+        <v>3.73</v>
       </c>
       <c r="J60" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K60" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L60" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M60" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N60" s="31">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O60" s="30">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P60" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R60" s="29">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S60" s="32">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T60" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U60" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V60" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W60" s="33" t="n"/>
       <c r="X60" s="33" t="n"/>
       <c r="Y60" s="32">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z60" s="33" t="n"/>
       <c r="AA60" s="33" t="n"/>
       <c r="AB60" s="34" t="n"/>
       <c r="AC60" s="29">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD60" s="35" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1" s="72">
-      <c r="A61" s="36" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B61" s="37" t="inlineStr">
+      <c r="A61" s="25" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B61" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C61" s="37" t="inlineStr">
+      <c r="C61" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D61" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="39" t="n">
-        <v>532.96</v>
-      </c>
-      <c r="F61" s="39" t="n">
-        <v>1065.91</v>
-      </c>
-      <c r="G61" s="37" t="inlineStr">
+      <c r="D61" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="28" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="F61" s="28" t="n">
+        <v>2466.17</v>
+      </c>
+      <c r="G61" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H61" s="38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I61" s="38" t="n">
-        <v>6.45</v>
+      <c r="H61" s="27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I61" s="27" t="n">
+        <v>14.92</v>
       </c>
       <c r="J61" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K61" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L61" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M61" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N61" s="31">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O61" s="30">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P61" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R61" s="29">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S61" s="32">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T61" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U61" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V61" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W61" s="33" t="n"/>
       <c r="X61" s="33" t="n"/>
       <c r="Y61" s="32">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z61" s="33" t="n"/>
       <c r="AA61" s="33" t="n"/>
       <c r="AB61" s="34" t="n"/>
       <c r="AC61" s="29">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD61" s="35" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1" s="72">
-      <c r="A62" s="36" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B62" s="37" t="inlineStr">
+      <c r="A62" s="25" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B62" s="26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C62" s="37" t="inlineStr">
+      <c r="C62" s="26" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D62" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E62" s="39" t="n">
-        <v>554.8</v>
-      </c>
-      <c r="F62" s="39" t="n">
-        <v>4438.38</v>
-      </c>
-      <c r="G62" s="37" t="inlineStr">
+      <c r="D62" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" s="28" t="n">
+        <v>502.46</v>
+      </c>
+      <c r="F62" s="28" t="n">
+        <v>10049.14</v>
+      </c>
+      <c r="G62" s="26" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H62" s="38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I62" s="38" t="n">
-        <v>26.78</v>
+      <c r="H62" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" s="27" t="n">
+        <v>61.14</v>
       </c>
       <c r="J62" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L62" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M62" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N62" s="31">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O62" s="30">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P62" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R62" s="29">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S62" s="32">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T62" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U62" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V62" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W62" s="33" t="n"/>
       <c r="X62" s="33" t="n"/>
       <c r="Y62" s="32">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z62" s="33" t="n"/>
       <c r="AA62" s="33" t="n"/>
       <c r="AB62" s="34" t="n"/>
       <c r="AC62" s="29">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD62" s="35" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="72">
       <c r="A63" s="36" t="n">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B63" s="37" t="inlineStr">
         <is>
@@ -4000,95 +3676,94 @@
         </is>
       </c>
       <c r="D63" s="38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" s="39" t="n">
-        <v>554.91</v>
-      </c>
-      <c r="F63" s="39" t="n">
-        <v>1109.82</v>
+        <v>502.55</v>
+      </c>
+      <c r="F63" s="39">
+        <f>D24*E24</f>
+        <v/>
       </c>
       <c r="G63" s="37" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H63" s="38" t="n">
-        <v>1.1</v>
-      </c>
+      <c r="H63" s="38" t="n"/>
       <c r="I63" s="38" t="n">
-        <v>6.72</v>
+        <v>17.75</v>
       </c>
       <c r="J63" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L63" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M63" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N63" s="31">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O63" s="30">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P63" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R63" s="29">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S63" s="32">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T63" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U63" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V63" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W63" s="33" t="n"/>
       <c r="X63" s="33" t="n"/>
       <c r="Y63" s="32">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z63" s="33" t="n"/>
       <c r="AA63" s="33" t="n"/>
       <c r="AB63" s="34" t="n"/>
       <c r="AC63" s="29">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD63" s="35" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="72">
       <c r="A64" s="36" t="n">
-        <v>45705</v>
+        <v>45722</v>
       </c>
       <c r="B64" s="37" t="inlineStr">
         <is>
@@ -4101,13 +3776,13 @@
         </is>
       </c>
       <c r="D64" s="38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>536.5700000000001</v>
       </c>
       <c r="F64" s="39" t="n">
-        <v>1679.81</v>
+        <v>2682.86</v>
       </c>
       <c r="G64" s="37" t="inlineStr">
         <is>
@@ -4115,81 +3790,81 @@
         </is>
       </c>
       <c r="H64" s="38" t="n">
-        <v>1.67</v>
+        <v>2.67</v>
       </c>
       <c r="I64" s="38" t="n">
-        <v>10.14</v>
+        <v>16.19</v>
       </c>
       <c r="J64" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L64" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M64" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N64" s="31">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O64" s="30">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P64" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R64" s="29">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S64" s="32">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T64" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U64" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V64" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W64" s="33" t="n"/>
       <c r="X64" s="33" t="n"/>
       <c r="Y64" s="32">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z64" s="33" t="n"/>
       <c r="AA64" s="33" t="n"/>
       <c r="AB64" s="34" t="n"/>
       <c r="AC64" s="29">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD64" s="35" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="72">
       <c r="A65" s="36" t="n">
-        <v>45705</v>
+        <v>45716</v>
       </c>
       <c r="B65" s="37" t="inlineStr">
         <is>
@@ -4202,13 +3877,13 @@
         </is>
       </c>
       <c r="D65" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>532.86</v>
       </c>
       <c r="F65" s="39" t="n">
-        <v>2239.76</v>
+        <v>1598.57</v>
       </c>
       <c r="G65" s="37" t="inlineStr">
         <is>
@@ -4216,81 +3891,81 @@
         </is>
       </c>
       <c r="H65" s="38" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="I65" s="38" t="n">
-        <v>13.54</v>
+        <v>9.68</v>
       </c>
       <c r="J65" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L65" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M65" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N65" s="31">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O65" s="30">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P65" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R65" s="29">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S65" s="32">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T65" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U65" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V65" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W65" s="33" t="n"/>
       <c r="X65" s="33" t="n"/>
       <c r="Y65" s="32">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z65" s="33" t="n"/>
       <c r="AA65" s="33" t="n"/>
       <c r="AB65" s="34" t="n"/>
       <c r="AC65" s="29">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD65" s="35" t="n"/>
     </row>
     <row r="66" ht="13" customHeight="1" s="72">
       <c r="A66" s="36" t="n">
-        <v>45705</v>
+        <v>45716</v>
       </c>
       <c r="B66" s="37" t="inlineStr">
         <is>
@@ -4303,13 +3978,13 @@
         </is>
       </c>
       <c r="D66" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="39" t="n">
-        <v>559.9400000000001</v>
+        <v>532.96</v>
       </c>
       <c r="F66" s="39" t="n">
-        <v>1679.81</v>
+        <v>1065.91</v>
       </c>
       <c r="G66" s="37" t="inlineStr">
         <is>
@@ -4317,81 +3992,81 @@
         </is>
       </c>
       <c r="H66" s="38" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="I66" s="38" t="n">
-        <v>10.14</v>
+        <v>6.45</v>
       </c>
       <c r="J66" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L66" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M66" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N66" s="31">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O66" s="30">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P66" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R66" s="29">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S66" s="32">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T66" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U66" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V66" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W66" s="33" t="n"/>
       <c r="X66" s="33" t="n"/>
       <c r="Y66" s="32">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z66" s="33" t="n"/>
       <c r="AA66" s="33" t="n"/>
       <c r="AB66" s="34" t="n"/>
       <c r="AC66" s="29">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD66" s="35" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="72">
       <c r="A67" s="36" t="n">
-        <v>45694</v>
+        <v>45712</v>
       </c>
       <c r="B67" s="37" t="inlineStr">
         <is>
@@ -4404,13 +4079,13 @@
         </is>
       </c>
       <c r="D67" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E67" s="39" t="n">
-        <v>631.89</v>
+        <v>554.8</v>
       </c>
       <c r="F67" s="39" t="n">
-        <v>631.89</v>
+        <v>4438.38</v>
       </c>
       <c r="G67" s="37" t="inlineStr">
         <is>
@@ -4418,81 +4093,81 @@
         </is>
       </c>
       <c r="H67" s="38" t="n">
-        <v>0.63</v>
+        <v>4.4</v>
       </c>
       <c r="I67" s="38" t="n">
-        <v>3.81</v>
+        <v>26.78</v>
       </c>
       <c r="J67" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L67" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M67" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N67" s="31">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O67" s="30">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P67" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R67" s="29">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S67" s="32">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T67" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U67" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V67" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W67" s="33" t="n"/>
       <c r="X67" s="33" t="n"/>
       <c r="Y67" s="32">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z67" s="33" t="n"/>
       <c r="AA67" s="33" t="n"/>
       <c r="AB67" s="34" t="n"/>
       <c r="AC67" s="29">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD67" s="35" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1" s="72">
       <c r="A68" s="36" t="n">
-        <v>45694</v>
+        <v>45712</v>
       </c>
       <c r="B68" s="37" t="inlineStr">
         <is>
@@ -4505,13 +4180,13 @@
         </is>
       </c>
       <c r="D68" s="38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E68" s="39" t="n">
-        <v>631.34</v>
+        <v>554.91</v>
       </c>
       <c r="F68" s="39" t="n">
-        <v>3156.69</v>
+        <v>1109.82</v>
       </c>
       <c r="G68" s="37" t="inlineStr">
         <is>
@@ -4519,81 +4194,81 @@
         </is>
       </c>
       <c r="H68" s="38" t="n">
-        <v>3.13</v>
+        <v>1.1</v>
       </c>
       <c r="I68" s="38" t="n">
-        <v>19.06</v>
+        <v>6.72</v>
       </c>
       <c r="J68" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L68" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M68" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N68" s="31">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O68" s="30">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P68" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R68" s="29">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S68" s="32">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T68" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U68" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V68" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W68" s="33" t="n"/>
       <c r="X68" s="33" t="n"/>
       <c r="Y68" s="32">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z68" s="33" t="n"/>
       <c r="AA68" s="33" t="n"/>
       <c r="AB68" s="34" t="n"/>
       <c r="AC68" s="29">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD68" s="35" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1" s="72">
       <c r="A69" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B69" s="37" t="inlineStr">
         <is>
@@ -4606,13 +4281,13 @@
         </is>
       </c>
       <c r="D69" s="38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" s="39" t="n">
-        <v>631.85</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F69" s="39" t="n">
-        <v>4422.94</v>
+        <v>1679.81</v>
       </c>
       <c r="G69" s="37" t="inlineStr">
         <is>
@@ -4620,81 +4295,81 @@
         </is>
       </c>
       <c r="H69" s="38" t="n">
-        <v>4.38</v>
+        <v>1.67</v>
       </c>
       <c r="I69" s="38" t="n">
-        <v>26.76</v>
+        <v>10.14</v>
       </c>
       <c r="J69" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L69" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M69" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N69" s="31">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O69" s="30">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P69" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R69" s="29">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S69" s="32">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T69" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U69" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V69" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W69" s="33" t="n"/>
       <c r="X69" s="33" t="n"/>
       <c r="Y69" s="32">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z69" s="33" t="n"/>
       <c r="AA69" s="33" t="n"/>
       <c r="AB69" s="34" t="n"/>
       <c r="AC69" s="29">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD69" s="35" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1" s="72">
       <c r="A70" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B70" s="37" t="inlineStr">
         <is>
@@ -4707,13 +4382,13 @@
         </is>
       </c>
       <c r="D70" s="38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70" s="39" t="n">
-        <v>631.89</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F70" s="39" t="n">
-        <v>631.89</v>
+        <v>2239.76</v>
       </c>
       <c r="G70" s="37" t="inlineStr">
         <is>
@@ -4721,81 +4396,81 @@
         </is>
       </c>
       <c r="H70" s="38" t="n">
-        <v>0.63</v>
+        <v>2.22</v>
       </c>
       <c r="I70" s="38" t="n">
-        <v>3.81</v>
+        <v>13.54</v>
       </c>
       <c r="J70" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L70" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M70" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N70" s="31">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O70" s="30">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P70" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R70" s="29">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S70" s="32">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T70" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U70" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V70" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W70" s="33" t="n"/>
       <c r="X70" s="33" t="n"/>
       <c r="Y70" s="32">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z70" s="33" t="n"/>
       <c r="AA70" s="33" t="n"/>
       <c r="AB70" s="34" t="n"/>
       <c r="AC70" s="29">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD70" s="35" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1" s="72">
       <c r="A71" s="36" t="n">
-        <v>45694</v>
+        <v>45705</v>
       </c>
       <c r="B71" s="37" t="inlineStr">
         <is>
@@ -4808,13 +4483,13 @@
         </is>
       </c>
       <c r="D71" s="38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" s="39" t="n">
-        <v>631.79</v>
+        <v>559.9400000000001</v>
       </c>
       <c r="F71" s="39" t="n">
-        <v>631.79</v>
+        <v>1679.81</v>
       </c>
       <c r="G71" s="37" t="inlineStr">
         <is>
@@ -4822,81 +4497,81 @@
         </is>
       </c>
       <c r="H71" s="38" t="n">
-        <v>0.63</v>
+        <v>1.67</v>
       </c>
       <c r="I71" s="38" t="n">
-        <v>3.81</v>
+        <v>10.14</v>
       </c>
       <c r="J71" s="29">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L71" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M71" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N71" s="31">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O71" s="30">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P71" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R71" s="29">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S71" s="32">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T71" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U71" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V71" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W71" s="33" t="n"/>
       <c r="X71" s="33" t="n"/>
       <c r="Y71" s="32">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z71" s="33" t="n"/>
       <c r="AA71" s="33" t="n"/>
       <c r="AB71" s="34" t="n"/>
       <c r="AC71" s="29">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD71" s="35" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1" s="72">
       <c r="A72" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B72" s="37" t="inlineStr">
         <is>
@@ -4905,17 +4580,17 @@
       </c>
       <c r="C72" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D72" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E72" s="39" t="n">
-        <v>477.57</v>
+        <v>631.89</v>
       </c>
       <c r="F72" s="39" t="n">
-        <v>3342.98</v>
+        <v>631.89</v>
       </c>
       <c r="G72" s="37" t="inlineStr">
         <is>
@@ -4923,75 +4598,81 @@
         </is>
       </c>
       <c r="H72" s="38" t="n">
-        <v>3.37</v>
+        <v>0.63</v>
       </c>
       <c r="I72" s="38" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="J72" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J72" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K72" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L72" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M72" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N72" s="31">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O72" s="30">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P72" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R72" s="29">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S72" s="32">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T72" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U72" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V72" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W72" s="33" t="n"/>
       <c r="X72" s="33" t="n"/>
       <c r="Y72" s="32">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z72" s="33" t="n"/>
       <c r="AA72" s="33" t="n"/>
       <c r="AB72" s="34" t="n"/>
-      <c r="AC72" s="29" t="n"/>
+      <c r="AC72" s="29">
+        <f>IF(B33="DIV", F33,"")</f>
+        <v/>
+      </c>
       <c r="AD72" s="35" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1" s="72">
       <c r="A73" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B73" s="37" t="inlineStr">
         <is>
@@ -5000,17 +4681,17 @@
       </c>
       <c r="C73" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D73" s="38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73" s="39" t="n">
-        <v>477.62</v>
+        <v>631.34</v>
       </c>
       <c r="F73" s="39" t="n">
-        <v>1910.48</v>
+        <v>3156.69</v>
       </c>
       <c r="G73" s="37" t="inlineStr">
         <is>
@@ -5018,75 +4699,81 @@
         </is>
       </c>
       <c r="H73" s="38" t="n">
-        <v>1.92</v>
+        <v>3.13</v>
       </c>
       <c r="I73" s="38" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J73" s="40" t="n"/>
+        <v>19.06</v>
+      </c>
+      <c r="J73" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K73" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L73" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M73" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N73" s="31">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O73" s="30">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P73" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R73" s="29">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S73" s="32">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T73" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U73" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V73" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W73" s="33" t="n"/>
       <c r="X73" s="33" t="n"/>
       <c r="Y73" s="32">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z73" s="33" t="n"/>
       <c r="AA73" s="33" t="n"/>
       <c r="AB73" s="34" t="n"/>
-      <c r="AC73" s="29" t="n"/>
+      <c r="AC73" s="29">
+        <f>IF(B34="DIV", F34,"")</f>
+        <v/>
+      </c>
       <c r="AD73" s="35" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1" s="72">
       <c r="A74" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B74" s="37" t="inlineStr">
         <is>
@@ -5095,17 +4782,17 @@
       </c>
       <c r="C74" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D74" s="38" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E74" s="39" t="n">
-        <v>477.62</v>
+        <v>631.85</v>
       </c>
       <c r="F74" s="39" t="n">
-        <v>7641.86</v>
+        <v>4422.94</v>
       </c>
       <c r="G74" s="37" t="inlineStr">
         <is>
@@ -5113,75 +4800,81 @@
         </is>
       </c>
       <c r="H74" s="38" t="n">
-        <v>7.7</v>
+        <v>4.38</v>
       </c>
       <c r="I74" s="38" t="n">
-        <v>45.64</v>
-      </c>
-      <c r="J74" s="40" t="n"/>
+        <v>26.76</v>
+      </c>
+      <c r="J74" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K74" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L74" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M74" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N74" s="31">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O74" s="30">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P74" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R74" s="29">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S74" s="32">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T74" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U74" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V74" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W74" s="33" t="n"/>
       <c r="X74" s="33" t="n"/>
       <c r="Y74" s="32">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z74" s="33" t="n"/>
       <c r="AA74" s="33" t="n"/>
       <c r="AB74" s="34" t="n"/>
-      <c r="AC74" s="29" t="n"/>
+      <c r="AC74" s="29">
+        <f>IF(B35="DIV", F35,"")</f>
+        <v/>
+      </c>
       <c r="AD74" s="35" t="n"/>
     </row>
     <row r="75" ht="13" customHeight="1" s="72">
       <c r="A75" s="36" t="n">
-        <v>45282</v>
+        <v>45694</v>
       </c>
       <c r="B75" s="37" t="inlineStr">
         <is>
@@ -5190,17 +4883,17 @@
       </c>
       <c r="C75" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D75" s="38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="39" t="n">
-        <v>477.57</v>
+        <v>631.89</v>
       </c>
       <c r="F75" s="39" t="n">
-        <v>1432.71</v>
+        <v>631.89</v>
       </c>
       <c r="G75" s="37" t="inlineStr">
         <is>
@@ -5208,75 +4901,81 @@
         </is>
       </c>
       <c r="H75" s="38" t="n">
-        <v>1.44</v>
+        <v>0.63</v>
       </c>
       <c r="I75" s="38" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="J75" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J75" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K75" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L75" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M75" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N75" s="31">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O75" s="30">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P75" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R75" s="29">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S75" s="32">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T75" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U75" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V75" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W75" s="33" t="n"/>
       <c r="X75" s="33" t="n"/>
       <c r="Y75" s="32">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z75" s="33" t="n"/>
       <c r="AA75" s="33" t="n"/>
       <c r="AB75" s="34" t="n"/>
-      <c r="AC75" s="29" t="n"/>
+      <c r="AC75" s="29">
+        <f>IF(B36="DIV", F36,"")</f>
+        <v/>
+      </c>
       <c r="AD75" s="35" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1" s="72">
       <c r="A76" s="36" t="n">
-        <v>45204</v>
+        <v>45694</v>
       </c>
       <c r="B76" s="37" t="inlineStr">
         <is>
@@ -5285,17 +4984,17 @@
       </c>
       <c r="C76" s="37" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D76" s="38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="39" t="n">
-        <v>375.64</v>
+        <v>631.79</v>
       </c>
       <c r="F76" s="39" t="n">
-        <v>1126.91</v>
+        <v>631.79</v>
       </c>
       <c r="G76" s="37" t="inlineStr">
         <is>
@@ -5303,75 +5002,81 @@
         </is>
       </c>
       <c r="H76" s="38" t="n">
-        <v>1.11</v>
+        <v>0.63</v>
       </c>
       <c r="I76" s="38" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="J76" s="40" t="n"/>
+        <v>3.81</v>
+      </c>
+      <c r="J76" s="29">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
       <c r="K76" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L76" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M76" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N76" s="31">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O76" s="30">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P76" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R76" s="29">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S76" s="32">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T76" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U76" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V76" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W76" s="33" t="n"/>
       <c r="X76" s="33" t="n"/>
       <c r="Y76" s="32">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z76" s="33" t="n"/>
       <c r="AA76" s="33" t="n"/>
       <c r="AB76" s="34" t="n"/>
-      <c r="AC76" s="29" t="n"/>
+      <c r="AC76" s="29">
+        <f>IF(B37="DIV", F37,"")</f>
+        <v/>
+      </c>
       <c r="AD76" s="35" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1" s="72">
       <c r="A77" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B77" s="37" t="inlineStr">
         <is>
@@ -5384,13 +5089,13 @@
         </is>
       </c>
       <c r="D77" s="38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E77" s="39" t="n">
-        <v>375.64</v>
+        <v>477.57</v>
       </c>
       <c r="F77" s="39" t="n">
-        <v>375.64</v>
+        <v>3342.98</v>
       </c>
       <c r="G77" s="37" t="inlineStr">
         <is>
@@ -5398,64 +5103,64 @@
         </is>
       </c>
       <c r="H77" s="38" t="n">
-        <v>0.37</v>
+        <v>3.37</v>
       </c>
       <c r="I77" s="38" t="n">
-        <v>2.24</v>
+        <v>19.95</v>
       </c>
       <c r="J77" s="40" t="n"/>
       <c r="K77" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L77" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M77" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N77" s="31">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O77" s="30">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P77" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R77" s="29">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S77" s="32">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T77" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U77" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V77" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W77" s="33" t="n"/>
       <c r="X77" s="33" t="n"/>
       <c r="Y77" s="32">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z77" s="33" t="n"/>
@@ -5466,7 +5171,7 @@
     </row>
     <row r="78" ht="13" customHeight="1" s="72">
       <c r="A78" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B78" s="37" t="inlineStr">
         <is>
@@ -5479,13 +5184,13 @@
         </is>
       </c>
       <c r="D78" s="38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E78" s="39" t="n">
-        <v>375.58</v>
+        <v>477.62</v>
       </c>
       <c r="F78" s="39" t="n">
-        <v>3004.66</v>
+        <v>1910.48</v>
       </c>
       <c r="G78" s="37" t="inlineStr">
         <is>
@@ -5493,64 +5198,64 @@
         </is>
       </c>
       <c r="H78" s="38" t="n">
-        <v>2.98</v>
+        <v>1.92</v>
       </c>
       <c r="I78" s="38" t="n">
-        <v>17.96</v>
+        <v>11.4</v>
       </c>
       <c r="J78" s="40" t="n"/>
       <c r="K78" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L78" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M78" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N78" s="31">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O78" s="30">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P78" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R78" s="29">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S78" s="32">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T78" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U78" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V78" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W78" s="33" t="n"/>
       <c r="X78" s="33" t="n"/>
       <c r="Y78" s="32">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z78" s="33" t="n"/>
@@ -5561,7 +5266,7 @@
     </row>
     <row r="79" ht="13" customHeight="1" s="72">
       <c r="A79" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B79" s="37" t="inlineStr">
         <is>
@@ -5574,13 +5279,13 @@
         </is>
       </c>
       <c r="D79" s="38" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E79" s="39" t="n">
-        <v>375.63</v>
+        <v>477.62</v>
       </c>
       <c r="F79" s="39" t="n">
-        <v>9766.42</v>
+        <v>7641.86</v>
       </c>
       <c r="G79" s="37" t="inlineStr">
         <is>
@@ -5588,64 +5293,64 @@
         </is>
       </c>
       <c r="H79" s="38" t="n">
-        <v>9.68</v>
+        <v>7.7</v>
       </c>
       <c r="I79" s="38" t="n">
-        <v>58.4</v>
+        <v>45.64</v>
       </c>
       <c r="J79" s="40" t="n"/>
       <c r="K79" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L79" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M79" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N79" s="31">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O79" s="30">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P79" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R79" s="29">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S79" s="32">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T79" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U79" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V79" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W79" s="33" t="n"/>
       <c r="X79" s="33" t="n"/>
       <c r="Y79" s="32">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z79" s="33" t="n"/>
@@ -5656,7 +5361,7 @@
     </row>
     <row r="80" ht="13" customHeight="1" s="72">
       <c r="A80" s="36" t="n">
-        <v>45204</v>
+        <v>45282</v>
       </c>
       <c r="B80" s="37" t="inlineStr">
         <is>
@@ -5669,13 +5374,13 @@
         </is>
       </c>
       <c r="D80" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" s="39" t="n">
-        <v>375.58</v>
+        <v>477.57</v>
       </c>
       <c r="F80" s="39" t="n">
-        <v>751.16</v>
+        <v>1432.71</v>
       </c>
       <c r="G80" s="37" t="inlineStr">
         <is>
@@ -5683,64 +5388,65 @@
         </is>
       </c>
       <c r="H80" s="38" t="n">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="I80" s="38" t="n">
-        <v>4.49</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="J80" s="40" t="n"/>
       <c r="K80" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L80" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M80" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N80" s="31">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O80" s="30">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P80" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R80" s="29">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S80" s="32">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T80" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U80" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V80" s="33">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W80" s="33" t="n"/>
       <c r="X80" s="33" t="n"/>
-      <c r="Y80" s="32" t="e">
-        <v>#REF!</v>
+      <c r="Y80" s="32">
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <v/>
       </c>
       <c r="Z80" s="33" t="n"/>
       <c r="AA80" s="33" t="n"/>
@@ -5750,7 +5456,7 @@
     </row>
     <row r="81" ht="13" customHeight="1" s="72">
       <c r="A81" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B81" s="37" t="inlineStr">
         <is>
@@ -5759,17 +5465,17 @@
       </c>
       <c r="C81" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D81" s="38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E81" s="39" t="n">
-        <v>326.2</v>
+        <v>375.64</v>
       </c>
       <c r="F81" s="39" t="n">
-        <v>2609.58</v>
+        <v>1126.91</v>
       </c>
       <c r="G81" s="37" t="inlineStr">
         <is>
@@ -5777,66 +5483,75 @@
         </is>
       </c>
       <c r="H81" s="38" t="n">
-        <v>2.59</v>
+        <v>1.11</v>
       </c>
       <c r="I81" s="38" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="J81" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K81" s="33" t="n"/>
-      <c r="L81" s="33" t="n"/>
-      <c r="M81" s="41" t="n"/>
-      <c r="N81" s="42" t="n"/>
-      <c r="O81" s="41" t="n"/>
-      <c r="P81" s="33" t="n"/>
-      <c r="Q81" s="41" t="n"/>
-      <c r="R81" s="41" t="n"/>
-      <c r="S81" s="41" t="n"/>
-      <c r="T81" s="41" t="n"/>
-      <c r="U81" s="41" t="n"/>
-      <c r="V81" s="41" t="n"/>
-      <c r="W81" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X81" s="44" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y81" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z81" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA81" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB81" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC81" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+        <v>6.73</v>
+      </c>
+      <c r="J81" s="40" t="n"/>
+      <c r="K81" s="30">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <v/>
+      </c>
+      <c r="L81" s="29">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <v/>
+      </c>
+      <c r="M81" s="29">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <v/>
+      </c>
+      <c r="N81" s="31">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <v/>
+      </c>
+      <c r="O81" s="30">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <v/>
+      </c>
+      <c r="P81" s="29">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <v/>
+      </c>
+      <c r="Q81" s="29">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <v/>
+      </c>
+      <c r="R81" s="29">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <v/>
+      </c>
+      <c r="S81" s="32">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <v/>
+      </c>
+      <c r="T81" s="33">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <v/>
+      </c>
+      <c r="U81" s="33">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <v/>
+      </c>
+      <c r="V81" s="33">
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <v/>
+      </c>
+      <c r="W81" s="33" t="n"/>
+      <c r="X81" s="33" t="n"/>
+      <c r="Y81" s="32">
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <v/>
+      </c>
+      <c r="Z81" s="33" t="n"/>
+      <c r="AA81" s="33" t="n"/>
+      <c r="AB81" s="34" t="n"/>
+      <c r="AC81" s="29" t="n"/>
       <c r="AD81" s="35" t="n"/>
-      <c r="AE81" s="48" t="n"/>
-      <c r="AF81" s="48" t="n"/>
-      <c r="AG81" s="48" t="n"/>
-      <c r="AH81" s="48" t="n"/>
-      <c r="AI81" s="48" t="n"/>
-      <c r="AJ81" s="48" t="n"/>
-      <c r="AK81" s="48" t="n"/>
-      <c r="AL81" s="48" t="n"/>
-      <c r="AM81" s="48" t="n"/>
-      <c r="AN81" s="48" t="n"/>
-      <c r="AO81" s="48" t="n"/>
-      <c r="AP81" s="48" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="72">
       <c r="A82" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B82" s="37" t="inlineStr">
         <is>
@@ -5845,17 +5560,17 @@
       </c>
       <c r="C82" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D82" s="38" t="n">
         <v>1</v>
       </c>
       <c r="E82" s="39" t="n">
-        <v>326.2</v>
+        <v>375.64</v>
       </c>
       <c r="F82" s="39" t="n">
-        <v>326.2</v>
+        <v>375.64</v>
       </c>
       <c r="G82" s="37" t="inlineStr">
         <is>
@@ -5863,66 +5578,75 @@
         </is>
       </c>
       <c r="H82" s="38" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I82" s="38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J82" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K82" s="33" t="n"/>
-      <c r="L82" s="33" t="n"/>
-      <c r="M82" s="41" t="n"/>
-      <c r="N82" s="42" t="n"/>
-      <c r="O82" s="41" t="n"/>
-      <c r="P82" s="33" t="n"/>
-      <c r="Q82" s="41" t="n"/>
-      <c r="R82" s="41" t="n"/>
-      <c r="S82" s="41" t="n"/>
-      <c r="T82" s="41" t="n"/>
-      <c r="U82" s="41" t="n"/>
-      <c r="V82" s="41" t="n"/>
-      <c r="W82" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X82" s="44" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y82" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z82" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA82" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB82" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC82" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+        <v>2.24</v>
+      </c>
+      <c r="J82" s="40" t="n"/>
+      <c r="K82" s="30">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <v/>
+      </c>
+      <c r="L82" s="29">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <v/>
+      </c>
+      <c r="M82" s="29">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <v/>
+      </c>
+      <c r="N82" s="31">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <v/>
+      </c>
+      <c r="O82" s="30">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <v/>
+      </c>
+      <c r="P82" s="29">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <v/>
+      </c>
+      <c r="Q82" s="29">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <v/>
+      </c>
+      <c r="R82" s="29">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <v/>
+      </c>
+      <c r="S82" s="32">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <v/>
+      </c>
+      <c r="T82" s="33">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <v/>
+      </c>
+      <c r="U82" s="33">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <v/>
+      </c>
+      <c r="V82" s="33">
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <v/>
+      </c>
+      <c r="W82" s="33" t="n"/>
+      <c r="X82" s="33" t="n"/>
+      <c r="Y82" s="32">
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <v/>
+      </c>
+      <c r="Z82" s="33" t="n"/>
+      <c r="AA82" s="33" t="n"/>
+      <c r="AB82" s="34" t="n"/>
+      <c r="AC82" s="29" t="n"/>
       <c r="AD82" s="35" t="n"/>
-      <c r="AE82" s="48" t="n"/>
-      <c r="AF82" s="48" t="n"/>
-      <c r="AG82" s="48" t="n"/>
-      <c r="AH82" s="48" t="n"/>
-      <c r="AI82" s="48" t="n"/>
-      <c r="AJ82" s="48" t="n"/>
-      <c r="AK82" s="48" t="n"/>
-      <c r="AL82" s="48" t="n"/>
-      <c r="AM82" s="48" t="n"/>
-      <c r="AN82" s="48" t="n"/>
-      <c r="AO82" s="48" t="n"/>
-      <c r="AP82" s="48" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="72">
       <c r="A83" s="36" t="n">
-        <v>45183</v>
+        <v>45204</v>
       </c>
       <c r="B83" s="37" t="inlineStr">
         <is>
@@ -5931,17 +5655,17 @@
       </c>
       <c r="C83" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D83" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" s="39" t="n">
-        <v>326.25</v>
+        <v>375.58</v>
       </c>
       <c r="F83" s="39" t="n">
-        <v>326.25</v>
+        <v>3004.66</v>
       </c>
       <c r="G83" s="37" t="inlineStr">
         <is>
@@ -5949,66 +5673,75 @@
         </is>
       </c>
       <c r="H83" s="38" t="n">
-        <v>0.32</v>
+        <v>2.98</v>
       </c>
       <c r="I83" s="38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J83" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K83" s="33" t="n"/>
-      <c r="L83" s="33" t="n"/>
-      <c r="M83" s="41" t="n"/>
-      <c r="N83" s="42" t="n"/>
-      <c r="O83" s="41" t="n"/>
-      <c r="P83" s="33" t="n"/>
-      <c r="Q83" s="41" t="n"/>
-      <c r="R83" s="41" t="n"/>
-      <c r="S83" s="41" t="n"/>
-      <c r="T83" s="41" t="n"/>
-      <c r="U83" s="41" t="n"/>
-      <c r="V83" s="41" t="n"/>
-      <c r="W83" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X83" s="44" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y83" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z83" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA83" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB83" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC83" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+        <v>17.96</v>
+      </c>
+      <c r="J83" s="40" t="n"/>
+      <c r="K83" s="30">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <v/>
+      </c>
+      <c r="L83" s="29">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <v/>
+      </c>
+      <c r="M83" s="29">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <v/>
+      </c>
+      <c r="N83" s="31">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <v/>
+      </c>
+      <c r="O83" s="30">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <v/>
+      </c>
+      <c r="P83" s="29">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <v/>
+      </c>
+      <c r="Q83" s="29">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <v/>
+      </c>
+      <c r="R83" s="29">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <v/>
+      </c>
+      <c r="S83" s="32">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <v/>
+      </c>
+      <c r="T83" s="33">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <v/>
+      </c>
+      <c r="U83" s="33">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <v/>
+      </c>
+      <c r="V83" s="33">
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <v/>
+      </c>
+      <c r="W83" s="33" t="n"/>
+      <c r="X83" s="33" t="n"/>
+      <c r="Y83" s="32">
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <v/>
+      </c>
+      <c r="Z83" s="33" t="n"/>
+      <c r="AA83" s="33" t="n"/>
+      <c r="AB83" s="34" t="n"/>
+      <c r="AC83" s="29" t="n"/>
       <c r="AD83" s="35" t="n"/>
-      <c r="AE83" s="48" t="n"/>
-      <c r="AF83" s="48" t="n"/>
-      <c r="AG83" s="48" t="n"/>
-      <c r="AH83" s="48" t="n"/>
-      <c r="AI83" s="48" t="n"/>
-      <c r="AJ83" s="48" t="n"/>
-      <c r="AK83" s="48" t="n"/>
-      <c r="AL83" s="48" t="n"/>
-      <c r="AM83" s="48" t="n"/>
-      <c r="AN83" s="48" t="n"/>
-      <c r="AO83" s="48" t="n"/>
-      <c r="AP83" s="48" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1" s="72">
       <c r="A84" s="36" t="n">
-        <v>45181</v>
+        <v>45204</v>
       </c>
       <c r="B84" s="37" t="inlineStr">
         <is>
@@ -6017,17 +5750,17 @@
       </c>
       <c r="C84" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D84" s="38" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E84" s="39" t="n">
-        <v>318.94</v>
+        <v>375.63</v>
       </c>
       <c r="F84" s="39" t="n">
-        <v>2551.53</v>
+        <v>9766.42</v>
       </c>
       <c r="G84" s="37" t="inlineStr">
         <is>
@@ -6035,66 +5768,75 @@
         </is>
       </c>
       <c r="H84" s="38" t="n">
-        <v>2.54</v>
+        <v>9.68</v>
       </c>
       <c r="I84" s="38" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="J84" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K84" s="33" t="n"/>
-      <c r="L84" s="33" t="n"/>
-      <c r="M84" s="41" t="n"/>
-      <c r="N84" s="42" t="n"/>
-      <c r="O84" s="41" t="n"/>
-      <c r="P84" s="33" t="n"/>
-      <c r="Q84" s="41" t="n"/>
-      <c r="R84" s="41" t="n"/>
-      <c r="S84" s="41" t="n"/>
-      <c r="T84" s="41" t="n"/>
-      <c r="U84" s="41" t="n"/>
-      <c r="V84" s="41" t="n"/>
-      <c r="W84" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X84" s="44" t="n">
-        <v>45282</v>
-      </c>
-      <c r="Y84" s="32" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z84" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA84" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB84" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC84" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+        <v>58.4</v>
+      </c>
+      <c r="J84" s="40" t="n"/>
+      <c r="K84" s="30">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="L84" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="M84" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <v/>
+      </c>
+      <c r="N84" s="31">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <v/>
+      </c>
+      <c r="O84" s="30">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="P84" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="Q84" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <v/>
+      </c>
+      <c r="R84" s="29">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="S84" s="32">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="T84" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <v/>
+      </c>
+      <c r="U84" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <v/>
+      </c>
+      <c r="V84" s="33">
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <v/>
+      </c>
+      <c r="W84" s="33" t="n"/>
+      <c r="X84" s="33" t="n"/>
+      <c r="Y84" s="32">
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <v/>
+      </c>
+      <c r="Z84" s="33" t="n"/>
+      <c r="AA84" s="33" t="n"/>
+      <c r="AB84" s="34" t="n"/>
+      <c r="AC84" s="29" t="n"/>
       <c r="AD84" s="35" t="n"/>
-      <c r="AE84" s="48" t="n"/>
-      <c r="AF84" s="48" t="n"/>
-      <c r="AG84" s="48" t="n"/>
-      <c r="AH84" s="48" t="n"/>
-      <c r="AI84" s="48" t="n"/>
-      <c r="AJ84" s="48" t="n"/>
-      <c r="AK84" s="48" t="n"/>
-      <c r="AL84" s="48" t="n"/>
-      <c r="AM84" s="48" t="n"/>
-      <c r="AN84" s="48" t="n"/>
-      <c r="AO84" s="48" t="n"/>
-      <c r="AP84" s="48" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1" s="72">
       <c r="A85" s="36" t="n">
-        <v>45181</v>
+        <v>45204</v>
       </c>
       <c r="B85" s="37" t="inlineStr">
         <is>
@@ -6103,17 +5845,17 @@
       </c>
       <c r="C85" s="37" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D85" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="39" t="n">
-        <v>318.94</v>
+        <v>375.58</v>
       </c>
       <c r="F85" s="39" t="n">
-        <v>318.94</v>
+        <v>751.16</v>
       </c>
       <c r="G85" s="37" t="inlineStr">
         <is>
@@ -6121,66 +5863,74 @@
         </is>
       </c>
       <c r="H85" s="38" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="I85" s="38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J85" s="40">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K85" s="33" t="n"/>
-      <c r="L85" s="33" t="n"/>
-      <c r="M85" s="41" t="n"/>
-      <c r="N85" s="42" t="n"/>
-      <c r="O85" s="41" t="n"/>
-      <c r="P85" s="33" t="n"/>
-      <c r="Q85" s="41" t="n"/>
-      <c r="R85" s="41" t="n"/>
-      <c r="S85" s="41" t="n"/>
-      <c r="T85" s="41" t="n"/>
-      <c r="U85" s="41" t="n"/>
-      <c r="V85" s="41" t="n"/>
-      <c r="W85" s="43" t="n">
-        <v>478.55</v>
-      </c>
-      <c r="X85" s="44" t="n">
-        <v>45282</v>
-      </c>
+        <v>4.49</v>
+      </c>
+      <c r="J85" s="40" t="n"/>
+      <c r="K85" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="L85" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="M85" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="N85" s="31">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="O85" s="30">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="P85" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="Q85" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="R85" s="29">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="S85" s="32">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!/ SUM(#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="T85" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <v/>
+      </c>
+      <c r="U85" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <v/>
+      </c>
+      <c r="V85" s="33">
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W85" s="33" t="n"/>
+      <c r="X85" s="33" t="n"/>
       <c r="Y85" s="32" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z85" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA85" s="45" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB85" s="46" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC85" s="47">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
-        <v/>
-      </c>
+      <c r="Z85" s="33" t="n"/>
+      <c r="AA85" s="33" t="n"/>
+      <c r="AB85" s="34" t="n"/>
+      <c r="AC85" s="29" t="n"/>
       <c r="AD85" s="35" t="n"/>
-      <c r="AE85" s="48" t="n"/>
-      <c r="AF85" s="48" t="n"/>
-      <c r="AG85" s="48" t="n"/>
-      <c r="AH85" s="48" t="n"/>
-      <c r="AI85" s="48" t="n"/>
-      <c r="AJ85" s="48" t="n"/>
-      <c r="AK85" s="48" t="n"/>
-      <c r="AL85" s="48" t="n"/>
-      <c r="AM85" s="48" t="n"/>
-      <c r="AN85" s="48" t="n"/>
-      <c r="AO85" s="48" t="n"/>
-      <c r="AP85" s="48" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1" s="72">
       <c r="A86" s="36" t="n">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B86" s="37" t="inlineStr">
         <is>
@@ -6193,13 +5943,13 @@
         </is>
       </c>
       <c r="D86" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E86" s="39" t="n">
-        <v>318.94</v>
+        <v>326.2</v>
       </c>
       <c r="F86" s="39" t="n">
-        <v>318.94</v>
+        <v>2609.58</v>
       </c>
       <c r="G86" s="37" t="inlineStr">
         <is>
@@ -6207,10 +5957,10 @@
         </is>
       </c>
       <c r="H86" s="38" t="n">
-        <v>0.32</v>
+        <v>2.59</v>
       </c>
       <c r="I86" s="38" t="n">
-        <v>1.92</v>
+        <v>15.79</v>
       </c>
       <c r="J86" s="40">
         <f>Index!$C$2</f>
@@ -6266,7 +6016,7 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="72">
       <c r="A87" s="36" t="n">
-        <v>45180</v>
+        <v>45183</v>
       </c>
       <c r="B87" s="37" t="inlineStr">
         <is>
@@ -6282,10 +6032,10 @@
         <v>1</v>
       </c>
       <c r="E87" s="39" t="n">
-        <v>335.81</v>
+        <v>326.2</v>
       </c>
       <c r="F87" s="39" t="n">
-        <v>335.81</v>
+        <v>326.2</v>
       </c>
       <c r="G87" s="37" t="inlineStr">
         <is>
@@ -6293,10 +6043,10 @@
         </is>
       </c>
       <c r="H87" s="38" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I87" s="38" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="J87" s="40">
         <f>Index!$C$2</f>
@@ -6352,7 +6102,7 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="72">
       <c r="A88" s="36" t="n">
-        <v>45180</v>
+        <v>45183</v>
       </c>
       <c r="B88" s="37" t="inlineStr">
         <is>
@@ -6365,13 +6115,13 @@
         </is>
       </c>
       <c r="D88" s="38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E88" s="39" t="n">
-        <v>335.82</v>
+        <v>326.25</v>
       </c>
       <c r="F88" s="39" t="n">
-        <v>2686.55</v>
+        <v>326.25</v>
       </c>
       <c r="G88" s="37" t="inlineStr">
         <is>
@@ -6379,10 +6129,10 @@
         </is>
       </c>
       <c r="H88" s="38" t="n">
-        <v>2.65</v>
+        <v>0.32</v>
       </c>
       <c r="I88" s="38" t="n">
-        <v>16.3</v>
+        <v>1.98</v>
       </c>
       <c r="J88" s="40">
         <f>Index!$C$2</f>
@@ -6438,7 +6188,7 @@
     </row>
     <row r="89" ht="13" customHeight="1" s="72">
       <c r="A89" s="36" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B89" s="37" t="inlineStr">
         <is>
@@ -6451,13 +6201,13 @@
         </is>
       </c>
       <c r="D89" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E89" s="39" t="n">
-        <v>335.76</v>
+        <v>318.94</v>
       </c>
       <c r="F89" s="39" t="n">
-        <v>335.76</v>
+        <v>2551.53</v>
       </c>
       <c r="G89" s="37" t="inlineStr">
         <is>
@@ -6465,21 +6215,21 @@
         </is>
       </c>
       <c r="H89" s="38" t="n">
-        <v>0.33</v>
+        <v>2.54</v>
       </c>
       <c r="I89" s="38" t="n">
-        <v>2.03</v>
+        <v>15.39</v>
       </c>
       <c r="J89" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K89" s="41" t="n"/>
-      <c r="L89" s="41" t="n"/>
+      <c r="K89" s="33" t="n"/>
+      <c r="L89" s="33" t="n"/>
       <c r="M89" s="41" t="n"/>
       <c r="N89" s="42" t="n"/>
       <c r="O89" s="41" t="n"/>
-      <c r="P89" s="41" t="n"/>
+      <c r="P89" s="33" t="n"/>
       <c r="Q89" s="41" t="n"/>
       <c r="R89" s="41" t="n"/>
       <c r="S89" s="41" t="n"/>
@@ -6524,7 +6274,7 @@
     </row>
     <row r="90" ht="13" customHeight="1" s="72">
       <c r="A90" s="36" t="n">
-        <v>45034</v>
+        <v>45181</v>
       </c>
       <c r="B90" s="37" t="inlineStr">
         <is>
@@ -6537,13 +6287,13 @@
         </is>
       </c>
       <c r="D90" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="39" t="n">
-        <v>261.64</v>
+        <v>318.94</v>
       </c>
       <c r="F90" s="39" t="n">
-        <v>523.29</v>
+        <v>318.94</v>
       </c>
       <c r="G90" s="37" t="inlineStr">
         <is>
@@ -6551,21 +6301,21 @@
         </is>
       </c>
       <c r="H90" s="38" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="I90" s="38" t="n">
-        <v>3.17</v>
+        <v>1.92</v>
       </c>
       <c r="J90" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K90" s="41" t="n"/>
-      <c r="L90" s="41" t="n"/>
+      <c r="K90" s="33" t="n"/>
+      <c r="L90" s="33" t="n"/>
       <c r="M90" s="41" t="n"/>
       <c r="N90" s="42" t="n"/>
       <c r="O90" s="41" t="n"/>
-      <c r="P90" s="41" t="n"/>
+      <c r="P90" s="33" t="n"/>
       <c r="Q90" s="41" t="n"/>
       <c r="R90" s="41" t="n"/>
       <c r="S90" s="41" t="n"/>
@@ -6573,10 +6323,10 @@
       <c r="U90" s="41" t="n"/>
       <c r="V90" s="41" t="n"/>
       <c r="W90" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X90" s="49" t="n">
-        <v>45204</v>
+        <v>478.55</v>
+      </c>
+      <c r="X90" s="44" t="n">
+        <v>45282</v>
       </c>
       <c r="Y90" s="32" t="e">
         <v>#REF!</v>
@@ -6610,7 +6360,7 @@
     </row>
     <row r="91" ht="13" customHeight="1" s="72">
       <c r="A91" s="36" t="n">
-        <v>45034</v>
+        <v>45181</v>
       </c>
       <c r="B91" s="37" t="inlineStr">
         <is>
@@ -6626,10 +6376,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="39" t="n">
-        <v>261.7</v>
+        <v>318.94</v>
       </c>
       <c r="F91" s="39" t="n">
-        <v>261.7</v>
+        <v>318.94</v>
       </c>
       <c r="G91" s="37" t="inlineStr">
         <is>
@@ -6637,10 +6387,10 @@
         </is>
       </c>
       <c r="H91" s="38" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I91" s="38" t="n">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="J91" s="40">
         <f>Index!$C$2</f>
@@ -6659,33 +6409,28 @@
       <c r="U91" s="41" t="n"/>
       <c r="V91" s="41" t="n"/>
       <c r="W91" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X91" s="49" t="n">
-        <v>45204</v>
-      </c>
-      <c r="Y91" s="32">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
-        <v/>
-      </c>
-      <c r="Z91" s="45" t="n">
-        <v>-3173.3424</v>
-      </c>
-      <c r="AA91" s="45" t="n">
-        <v>3218.4</v>
-      </c>
-      <c r="AB91" s="46" t="n">
-        <v>5</v>
+        <v>478.55</v>
+      </c>
+      <c r="X91" s="44" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y91" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z91" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA91" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB91" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC91" s="47">
-        <f>IF(B46="DIV", F46,"")</f>
-        <v/>
-      </c>
-      <c r="AD91" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD91" s="35" t="n"/>
       <c r="AE91" s="48" t="n"/>
       <c r="AF91" s="48" t="n"/>
       <c r="AG91" s="48" t="n"/>
@@ -6701,7 +6446,7 @@
     </row>
     <row r="92" ht="13" customHeight="1" s="72">
       <c r="A92" s="36" t="n">
-        <v>45034</v>
+        <v>45180</v>
       </c>
       <c r="B92" s="37" t="inlineStr">
         <is>
@@ -6714,13 +6459,13 @@
         </is>
       </c>
       <c r="D92" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E92" s="39" t="n">
-        <v>261.7</v>
+        <v>335.81</v>
       </c>
       <c r="F92" s="39" t="n">
-        <v>1831.87</v>
+        <v>335.81</v>
       </c>
       <c r="G92" s="37" t="inlineStr">
         <is>
@@ -6728,10 +6473,10 @@
         </is>
       </c>
       <c r="H92" s="38" t="n">
-        <v>1.82</v>
+        <v>0.33</v>
       </c>
       <c r="I92" s="38" t="n">
-        <v>11.1</v>
+        <v>2.03</v>
       </c>
       <c r="J92" s="40">
         <f>Index!$C$2</f>
@@ -6750,33 +6495,28 @@
       <c r="U92" s="41" t="n"/>
       <c r="V92" s="41" t="n"/>
       <c r="W92" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X92" s="49" t="n">
-        <v>45204</v>
-      </c>
-      <c r="Y92" s="32">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
-        <v/>
-      </c>
-      <c r="Z92" s="45" t="n">
-        <v>-3173.0959</v>
-      </c>
-      <c r="AA92" s="45" t="n">
-        <v>3218.15</v>
-      </c>
-      <c r="AB92" s="46" t="n">
-        <v>5</v>
+        <v>478.55</v>
+      </c>
+      <c r="X92" s="44" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y92" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z92" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA92" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB92" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC92" s="47">
-        <f>IF(B47="DIV", F47,"")</f>
-        <v/>
-      </c>
-      <c r="AD92" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD92" s="35" t="n"/>
       <c r="AE92" s="48" t="n"/>
       <c r="AF92" s="48" t="n"/>
       <c r="AG92" s="48" t="n"/>
@@ -6792,7 +6532,7 @@
     </row>
     <row r="93" ht="13" customHeight="1" s="72">
       <c r="A93" s="36" t="n">
-        <v>44981</v>
+        <v>45180</v>
       </c>
       <c r="B93" s="37" t="inlineStr">
         <is>
@@ -6805,13 +6545,13 @@
         </is>
       </c>
       <c r="D93" s="38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E93" s="39" t="n">
-        <v>260.34</v>
+        <v>335.82</v>
       </c>
       <c r="F93" s="39" t="n">
-        <v>260.34</v>
+        <v>2686.55</v>
       </c>
       <c r="G93" s="37" t="inlineStr">
         <is>
@@ -6819,10 +6559,10 @@
         </is>
       </c>
       <c r="H93" s="38" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="I93" s="38" t="n">
-        <v>1.58</v>
+        <v>16.3</v>
       </c>
       <c r="J93" s="40">
         <f>Index!$C$2</f>
@@ -6841,33 +6581,28 @@
       <c r="U93" s="41" t="n"/>
       <c r="V93" s="41" t="n"/>
       <c r="W93" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X93" s="49" t="n">
-        <v>45204</v>
-      </c>
-      <c r="Y93" s="32">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
-        <v/>
-      </c>
-      <c r="Z93" s="45" t="n">
-        <v>-1215.99436</v>
-      </c>
-      <c r="AA93" s="45" t="n">
-        <v>1233.26</v>
-      </c>
-      <c r="AB93" s="46" t="n">
-        <v>2</v>
+        <v>478.55</v>
+      </c>
+      <c r="X93" s="44" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y93" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z93" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA93" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB93" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC93" s="47">
-        <f>IF(B48="DIV", F48,"")</f>
-        <v/>
-      </c>
-      <c r="AD93" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD93" s="35" t="n"/>
       <c r="AE93" s="48" t="n"/>
       <c r="AF93" s="48" t="n"/>
       <c r="AG93" s="48" t="n"/>
@@ -6883,7 +6618,7 @@
     </row>
     <row r="94" ht="13" customHeight="1" s="72">
       <c r="A94" s="36" t="n">
-        <v>44981</v>
+        <v>45180</v>
       </c>
       <c r="B94" s="37" t="inlineStr">
         <is>
@@ -6896,13 +6631,13 @@
         </is>
       </c>
       <c r="D94" s="38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E94" s="39" t="n">
-        <v>260.23</v>
+        <v>335.76</v>
       </c>
       <c r="F94" s="39" t="n">
-        <v>2342.08</v>
+        <v>335.76</v>
       </c>
       <c r="G94" s="37" t="inlineStr">
         <is>
@@ -6910,21 +6645,21 @@
         </is>
       </c>
       <c r="H94" s="38" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="I94" s="38" t="n">
-        <v>14.15</v>
+        <v>2.03</v>
       </c>
       <c r="J94" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K94" s="33" t="n"/>
-      <c r="L94" s="33" t="n"/>
+      <c r="K94" s="41" t="n"/>
+      <c r="L94" s="41" t="n"/>
       <c r="M94" s="41" t="n"/>
       <c r="N94" s="42" t="n"/>
       <c r="O94" s="41" t="n"/>
-      <c r="P94" s="33" t="n"/>
+      <c r="P94" s="41" t="n"/>
       <c r="Q94" s="41" t="n"/>
       <c r="R94" s="41" t="n"/>
       <c r="S94" s="41" t="n"/>
@@ -6932,33 +6667,28 @@
       <c r="U94" s="41" t="n"/>
       <c r="V94" s="41" t="n"/>
       <c r="W94" s="43" t="n">
-        <v>373.01</v>
-      </c>
-      <c r="X94" s="49" t="n">
-        <v>45204</v>
-      </c>
-      <c r="Y94" s="32">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
-        <v/>
-      </c>
-      <c r="Z94" s="45" t="n">
-        <v>-607.9084399999999</v>
-      </c>
-      <c r="AA94" s="45" t="n">
-        <v>616.54</v>
-      </c>
-      <c r="AB94" s="46" t="n">
-        <v>1</v>
+        <v>478.55</v>
+      </c>
+      <c r="X94" s="44" t="n">
+        <v>45282</v>
+      </c>
+      <c r="Y94" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z94" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA94" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB94" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC94" s="47">
-        <f>IF(B49="DIV", F49,"")</f>
-        <v/>
-      </c>
-      <c r="AD94" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD94" s="35" t="n"/>
       <c r="AE94" s="48" t="n"/>
       <c r="AF94" s="48" t="n"/>
       <c r="AG94" s="48" t="n"/>
@@ -6974,7 +6704,7 @@
     </row>
     <row r="95" ht="13" customHeight="1" s="72">
       <c r="A95" s="36" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B95" s="37" t="inlineStr">
         <is>
@@ -6987,13 +6717,13 @@
         </is>
       </c>
       <c r="D95" s="38" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E95" s="39" t="n">
-        <v>260.33</v>
+        <v>261.64</v>
       </c>
       <c r="F95" s="39" t="n">
-        <v>2342.98</v>
+        <v>523.29</v>
       </c>
       <c r="G95" s="37" t="inlineStr">
         <is>
@@ -7001,21 +6731,21 @@
         </is>
       </c>
       <c r="H95" s="38" t="n">
-        <v>2.33</v>
+        <v>0.52</v>
       </c>
       <c r="I95" s="38" t="n">
-        <v>14.15</v>
+        <v>3.17</v>
       </c>
       <c r="J95" s="40">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K95" s="33" t="n"/>
-      <c r="L95" s="33" t="n"/>
+      <c r="K95" s="41" t="n"/>
+      <c r="L95" s="41" t="n"/>
       <c r="M95" s="41" t="n"/>
       <c r="N95" s="42" t="n"/>
       <c r="O95" s="41" t="n"/>
-      <c r="P95" s="33" t="n"/>
+      <c r="P95" s="41" t="n"/>
       <c r="Q95" s="41" t="n"/>
       <c r="R95" s="41" t="n"/>
       <c r="S95" s="41" t="n"/>
@@ -7028,28 +6758,23 @@
       <c r="X95" s="49" t="n">
         <v>45204</v>
       </c>
-      <c r="Y95" s="32">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
-        <v/>
-      </c>
-      <c r="Z95" s="45" t="n">
-        <v>-1215.79716</v>
-      </c>
-      <c r="AA95" s="45" t="n">
-        <v>1233.06</v>
-      </c>
-      <c r="AB95" s="46" t="n">
-        <v>2</v>
+      <c r="Y95" s="32" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z95" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA95" s="45" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB95" s="46" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC95" s="47">
-        <f>IF(B50="DIV", F50,"")</f>
-        <v/>
-      </c>
-      <c r="AD95" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="AD95" s="35" t="n"/>
       <c r="AE95" s="48" t="n"/>
       <c r="AF95" s="48" t="n"/>
       <c r="AG95" s="48" t="n"/>
@@ -7065,7 +6790,7 @@
     </row>
     <row r="96" ht="13" customHeight="1" s="72">
       <c r="A96" s="36" t="n">
-        <v>44981</v>
+        <v>45034</v>
       </c>
       <c r="B96" s="37" t="inlineStr">
         <is>
@@ -7081,10 +6806,10 @@
         <v>1</v>
       </c>
       <c r="E96" s="39" t="n">
-        <v>260.29</v>
+        <v>261.7</v>
       </c>
       <c r="F96" s="39" t="n">
-        <v>260.29</v>
+        <v>261.7</v>
       </c>
       <c r="G96" s="37" t="inlineStr">
         <is>
@@ -7095,7 +6820,7 @@
         <v>0.26</v>
       </c>
       <c r="I96" s="38" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J96" s="40">
         <f>Index!$C$2</f>
@@ -7120,20 +6845,20 @@
         <v>45204</v>
       </c>
       <c r="Y96" s="32">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z96" s="45" t="n">
-        <v>-607.9084399999999</v>
+        <v>-3173.3424</v>
       </c>
       <c r="AA96" s="45" t="n">
-        <v>616.54</v>
+        <v>3218.4</v>
       </c>
       <c r="AB96" s="46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC96" s="47">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD96" s="50" t="inlineStr">
@@ -7156,7 +6881,7 @@
     </row>
     <row r="97" ht="13" customHeight="1" s="72">
       <c r="A97" s="36" t="n">
-        <v>44950</v>
+        <v>45034</v>
       </c>
       <c r="B97" s="37" t="inlineStr">
         <is>
@@ -7169,13 +6894,13 @@
         </is>
       </c>
       <c r="D97" s="38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E97" s="39" t="n">
-        <v>292.3</v>
+        <v>261.7</v>
       </c>
       <c r="F97" s="39" t="n">
-        <v>2923.03</v>
+        <v>1831.87</v>
       </c>
       <c r="G97" s="37" t="inlineStr">
         <is>
@@ -7183,10 +6908,10 @@
         </is>
       </c>
       <c r="H97" s="38" t="n">
-        <v>2.89</v>
+        <v>1.82</v>
       </c>
       <c r="I97" s="38" t="n">
-        <v>17.64</v>
+        <v>11.1</v>
       </c>
       <c r="J97" s="40">
         <f>Index!$C$2</f>
@@ -7211,20 +6936,20 @@
         <v>45204</v>
       </c>
       <c r="Y97" s="32">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z97" s="45" t="n">
-        <v>-2431.63376</v>
+        <v>-3173.0959</v>
       </c>
       <c r="AA97" s="45" t="n">
-        <v>2466.16</v>
+        <v>3218.15</v>
       </c>
       <c r="AB97" s="46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC97" s="47">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD97" s="50" t="inlineStr">
@@ -7246,84 +6971,459 @@
       <c r="AP97" s="48" t="n"/>
     </row>
     <row r="98" ht="13" customHeight="1" s="72">
-      <c r="E98" s="51" t="n"/>
-      <c r="F98" s="51" t="n"/>
-      <c r="G98" s="52" t="n"/>
-      <c r="J98" s="51" t="n"/>
-      <c r="K98" s="51" t="n"/>
-      <c r="L98" s="51" t="n"/>
-      <c r="M98" s="1" t="n"/>
-      <c r="W98" s="51" t="n"/>
-      <c r="X98" s="51" t="n"/>
-      <c r="Y98" s="51" t="n"/>
-      <c r="Z98" s="51" t="n"/>
-      <c r="AA98" s="51" t="n"/>
-      <c r="AB98" s="51" t="n"/>
-      <c r="AC98" s="51" t="n"/>
+      <c r="A98" s="36" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B98" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C98" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D98" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="39" t="n">
+        <v>260.34</v>
+      </c>
+      <c r="F98" s="39" t="n">
+        <v>260.34</v>
+      </c>
+      <c r="G98" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H98" s="38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I98" s="38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J98" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K98" s="33" t="n"/>
+      <c r="L98" s="33" t="n"/>
+      <c r="M98" s="41" t="n"/>
+      <c r="N98" s="42" t="n"/>
+      <c r="O98" s="41" t="n"/>
+      <c r="P98" s="33" t="n"/>
+      <c r="Q98" s="41" t="n"/>
+      <c r="R98" s="41" t="n"/>
+      <c r="S98" s="41" t="n"/>
+      <c r="T98" s="41" t="n"/>
+      <c r="U98" s="41" t="n"/>
+      <c r="V98" s="41" t="n"/>
+      <c r="W98" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X98" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y98" s="32">
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <v/>
+      </c>
+      <c r="Z98" s="45" t="n">
+        <v>-1215.99436</v>
+      </c>
+      <c r="AA98" s="45" t="n">
+        <v>1233.26</v>
+      </c>
+      <c r="AB98" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC98" s="47">
+        <f>IF(B48="DIV", F48,"")</f>
+        <v/>
+      </c>
+      <c r="AD98" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE98" s="48" t="n"/>
+      <c r="AF98" s="48" t="n"/>
+      <c r="AG98" s="48" t="n"/>
+      <c r="AH98" s="48" t="n"/>
+      <c r="AI98" s="48" t="n"/>
+      <c r="AJ98" s="48" t="n"/>
+      <c r="AK98" s="48" t="n"/>
+      <c r="AL98" s="48" t="n"/>
+      <c r="AM98" s="48" t="n"/>
+      <c r="AN98" s="48" t="n"/>
+      <c r="AO98" s="48" t="n"/>
+      <c r="AP98" s="48" t="n"/>
     </row>
     <row r="99" ht="13" customHeight="1" s="72">
-      <c r="E99" s="51" t="n"/>
-      <c r="F99" s="51" t="n"/>
-      <c r="G99" s="52" t="n"/>
-      <c r="J99" s="51" t="n"/>
-      <c r="K99" s="51" t="n"/>
-      <c r="L99" s="51" t="n"/>
-      <c r="M99" s="1" t="n"/>
-      <c r="W99" s="51" t="n"/>
-      <c r="X99" s="51" t="n"/>
-      <c r="Y99" s="51" t="n"/>
-      <c r="Z99" s="51" t="n"/>
-      <c r="AA99" s="51" t="n"/>
-      <c r="AB99" s="51" t="n"/>
-      <c r="AC99" s="51" t="n"/>
+      <c r="A99" s="36" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B99" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C99" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D99" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E99" s="39" t="n">
+        <v>260.23</v>
+      </c>
+      <c r="F99" s="39" t="n">
+        <v>2342.08</v>
+      </c>
+      <c r="G99" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H99" s="38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I99" s="38" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J99" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K99" s="33" t="n"/>
+      <c r="L99" s="33" t="n"/>
+      <c r="M99" s="41" t="n"/>
+      <c r="N99" s="42" t="n"/>
+      <c r="O99" s="41" t="n"/>
+      <c r="P99" s="33" t="n"/>
+      <c r="Q99" s="41" t="n"/>
+      <c r="R99" s="41" t="n"/>
+      <c r="S99" s="41" t="n"/>
+      <c r="T99" s="41" t="n"/>
+      <c r="U99" s="41" t="n"/>
+      <c r="V99" s="41" t="n"/>
+      <c r="W99" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X99" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y99" s="32">
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <v/>
+      </c>
+      <c r="Z99" s="45" t="n">
+        <v>-607.9084399999999</v>
+      </c>
+      <c r="AA99" s="45" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="AB99" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="47">
+        <f>IF(B49="DIV", F49,"")</f>
+        <v/>
+      </c>
+      <c r="AD99" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE99" s="48" t="n"/>
+      <c r="AF99" s="48" t="n"/>
+      <c r="AG99" s="48" t="n"/>
+      <c r="AH99" s="48" t="n"/>
+      <c r="AI99" s="48" t="n"/>
+      <c r="AJ99" s="48" t="n"/>
+      <c r="AK99" s="48" t="n"/>
+      <c r="AL99" s="48" t="n"/>
+      <c r="AM99" s="48" t="n"/>
+      <c r="AN99" s="48" t="n"/>
+      <c r="AO99" s="48" t="n"/>
+      <c r="AP99" s="48" t="n"/>
     </row>
     <row r="100" ht="13" customHeight="1" s="72">
-      <c r="E100" s="51" t="n"/>
-      <c r="F100" s="51" t="n"/>
-      <c r="G100" s="52" t="n"/>
-      <c r="J100" s="51" t="n"/>
-      <c r="K100" s="51" t="n"/>
-      <c r="L100" s="51" t="n"/>
-      <c r="M100" s="1" t="n"/>
-      <c r="W100" s="51" t="n"/>
-      <c r="X100" s="51" t="n"/>
-      <c r="Y100" s="51" t="n"/>
-      <c r="Z100" s="51" t="n"/>
-      <c r="AA100" s="51" t="n"/>
-      <c r="AB100" s="51" t="n"/>
-      <c r="AC100" s="51" t="n"/>
+      <c r="A100" s="36" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B100" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C100" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D100" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E100" s="39" t="n">
+        <v>260.33</v>
+      </c>
+      <c r="F100" s="39" t="n">
+        <v>2342.98</v>
+      </c>
+      <c r="G100" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H100" s="38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I100" s="38" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="J100" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K100" s="33" t="n"/>
+      <c r="L100" s="33" t="n"/>
+      <c r="M100" s="41" t="n"/>
+      <c r="N100" s="42" t="n"/>
+      <c r="O100" s="41" t="n"/>
+      <c r="P100" s="33" t="n"/>
+      <c r="Q100" s="41" t="n"/>
+      <c r="R100" s="41" t="n"/>
+      <c r="S100" s="41" t="n"/>
+      <c r="T100" s="41" t="n"/>
+      <c r="U100" s="41" t="n"/>
+      <c r="V100" s="41" t="n"/>
+      <c r="W100" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X100" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y100" s="32">
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <v/>
+      </c>
+      <c r="Z100" s="45" t="n">
+        <v>-1215.79716</v>
+      </c>
+      <c r="AA100" s="45" t="n">
+        <v>1233.06</v>
+      </c>
+      <c r="AB100" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC100" s="47">
+        <f>IF(B50="DIV", F50,"")</f>
+        <v/>
+      </c>
+      <c r="AD100" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE100" s="48" t="n"/>
+      <c r="AF100" s="48" t="n"/>
+      <c r="AG100" s="48" t="n"/>
+      <c r="AH100" s="48" t="n"/>
+      <c r="AI100" s="48" t="n"/>
+      <c r="AJ100" s="48" t="n"/>
+      <c r="AK100" s="48" t="n"/>
+      <c r="AL100" s="48" t="n"/>
+      <c r="AM100" s="48" t="n"/>
+      <c r="AN100" s="48" t="n"/>
+      <c r="AO100" s="48" t="n"/>
+      <c r="AP100" s="48" t="n"/>
     </row>
     <row r="101" ht="13" customHeight="1" s="72">
-      <c r="E101" s="51" t="n"/>
-      <c r="F101" s="51" t="n"/>
-      <c r="G101" s="52" t="n"/>
-      <c r="J101" s="51" t="n"/>
-      <c r="K101" s="51" t="n"/>
-      <c r="L101" s="51" t="n"/>
-      <c r="M101" s="1" t="n"/>
-      <c r="W101" s="51" t="n"/>
-      <c r="X101" s="51" t="n"/>
-      <c r="Y101" s="51" t="n"/>
-      <c r="Z101" s="51" t="n"/>
-      <c r="AA101" s="51" t="n"/>
-      <c r="AB101" s="51" t="n"/>
-      <c r="AC101" s="51" t="n"/>
+      <c r="A101" s="36" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B101" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C101" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D101" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="39" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="F101" s="39" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="G101" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H101" s="38" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I101" s="38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J101" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K101" s="33" t="n"/>
+      <c r="L101" s="33" t="n"/>
+      <c r="M101" s="41" t="n"/>
+      <c r="N101" s="42" t="n"/>
+      <c r="O101" s="41" t="n"/>
+      <c r="P101" s="33" t="n"/>
+      <c r="Q101" s="41" t="n"/>
+      <c r="R101" s="41" t="n"/>
+      <c r="S101" s="41" t="n"/>
+      <c r="T101" s="41" t="n"/>
+      <c r="U101" s="41" t="n"/>
+      <c r="V101" s="41" t="n"/>
+      <c r="W101" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X101" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y101" s="32">
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <v/>
+      </c>
+      <c r="Z101" s="45" t="n">
+        <v>-607.9084399999999</v>
+      </c>
+      <c r="AA101" s="45" t="n">
+        <v>616.54</v>
+      </c>
+      <c r="AB101" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="47">
+        <f>IF(B51="DIV", F51,"")</f>
+        <v/>
+      </c>
+      <c r="AD101" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE101" s="48" t="n"/>
+      <c r="AF101" s="48" t="n"/>
+      <c r="AG101" s="48" t="n"/>
+      <c r="AH101" s="48" t="n"/>
+      <c r="AI101" s="48" t="n"/>
+      <c r="AJ101" s="48" t="n"/>
+      <c r="AK101" s="48" t="n"/>
+      <c r="AL101" s="48" t="n"/>
+      <c r="AM101" s="48" t="n"/>
+      <c r="AN101" s="48" t="n"/>
+      <c r="AO101" s="48" t="n"/>
+      <c r="AP101" s="48" t="n"/>
     </row>
     <row r="102" ht="13" customHeight="1" s="72">
-      <c r="E102" s="51" t="n"/>
-      <c r="F102" s="51" t="n"/>
-      <c r="G102" s="52" t="n"/>
-      <c r="J102" s="51" t="n"/>
-      <c r="K102" s="51" t="n"/>
-      <c r="L102" s="51" t="n"/>
-      <c r="M102" s="1" t="n"/>
-      <c r="W102" s="51" t="n"/>
-      <c r="X102" s="51" t="n"/>
-      <c r="Y102" s="51" t="n"/>
-      <c r="Z102" s="51" t="n"/>
-      <c r="AA102" s="51" t="n"/>
-      <c r="AB102" s="51" t="n"/>
-      <c r="AC102" s="51" t="n"/>
+      <c r="A102" s="36" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B102" s="37" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C102" s="37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D102" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" s="39" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="F102" s="39" t="n">
+        <v>2923.03</v>
+      </c>
+      <c r="G102" s="37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H102" s="38" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I102" s="38" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="J102" s="40">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K102" s="33" t="n"/>
+      <c r="L102" s="33" t="n"/>
+      <c r="M102" s="41" t="n"/>
+      <c r="N102" s="42" t="n"/>
+      <c r="O102" s="41" t="n"/>
+      <c r="P102" s="33" t="n"/>
+      <c r="Q102" s="41" t="n"/>
+      <c r="R102" s="41" t="n"/>
+      <c r="S102" s="41" t="n"/>
+      <c r="T102" s="41" t="n"/>
+      <c r="U102" s="41" t="n"/>
+      <c r="V102" s="41" t="n"/>
+      <c r="W102" s="43" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="X102" s="49" t="n">
+        <v>45204</v>
+      </c>
+      <c r="Y102" s="32">
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <v/>
+      </c>
+      <c r="Z102" s="45" t="n">
+        <v>-2431.63376</v>
+      </c>
+      <c r="AA102" s="45" t="n">
+        <v>2466.16</v>
+      </c>
+      <c r="AB102" s="46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="47">
+        <f>IF(B52="DIV", F52,"")</f>
+        <v/>
+      </c>
+      <c r="AD102" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+      <c r="AE102" s="48" t="n"/>
+      <c r="AF102" s="48" t="n"/>
+      <c r="AG102" s="48" t="n"/>
+      <c r="AH102" s="48" t="n"/>
+      <c r="AI102" s="48" t="n"/>
+      <c r="AJ102" s="48" t="n"/>
+      <c r="AK102" s="48" t="n"/>
+      <c r="AL102" s="48" t="n"/>
+      <c r="AM102" s="48" t="n"/>
+      <c r="AN102" s="48" t="n"/>
+      <c r="AO102" s="48" t="n"/>
+      <c r="AP102" s="48" t="n"/>
     </row>
     <row r="103" ht="13" customHeight="1" s="72">
       <c r="E103" s="51" t="n"/>
@@ -22228,6 +22328,7 @@
       <c r="J1034" s="51" t="n"/>
       <c r="K1034" s="51" t="n"/>
       <c r="L1034" s="51" t="n"/>
+      <c r="M1034" s="1" t="n"/>
       <c r="W1034" s="51" t="n"/>
       <c r="X1034" s="51" t="n"/>
       <c r="Y1034" s="51" t="n"/>
@@ -22243,6 +22344,7 @@
       <c r="J1035" s="51" t="n"/>
       <c r="K1035" s="51" t="n"/>
       <c r="L1035" s="51" t="n"/>
+      <c r="M1035" s="1" t="n"/>
       <c r="W1035" s="51" t="n"/>
       <c r="X1035" s="51" t="n"/>
       <c r="Y1035" s="51" t="n"/>
@@ -22258,6 +22360,7 @@
       <c r="J1036" s="51" t="n"/>
       <c r="K1036" s="51" t="n"/>
       <c r="L1036" s="51" t="n"/>
+      <c r="M1036" s="1" t="n"/>
       <c r="W1036" s="51" t="n"/>
       <c r="X1036" s="51" t="n"/>
       <c r="Y1036" s="51" t="n"/>
@@ -22273,6 +22376,7 @@
       <c r="J1037" s="51" t="n"/>
       <c r="K1037" s="51" t="n"/>
       <c r="L1037" s="51" t="n"/>
+      <c r="M1037" s="1" t="n"/>
       <c r="W1037" s="51" t="n"/>
       <c r="X1037" s="51" t="n"/>
       <c r="Y1037" s="51" t="n"/>
@@ -22288,6 +22392,7 @@
       <c r="J1038" s="51" t="n"/>
       <c r="K1038" s="51" t="n"/>
       <c r="L1038" s="51" t="n"/>
+      <c r="M1038" s="1" t="n"/>
       <c r="W1038" s="51" t="n"/>
       <c r="X1038" s="51" t="n"/>
       <c r="Y1038" s="51" t="n"/>
@@ -22475,6 +22580,81 @@
       <c r="AA1050" s="51" t="n"/>
       <c r="AB1050" s="51" t="n"/>
       <c r="AC1050" s="51" t="n"/>
+    </row>
+    <row r="1051">
+      <c r="E1051" s="51" t="n"/>
+      <c r="F1051" s="51" t="n"/>
+      <c r="G1051" s="52" t="n"/>
+      <c r="J1051" s="51" t="n"/>
+      <c r="K1051" s="51" t="n"/>
+      <c r="L1051" s="51" t="n"/>
+      <c r="W1051" s="51" t="n"/>
+      <c r="X1051" s="51" t="n"/>
+      <c r="Y1051" s="51" t="n"/>
+      <c r="Z1051" s="51" t="n"/>
+      <c r="AA1051" s="51" t="n"/>
+      <c r="AB1051" s="51" t="n"/>
+      <c r="AC1051" s="51" t="n"/>
+    </row>
+    <row r="1052">
+      <c r="E1052" s="51" t="n"/>
+      <c r="F1052" s="51" t="n"/>
+      <c r="G1052" s="52" t="n"/>
+      <c r="J1052" s="51" t="n"/>
+      <c r="K1052" s="51" t="n"/>
+      <c r="L1052" s="51" t="n"/>
+      <c r="W1052" s="51" t="n"/>
+      <c r="X1052" s="51" t="n"/>
+      <c r="Y1052" s="51" t="n"/>
+      <c r="Z1052" s="51" t="n"/>
+      <c r="AA1052" s="51" t="n"/>
+      <c r="AB1052" s="51" t="n"/>
+      <c r="AC1052" s="51" t="n"/>
+    </row>
+    <row r="1053">
+      <c r="E1053" s="51" t="n"/>
+      <c r="F1053" s="51" t="n"/>
+      <c r="G1053" s="52" t="n"/>
+      <c r="J1053" s="51" t="n"/>
+      <c r="K1053" s="51" t="n"/>
+      <c r="L1053" s="51" t="n"/>
+      <c r="W1053" s="51" t="n"/>
+      <c r="X1053" s="51" t="n"/>
+      <c r="Y1053" s="51" t="n"/>
+      <c r="Z1053" s="51" t="n"/>
+      <c r="AA1053" s="51" t="n"/>
+      <c r="AB1053" s="51" t="n"/>
+      <c r="AC1053" s="51" t="n"/>
+    </row>
+    <row r="1054">
+      <c r="E1054" s="51" t="n"/>
+      <c r="F1054" s="51" t="n"/>
+      <c r="G1054" s="52" t="n"/>
+      <c r="J1054" s="51" t="n"/>
+      <c r="K1054" s="51" t="n"/>
+      <c r="L1054" s="51" t="n"/>
+      <c r="W1054" s="51" t="n"/>
+      <c r="X1054" s="51" t="n"/>
+      <c r="Y1054" s="51" t="n"/>
+      <c r="Z1054" s="51" t="n"/>
+      <c r="AA1054" s="51" t="n"/>
+      <c r="AB1054" s="51" t="n"/>
+      <c r="AC1054" s="51" t="n"/>
+    </row>
+    <row r="1055">
+      <c r="E1055" s="51" t="n"/>
+      <c r="F1055" s="51" t="n"/>
+      <c r="G1055" s="52" t="n"/>
+      <c r="J1055" s="51" t="n"/>
+      <c r="K1055" s="51" t="n"/>
+      <c r="L1055" s="51" t="n"/>
+      <c r="W1055" s="51" t="n"/>
+      <c r="X1055" s="51" t="n"/>
+      <c r="Y1055" s="51" t="n"/>
+      <c r="Z1055" s="51" t="n"/>
+      <c r="AA1055" s="51" t="n"/>
+      <c r="AB1055" s="51" t="n"/>
+      <c r="AC1055" s="51" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO82"/>
